--- a/LCOM_PyPSA_results2.xlsx
+++ b/LCOM_PyPSA_results2.xlsx
@@ -8,25 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/philip/Documents/GitHub/PyPSA-China-Green-LCOX-Model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8DC1747D-2815-6D46-AC24-A979202DFDCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9022D54C-AE9D-FD43-8229-CEBC0F0A1DEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="300" yWindow="640" windowWidth="28240" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="LCOX_Overview" sheetId="1" r:id="rId1"/>
-    <sheet name="LCOM_Overview" sheetId="2" r:id="rId2"/>
-    <sheet name="InMo_BT_VE" sheetId="3" r:id="rId3"/>
-    <sheet name="InMo_BT_GW" sheetId="4" r:id="rId4"/>
-    <sheet name="InMo_CF_VE" sheetId="5" r:id="rId5"/>
-    <sheet name="InMo_CF_GW" sheetId="6" r:id="rId6"/>
-    <sheet name="JiLi_BC_VE" sheetId="7" r:id="rId7"/>
-    <sheet name="JiLi_BC_GW" sheetId="8" r:id="rId8"/>
-    <sheet name="LiNi_CY_VE" sheetId="9" r:id="rId9"/>
-    <sheet name="LiNi_CY_GW" sheetId="10" r:id="rId10"/>
-    <sheet name="JiLi_BC_VE2" sheetId="11" r:id="rId11"/>
+    <sheet name="LCOM_Overview" sheetId="2" r:id="rId1"/>
+    <sheet name="InMo_BT_VE" sheetId="3" r:id="rId2"/>
+    <sheet name="InMo_BT_GW" sheetId="4" r:id="rId3"/>
+    <sheet name="InMo_CF_VE" sheetId="5" r:id="rId4"/>
+    <sheet name="InMo_CF_GW" sheetId="6" r:id="rId5"/>
+    <sheet name="JiLi_BC_VE" sheetId="7" r:id="rId6"/>
+    <sheet name="JiLi_BC_GW" sheetId="8" r:id="rId7"/>
+    <sheet name="LiNi_CY_VE" sheetId="9" r:id="rId8"/>
+    <sheet name="LiNi_CY_GW" sheetId="10" r:id="rId9"/>
+    <sheet name="JiLi_BC_VE2" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -44,68 +42,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="72">
   <si>
     <t>Province</t>
   </si>
   <si>
-    <t>Prefecture</t>
-  </si>
-  <si>
     <t>Latitude</t>
   </si>
   <si>
     <t>Longitude</t>
   </si>
   <si>
-    <t>LCOA (USD/t)</t>
-  </si>
-  <si>
-    <t>LCOM (USD/t)</t>
-  </si>
-  <si>
-    <t>Methodology</t>
-  </si>
-  <si>
-    <t>all models*</t>
-  </si>
-  <si>
-    <t>PyPSA</t>
-  </si>
-  <si>
-    <t>LCOX-real-projects</t>
-  </si>
-  <si>
-    <t>LCOX-China</t>
-  </si>
-  <si>
-    <t>LCOX-Sichuan (hydro)</t>
-  </si>
-  <si>
-    <t>PTX-BOA Germany (2030)</t>
-  </si>
-  <si>
-    <t>grey prices China ('22-'24)</t>
-  </si>
-  <si>
-    <t>PyPSA*</t>
-  </si>
-  <si>
-    <t>LCOX-real-projects*</t>
-  </si>
-  <si>
-    <t>LCOX-China*</t>
-  </si>
-  <si>
-    <t>biomethanol**</t>
-  </si>
-  <si>
-    <t>bio e-methanol***</t>
-  </si>
-  <si>
-    <t>grey methanol (2022-2024)</t>
-  </si>
-  <si>
     <t>Inner Mongolia</t>
   </si>
   <si>
@@ -118,37 +65,13 @@
     <t>Liaoning</t>
   </si>
   <si>
-    <t>Changchun</t>
-  </si>
-  <si>
     <t>Jilin</t>
   </si>
   <si>
     <t>Baicheng</t>
   </si>
   <si>
-    <t>Bayannur</t>
-  </si>
-  <si>
-    <t>Sichuan</t>
-  </si>
-  <si>
     <t>China</t>
-  </si>
-  <si>
-    <t>Tongnan</t>
-  </si>
-  <si>
-    <t>Heilongjiang</t>
-  </si>
-  <si>
-    <t>Shuangyashan</t>
-  </si>
-  <si>
-    <t>LCOA Notes: all models assume a PV/wind hybrid as RES (except the AgMe-Sichuan hydropower case and grey ammonia).</t>
-  </si>
-  <si>
-    <t>LCOM Notes: Notes: all models assume a PV/wind hybrid as RES (except grey ammonia) *with CCS from coal-fired power generation; **depending on biomass costs (42-113 USD/t); ***depending on biomass (42-113 USD/t) and LCOH (2.09-2.73 USD/kg) costs.</t>
   </si>
   <si>
     <t>LCOM Results from PyPSA Optimization</t>
@@ -341,7 +264,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -399,6 +322,11 @@
       <sz val="12"/>
       <name val="Aptos Narrow"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Aptos Narrow"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -414,7 +342,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -483,30 +411,6 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -530,104 +434,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="double">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="dashDot">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="dashDot">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="double">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color indexed="64"/>
-      </left>
-      <right style="dashDot">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="double">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -702,12 +508,70 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -719,13 +583,13 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -739,57 +603,47 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1126,1779 +980,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W21"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="12.5" customWidth="1"/>
-    <col min="7" max="7" width="15.1640625" customWidth="1"/>
-    <col min="8" max="13" width="12.5" customWidth="1"/>
-    <col min="14" max="14" width="15.1640625" customWidth="1"/>
-    <col min="15" max="15" width="12.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="27"/>
-    </row>
-    <row r="2" spans="1:19">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="M2" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="N2" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="O2" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="P2" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q2" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="R2" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="S2" s="22" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3">
-        <v>41.640099999999997</v>
-      </c>
-      <c r="D3">
-        <v>109.8633</v>
-      </c>
-      <c r="E3" s="23">
-        <f>F3</f>
-        <v>520.77669433999745</v>
-      </c>
-      <c r="F3" s="23">
-        <v>520.77669433999745</v>
-      </c>
-      <c r="G3" s="22"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="12">
-        <v>512</v>
-      </c>
-      <c r="K3" s="20">
-        <v>420</v>
-      </c>
-      <c r="L3" s="23">
-        <f>M3</f>
-        <v>559.59579056617872</v>
-      </c>
-      <c r="M3" s="22">
-        <v>559.59579056617872</v>
-      </c>
-      <c r="N3" s="22"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="22">
-        <v>353.23706445869948</v>
-      </c>
-      <c r="Q3" s="22">
-        <v>454.12540635609167</v>
-      </c>
-      <c r="R3" s="22">
-        <v>684</v>
-      </c>
-      <c r="S3" s="22">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4">
-        <v>42.785200000000003</v>
-      </c>
-      <c r="D4">
-        <v>118.7646</v>
-      </c>
-      <c r="E4" s="23">
-        <f>F4</f>
-        <v>520.37161288929826</v>
-      </c>
-      <c r="F4" s="23">
-        <v>520.37161288929826</v>
-      </c>
-      <c r="G4" s="22"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="12">
-        <v>536</v>
-      </c>
-      <c r="K4" s="20">
-        <v>570</v>
-      </c>
-      <c r="L4" s="23">
-        <f>M4</f>
-        <v>543.57801571134166</v>
-      </c>
-      <c r="M4" s="22">
-        <v>543.57801571134166</v>
-      </c>
-      <c r="N4" s="22"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="22">
-        <v>393.36479498120781</v>
-      </c>
-      <c r="Q4" s="22">
-        <v>480.25051851152028</v>
-      </c>
-      <c r="R4" s="22">
-        <v>693</v>
-      </c>
-      <c r="S4" s="22">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5">
-        <v>41.680700000000002</v>
-      </c>
-      <c r="D5">
-        <v>120.7899</v>
-      </c>
-      <c r="E5" s="23">
-        <f>F5</f>
-        <v>572.84896836661562</v>
-      </c>
-      <c r="F5" s="23">
-        <v>572.84896836661562</v>
-      </c>
-      <c r="G5" s="22"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="12">
-        <v>631</v>
-      </c>
-      <c r="K5" s="20">
-        <v>455</v>
-      </c>
-      <c r="L5" s="23">
-        <f>M5</f>
-        <v>541.51704763840985</v>
-      </c>
-      <c r="M5" s="22">
-        <v>541.51704763840985</v>
-      </c>
-      <c r="N5" s="22"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="22">
-        <v>436.60101167095257</v>
-      </c>
-      <c r="Q5" s="22">
-        <v>506.37563066694878</v>
-      </c>
-      <c r="R5" s="22">
-        <v>794</v>
-      </c>
-      <c r="S5" s="22">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19">
-      <c r="A6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6">
-        <v>45.3733</v>
-      </c>
-      <c r="D6">
-        <v>122.9395</v>
-      </c>
-      <c r="E6" s="23">
-        <f>F6</f>
-        <v>558.7651397557737</v>
-      </c>
-      <c r="F6" s="23">
-        <v>558.7651397557737</v>
-      </c>
-      <c r="G6" s="22"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="12">
-        <v>647</v>
-      </c>
-      <c r="K6" s="20">
-        <v>518</v>
-      </c>
-      <c r="L6" s="23">
-        <f>M6</f>
-        <v>616.4826755068425</v>
-      </c>
-      <c r="M6" s="22">
-        <v>616.4826755068425</v>
-      </c>
-      <c r="N6" s="22"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="22">
-        <v>479.83722836069751</v>
-      </c>
-      <c r="Q6" s="22">
-        <v>532.50074282237745</v>
-      </c>
-      <c r="R6" s="22">
-        <v>800</v>
-      </c>
-      <c r="S6" s="22">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="23">
-        <f>G7</f>
-        <v>693.12907968171191</v>
-      </c>
-      <c r="F7" s="22"/>
-      <c r="G7" s="23">
-        <v>693.12907968171191</v>
-      </c>
-      <c r="H7" s="23"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="12">
-        <v>659</v>
-      </c>
-      <c r="K7" s="20">
-        <v>589</v>
-      </c>
-      <c r="L7" s="22"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="23">
-        <v>523.07344505044227</v>
-      </c>
-      <c r="Q7" s="23">
-        <v>558.62585497780606</v>
-      </c>
-      <c r="R7" s="23">
-        <v>838</v>
-      </c>
-      <c r="S7" s="23">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19">
-      <c r="A8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="23">
-        <f>G8</f>
-        <v>610.45899674050804</v>
-      </c>
-      <c r="F8" s="22"/>
-      <c r="G8" s="23">
-        <v>610.45899674050804</v>
-      </c>
-      <c r="H8" s="23"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="12">
-        <v>666</v>
-      </c>
-      <c r="K8" s="21">
-        <v>415</v>
-      </c>
-      <c r="L8" s="22"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="23">
-        <v>566.30966174018704</v>
-      </c>
-      <c r="Q8" s="23">
-        <v>584.75096713323455</v>
-      </c>
-      <c r="R8" s="23">
-        <v>842</v>
-      </c>
-      <c r="S8" s="23">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19">
-      <c r="A9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="23">
-        <v>335.48017627422809</v>
-      </c>
-      <c r="F9" s="22"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="19">
-        <v>335.48017627422809</v>
-      </c>
-      <c r="J9" s="12">
-        <v>671</v>
-      </c>
-      <c r="K9" s="21">
-        <v>430</v>
-      </c>
-      <c r="L9" s="22"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="23">
-        <v>458.37650413733672</v>
-      </c>
-      <c r="R9" s="23">
-        <v>855</v>
-      </c>
-      <c r="S9" s="23">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19">
-      <c r="A10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="23">
-        <f>H10</f>
-        <v>564</v>
-      </c>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22">
-        <v>564</v>
-      </c>
-      <c r="I10" s="18"/>
-      <c r="J10" s="12">
-        <v>713</v>
-      </c>
-      <c r="K10" s="20">
-        <v>350</v>
-      </c>
-      <c r="L10" s="22">
-        <f>O10</f>
-        <v>697</v>
-      </c>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="18">
-        <v>697</v>
-      </c>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="22">
-        <v>484.7461751850102</v>
-      </c>
-      <c r="R10" s="22">
-        <v>875</v>
-      </c>
-      <c r="S10" s="22">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="12">
-        <v>717</v>
-      </c>
-      <c r="K11" s="21">
-        <v>407</v>
-      </c>
-      <c r="L11" s="22">
-        <f>N11</f>
-        <v>748</v>
-      </c>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23">
-        <v>748</v>
-      </c>
-      <c r="O11" s="19"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="23">
-        <v>511.11584623268368</v>
-      </c>
-      <c r="R11" s="23">
-        <v>914</v>
-      </c>
-      <c r="S11" s="23"/>
-    </row>
-    <row r="12" spans="1:19">
-      <c r="A12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="12">
-        <v>744</v>
-      </c>
-      <c r="K12" s="21">
-        <v>335</v>
-      </c>
-      <c r="L12" s="22">
-        <f>N12</f>
-        <v>645</v>
-      </c>
-      <c r="M12" s="22"/>
-      <c r="N12" s="22">
-        <v>645</v>
-      </c>
-      <c r="O12" s="18"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="22">
-        <v>537.48551728035716</v>
-      </c>
-      <c r="R12" s="22">
-        <v>920</v>
-      </c>
-      <c r="S12" s="22"/>
-    </row>
-    <row r="13" spans="1:19">
-      <c r="A13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="12">
-        <v>749</v>
-      </c>
-      <c r="K13" s="21">
-        <v>518</v>
-      </c>
-      <c r="L13" s="22">
-        <f>N13</f>
-        <v>715</v>
-      </c>
-      <c r="M13" s="22"/>
-      <c r="N13" s="22">
-        <v>715</v>
-      </c>
-      <c r="O13" s="18"/>
-      <c r="P13" s="22"/>
-      <c r="Q13" s="22">
-        <v>563.85518832803075</v>
-      </c>
-      <c r="R13" s="22">
-        <v>924</v>
-      </c>
-      <c r="S13" s="22"/>
-    </row>
-    <row r="14" spans="1:19">
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="12">
-        <v>765</v>
-      </c>
-      <c r="K14" s="20"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="18"/>
-      <c r="P14" s="22"/>
-      <c r="Q14" s="22">
-        <v>590.22485937570423</v>
-      </c>
-      <c r="R14" s="22">
-        <v>971</v>
-      </c>
-      <c r="S14" s="22"/>
-    </row>
-    <row r="15" spans="1:19">
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="12">
-        <v>781</v>
-      </c>
-      <c r="K15" s="20"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="18"/>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="22">
-        <v>486.77632877601388</v>
-      </c>
-      <c r="R15" s="22">
-        <v>993</v>
-      </c>
-      <c r="S15" s="22"/>
-    </row>
-    <row r="16" spans="1:19">
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="12">
-        <v>803</v>
-      </c>
-      <c r="K16" s="20"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="22"/>
-      <c r="O16" s="18"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="22">
-        <v>514.77979655361139</v>
-      </c>
-      <c r="R16" s="22">
-        <v>993</v>
-      </c>
-      <c r="S16" s="22"/>
-    </row>
-    <row r="17" spans="1:23">
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="12">
-        <v>809</v>
-      </c>
-      <c r="K17" s="20"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="22"/>
-      <c r="O17" s="18"/>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="22">
-        <v>542.78326433120878</v>
-      </c>
-      <c r="R17" s="22"/>
-      <c r="S17" s="22"/>
-    </row>
-    <row r="18" spans="1:23">
-      <c r="A18" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="18"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="18"/>
-      <c r="P18" s="22"/>
-      <c r="Q18" s="22">
-        <v>570.78673210880606</v>
-      </c>
-      <c r="R18" s="22"/>
-      <c r="S18" s="22"/>
-    </row>
-    <row r="19" spans="1:23">
-      <c r="A19" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="18"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="22"/>
-      <c r="N19" s="22"/>
-      <c r="O19" s="18"/>
-      <c r="P19" s="22"/>
-      <c r="Q19" s="22">
-        <v>598.79019988640357</v>
-      </c>
-      <c r="R19" s="22"/>
-      <c r="S19" s="22"/>
-      <c r="T19" s="17"/>
-      <c r="U19" s="17"/>
-      <c r="V19" s="17"/>
-      <c r="W19" s="17"/>
-    </row>
-    <row r="20" spans="1:23">
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="22"/>
-      <c r="O20" s="18"/>
-      <c r="P20" s="22"/>
-      <c r="Q20" s="22">
-        <v>626.79366766400096</v>
-      </c>
-      <c r="R20" s="22"/>
-      <c r="S20" s="22"/>
-      <c r="T20" s="17"/>
-      <c r="U20" s="17"/>
-      <c r="V20" s="17"/>
-      <c r="W20" s="17"/>
-    </row>
-    <row r="21" spans="1:23">
-      <c r="R21" s="17"/>
-      <c r="S21" s="17"/>
-      <c r="T21" s="17"/>
-      <c r="U21" s="17"/>
-      <c r="V21" s="17"/>
-      <c r="W21" s="17"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="L1:S1"/>
-    <mergeCell ref="E1:K1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:N18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData>
-    <row r="1" spans="1:14">
-      <c r="C1" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="35" t="s">
-        <v>83</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2">
-        <v>75.575429999999997</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>103288.84832999999</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>103288.84832999999</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0.15601578449504019</v>
-      </c>
-      <c r="J2">
-        <v>22242.540150000001</v>
-      </c>
-      <c r="K2">
-        <v>3208182.5260000001</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>3208182.5161799998</v>
-      </c>
-      <c r="N2">
-        <v>31.060310610840851</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="36"/>
-      <c r="B3" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3">
-        <v>432.96611000000001</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>1788247.02593</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>1788247.02593</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0.47148676370998183</v>
-      </c>
-      <c r="J3">
-        <v>176597.7807</v>
-      </c>
-      <c r="K3">
-        <v>23751003.75979</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>23751003.685989998</v>
-      </c>
-      <c r="N3">
-        <v>13.28172402571812</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4">
-        <v>323.49389000000002</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>1094999.9942699999</v>
-      </c>
-      <c r="F4">
-        <v>1855932.1936699999</v>
-      </c>
-      <c r="G4">
-        <v>-760932.19940000004</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0.65492553816085974</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>15895290.07425</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>15895290.184629999</v>
-      </c>
-      <c r="N4">
-        <v>14.51624672</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="37"/>
-      <c r="B5" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C5">
-        <v>158.35903999999999</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>381168.40603000001</v>
-      </c>
-      <c r="F5">
-        <v>381168.40603000001</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>6.9999999999999999E-4</v>
-      </c>
-      <c r="I5">
-        <v>0.2747704204319501</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>6.9999999999999999E-4</v>
-      </c>
-      <c r="M5">
-        <v>6.9999999999999999E-4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="37"/>
-      <c r="B6" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C6">
-        <v>89.824179999999998</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>196429.29068999999</v>
-      </c>
-      <c r="F6">
-        <v>196429.29068999999</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>1.2999999999999999E-4</v>
-      </c>
-      <c r="I6">
-        <v>0.2496370131071611</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>1.2999999999999999E-4</v>
-      </c>
-      <c r="M6">
-        <v>1.2999999999999999E-4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="36"/>
-      <c r="B7" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C7">
-        <v>5.0674900000000003</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>876000.00005999999</v>
-      </c>
-      <c r="F7">
-        <v>1130040.0000700001</v>
-      </c>
-      <c r="G7">
-        <v>-254040.00002000001</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0.78934541558049443</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>14641895.03369</v>
-      </c>
-      <c r="L7">
-        <v>6534960.00043</v>
-      </c>
-      <c r="M7">
-        <v>21176854.922809999</v>
-      </c>
-      <c r="N7">
-        <v>24.1744919</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>876000</v>
-      </c>
-      <c r="G8">
-        <v>-876000</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>-76511118.563390002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C9">
-        <v>16.388300000000001</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>7632.2391500000003</v>
-      </c>
-      <c r="F9">
-        <v>8195.91309</v>
-      </c>
-      <c r="G9">
-        <v>-563.67394000000002</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0.11025365657206659</v>
-      </c>
-      <c r="J9">
-        <v>144125.15565999999</v>
-      </c>
-      <c r="K9">
-        <v>302258.72321999999</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>302258.72237999999</v>
-      </c>
-      <c r="N9">
-        <v>39.602896953836982</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="35" t="s">
-        <v>93</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C10">
-        <v>2287.9717999999998</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>190584.20266000001</v>
-      </c>
-      <c r="F10">
-        <v>190584.20337</v>
-      </c>
-      <c r="G10">
-        <v>-6.9999999999999999E-4</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0.40866922398256827</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>11603194.762429999</v>
-      </c>
-      <c r="L10">
-        <v>-6.9999999999999999E-4</v>
-      </c>
-      <c r="M10">
-        <v>11603194.905230001</v>
-      </c>
-      <c r="N10">
-        <v>60.882242249217349</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="36"/>
-      <c r="B11" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C11">
-        <v>59599.658000000003</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>98214.645279999997</v>
-      </c>
-      <c r="F11">
-        <v>98214.645409999997</v>
-      </c>
-      <c r="G11">
-        <v>-1.2999999999999999E-4</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0.3360916821032765</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>574333.46918000001</v>
-      </c>
-      <c r="L11">
-        <v>-1.2999999999999999E-4</v>
-      </c>
-      <c r="M11">
-        <v>574333.46631000005</v>
-      </c>
-      <c r="N11">
-        <v>5.8477361189897721</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15">
-        <v>69976158.348560005</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="A16" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16">
-        <v>6534960.00043</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17">
-        <v>876000.00005999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18">
-        <v>541.51704763840985</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A2:A3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:N18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
-  <sheetData>
-    <row r="1" spans="1:14">
-      <c r="C1" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="43" t="s">
-        <v>83</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2">
-        <v>597.66889000000003</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>748690.46573000005</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>748690.46573000005</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0.14300049982524601</v>
-      </c>
-      <c r="J2">
-        <v>238667.92725000001</v>
-      </c>
-      <c r="K2">
-        <v>25371087.71807</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>25371087.837809999</v>
-      </c>
-      <c r="N2">
-        <v>33.88728508505335</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="36"/>
-      <c r="B3" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3">
-        <v>400.471</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>1147076.54856</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>1147076.54856</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0.32697700957122983</v>
-      </c>
-      <c r="J3">
-        <v>204167.47313</v>
-      </c>
-      <c r="K3">
-        <v>21968435.882169999</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>21968435.666839998</v>
-      </c>
-      <c r="N3">
-        <v>19.151673823498619</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="43" t="s">
-        <v>85</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4">
-        <v>326.71201000000002</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>1095000.0019</v>
-      </c>
-      <c r="F4">
-        <v>1855932.20661</v>
-      </c>
-      <c r="G4">
-        <v>-760932.20470999996</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0.64847450817617625</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>16053416.55662</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>16053416.98325</v>
-      </c>
-      <c r="N4">
-        <v>14.6606548</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="37"/>
-      <c r="B5" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C5">
-        <v>133.11658</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>411866.58081999997</v>
-      </c>
-      <c r="F5">
-        <v>411866.58081999997</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>-2.5999999999999998E-4</v>
-      </c>
-      <c r="I5">
-        <v>0.35319965401755371</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>-2.5999999999999998E-4</v>
-      </c>
-      <c r="M5">
-        <v>-2.5999999999999998E-4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="37"/>
-      <c r="B6" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="C6">
-        <v>36.104039999999998</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>78958.506309999997</v>
-      </c>
-      <c r="F6">
-        <v>78958.506309999997</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>-4.2000000000000002E-4</v>
-      </c>
-      <c r="I6">
-        <v>0.2496543323129489</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>-4.2000000000000002E-4</v>
-      </c>
-      <c r="M6">
-        <v>-4.2000000000000002E-4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="36"/>
-      <c r="B7" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C7">
-        <v>4.2597300000000002</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>876000.0013</v>
-      </c>
-      <c r="F7">
-        <v>1130040.00168</v>
-      </c>
-      <c r="G7">
-        <v>-254040.00038000001</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0.93902665192394819</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>12307974.39481</v>
-      </c>
-      <c r="L7">
-        <v>6534960.0097000003</v>
-      </c>
-      <c r="M7">
-        <v>18842934.721519999</v>
-      </c>
-      <c r="N7">
-        <v>21.510199499999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>876000</v>
-      </c>
-      <c r="G8">
-        <v>-876000</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>-99845052.147799999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C9">
-        <v>162.59814</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>64922.530980000003</v>
-      </c>
-      <c r="F9">
-        <v>69717.341369999995</v>
-      </c>
-      <c r="G9">
-        <v>-4794.8103899999996</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>9.4526604055864355E-2</v>
-      </c>
-      <c r="J9">
-        <v>1429154.51679</v>
-      </c>
-      <c r="K9">
-        <v>2998890.37855</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>2998890.24272</v>
-      </c>
-      <c r="N9">
-        <v>46.191812447292968</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="43" t="s">
-        <v>93</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C10">
-        <v>2842.5075000000002</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>205933.29053999999</v>
-      </c>
-      <c r="F10">
-        <v>205933.29027999999</v>
-      </c>
-      <c r="G10">
-        <v>2.5999999999999998E-4</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0.36109558901779498</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>14415460.949370001</v>
-      </c>
-      <c r="L10">
-        <v>2.5999999999999998E-4</v>
-      </c>
-      <c r="M10">
-        <v>14415461.39127</v>
-      </c>
-      <c r="N10">
-        <v>70.000626159959197</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="36"/>
-      <c r="B11" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="C11">
-        <v>20217.436000000002</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>39479.253360000002</v>
-      </c>
-      <c r="F11">
-        <v>39479.252939999998</v>
-      </c>
-      <c r="G11">
-        <v>4.2000000000000002E-4</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0.43633853175051468</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>194825.785</v>
-      </c>
-      <c r="L11">
-        <v>4.2000000000000002E-4</v>
-      </c>
-      <c r="M11">
-        <v>194825.81617999999</v>
-      </c>
-      <c r="N11">
-        <v>4.9348955790856408</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15">
-        <v>93310091.664590001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="A16" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16">
-        <v>6534960.0097000003</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17">
-        <v>876000.0013</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18">
-        <v>706.66588979672645</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A2:A3"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
@@ -2910,75 +995,75 @@
   <sheetData>
     <row r="1" spans="1:25" ht="22" customHeight="1">
       <c r="A1" s="11" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:25">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J3" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="R3" s="31"/>
+        <v>12</v>
+      </c>
+      <c r="J3" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="R3" s="21"/>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J4" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="33"/>
+        <v>20</v>
+      </c>
+      <c r="J4" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="23"/>
       <c r="Q4" s="5" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
@@ -2989,44 +1074,44 @@
     </row>
     <row r="5" spans="1:25">
       <c r="A5" s="2" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
@@ -3040,13 +1125,13 @@
     </row>
     <row r="6" spans="1:25">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="D6">
         <v>41.640099999999997</v>
@@ -3113,13 +1198,13 @@
     </row>
     <row r="7" spans="1:25">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="D7">
         <v>42.785200000000003</v>
@@ -3182,13 +1267,13 @@
     </row>
     <row r="8" spans="1:25">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="D8">
         <v>41.680700000000002</v>
@@ -3251,13 +1336,13 @@
     </row>
     <row r="9" spans="1:25">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="D9">
         <v>45.3733</v>
@@ -3320,13 +1405,13 @@
     </row>
     <row r="10" spans="1:25">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="D10">
         <v>45.3733</v>
@@ -3387,7 +1472,7 @@
         <v>0.32697700957122983</v>
       </c>
       <c r="S10" s="8" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -3403,69 +1488,69 @@
     </row>
     <row r="12" spans="1:25">
       <c r="A12" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
-      <c r="J12" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="33"/>
-      <c r="Q12" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="R12" s="31"/>
+      <c r="J12" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="R12" s="21"/>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="J13" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="33"/>
+        <v>20</v>
+      </c>
+      <c r="J13" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="23"/>
       <c r="Q13" s="5" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="R13" s="5" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
@@ -3477,42 +1562,42 @@
     </row>
     <row r="14" spans="1:25">
       <c r="A14" s="2" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="J14" s="13" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="K14" s="13" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="L14" s="13" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="M14" s="13" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="N14" s="13" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="O14" s="15"/>
       <c r="P14" s="13" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
@@ -3526,13 +1611,13 @@
     </row>
     <row r="15" spans="1:25">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="D15">
         <v>41.640099999999997</v>
@@ -3595,13 +1680,13 @@
     </row>
     <row r="16" spans="1:25">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="D16">
         <v>42.785200000000003</v>
@@ -3664,13 +1749,13 @@
     </row>
     <row r="17" spans="1:18">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="D17">
         <v>41.680700000000002</v>
@@ -3733,13 +1818,13 @@
     </row>
     <row r="18" spans="1:18">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="D18">
         <v>45.3733</v>
@@ -3802,7 +1887,7 @@
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="10" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -3810,42 +1895,42 @@
         <v>0</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:18">
       <c r="A24" s="2" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:18">
       <c r="A25" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="D25">
         <v>41.640099999999997</v>
@@ -3860,13 +1945,13 @@
     </row>
     <row r="26" spans="1:18">
       <c r="A26" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C26" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="D26">
         <v>42.785200000000003</v>
@@ -3881,13 +1966,13 @@
     </row>
     <row r="27" spans="1:18">
       <c r="A27" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="C27" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="D27">
         <v>41.680700000000002</v>
@@ -3902,13 +1987,13 @@
     </row>
     <row r="28" spans="1:18">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="D28">
         <v>45.3733</v>
@@ -3923,10 +2008,10 @@
     </row>
     <row r="29" spans="1:18">
       <c r="A29" s="9" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
@@ -3949,7 +2034,521 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:N18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="C1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2">
+        <v>597.66889000000003</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>748690.46573000005</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>748690.46573000005</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0.14300049982524601</v>
+      </c>
+      <c r="J2">
+        <v>238667.92725000001</v>
+      </c>
+      <c r="K2">
+        <v>25371087.71807</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>25371087.837809999</v>
+      </c>
+      <c r="N2">
+        <v>33.88728508505335</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="26"/>
+      <c r="B3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3">
+        <v>400.471</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1147076.54856</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>1147076.54856</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0.32697700957122983</v>
+      </c>
+      <c r="J3">
+        <v>204167.47313</v>
+      </c>
+      <c r="K3">
+        <v>21968435.882169999</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>21968435.666839998</v>
+      </c>
+      <c r="N3">
+        <v>19.151673823498619</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4">
+        <v>326.71201000000002</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>1095000.0019</v>
+      </c>
+      <c r="F4">
+        <v>1855932.20661</v>
+      </c>
+      <c r="G4">
+        <v>-760932.20470999996</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0.64847450817617625</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>16053416.55662</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>16053416.98325</v>
+      </c>
+      <c r="N4">
+        <v>14.6606548</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="27"/>
+      <c r="B5" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5">
+        <v>133.11658</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>411866.58081999997</v>
+      </c>
+      <c r="F5">
+        <v>411866.58081999997</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>-2.5999999999999998E-4</v>
+      </c>
+      <c r="I5">
+        <v>0.35319965401755371</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>-2.5999999999999998E-4</v>
+      </c>
+      <c r="M5">
+        <v>-2.5999999999999998E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="27"/>
+      <c r="B6" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6">
+        <v>36.104039999999998</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>78958.506309999997</v>
+      </c>
+      <c r="F6">
+        <v>78958.506309999997</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>-4.2000000000000002E-4</v>
+      </c>
+      <c r="I6">
+        <v>0.2496543323129489</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>-4.2000000000000002E-4</v>
+      </c>
+      <c r="M6">
+        <v>-4.2000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="26"/>
+      <c r="B7" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7">
+        <v>4.2597300000000002</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>876000.0013</v>
+      </c>
+      <c r="F7">
+        <v>1130040.00168</v>
+      </c>
+      <c r="G7">
+        <v>-254040.00038000001</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0.93902665192394819</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>12307974.39481</v>
+      </c>
+      <c r="L7">
+        <v>6534960.0097000003</v>
+      </c>
+      <c r="M7">
+        <v>18842934.721519999</v>
+      </c>
+      <c r="N7">
+        <v>21.510199499999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>876000</v>
+      </c>
+      <c r="G8">
+        <v>-876000</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>-99845052.147799999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9">
+        <v>162.59814</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>64922.530980000003</v>
+      </c>
+      <c r="F9">
+        <v>69717.341369999995</v>
+      </c>
+      <c r="G9">
+        <v>-4794.8103899999996</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>9.4526604055864355E-2</v>
+      </c>
+      <c r="J9">
+        <v>1429154.51679</v>
+      </c>
+      <c r="K9">
+        <v>2998890.37855</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>2998890.24272</v>
+      </c>
+      <c r="N9">
+        <v>46.191812447292968</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10">
+        <v>2842.5075000000002</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>205933.29053999999</v>
+      </c>
+      <c r="F10">
+        <v>205933.29027999999</v>
+      </c>
+      <c r="G10">
+        <v>2.5999999999999998E-4</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0.36109558901779498</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>14415460.949370001</v>
+      </c>
+      <c r="L10">
+        <v>2.5999999999999998E-4</v>
+      </c>
+      <c r="M10">
+        <v>14415461.39127</v>
+      </c>
+      <c r="N10">
+        <v>70.000626159959197</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="26"/>
+      <c r="B11" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11">
+        <v>20217.436000000002</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>39479.253360000002</v>
+      </c>
+      <c r="F11">
+        <v>39479.252939999998</v>
+      </c>
+      <c r="G11">
+        <v>4.2000000000000002E-4</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0.43633853175051468</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>194825.785</v>
+      </c>
+      <c r="L11">
+        <v>4.2000000000000002E-4</v>
+      </c>
+      <c r="M11">
+        <v>194825.81617999999</v>
+      </c>
+      <c r="N11">
+        <v>4.9348955790856408</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>93310091.664590001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16">
+        <v>6534960.0097000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17">
+        <v>876000.0013</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>706.66588979672645</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N18"/>
   <sheetViews>
@@ -3961,48 +2560,48 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="C1" s="3" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="35" t="s">
-        <v>83</v>
+      <c r="A2" s="25" t="s">
+        <v>58</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="C2">
         <v>373.09978999999998</v>
@@ -4042,9 +2641,9 @@
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="36"/>
+      <c r="A3" s="26"/>
       <c r="B3" s="3" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="C3">
         <v>540.41421000000003</v>
@@ -4084,11 +2683,11 @@
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="35" t="s">
-        <v>85</v>
+      <c r="A4" s="25" t="s">
+        <v>60</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="C4">
         <v>306.64431000000002</v>
@@ -4128,9 +2727,9 @@
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="37"/>
+      <c r="A5" s="27"/>
       <c r="B5" s="3" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="C5">
         <v>152.14269999999999</v>
@@ -4167,9 +2766,9 @@
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="37"/>
+      <c r="A6" s="27"/>
       <c r="B6" s="3" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="C6">
         <v>77.75318</v>
@@ -4206,9 +2805,9 @@
       </c>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="36"/>
+      <c r="A7" s="26"/>
       <c r="B7" s="3" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="C7">
         <v>4.9242400000000002</v>
@@ -4249,10 +2848,10 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="3" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -4287,10 +2886,10 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="3" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="C9">
         <v>70.683949999999996</v>
@@ -4330,11 +2929,11 @@
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="35" t="s">
-        <v>93</v>
+      <c r="A10" s="25" t="s">
+        <v>68</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="C10">
         <v>1647.1406999999999</v>
@@ -4374,9 +2973,9 @@
       </c>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="36"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="3" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="C11">
         <v>15061.442999999999</v>
@@ -4417,15 +3016,15 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="3" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="B15">
         <v>84580794.667790011</v>
@@ -4433,7 +3032,7 @@
     </row>
     <row r="16" spans="1:14">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="B16">
         <v>6534960.0007600002</v>
@@ -4441,7 +3040,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="B17">
         <v>876000.00009999995</v>
@@ -4449,10 +3048,524 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="B18">
         <v>644.88319506908886</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:N18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="C1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2">
+        <v>174.25516999999999</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>230647.75000999999</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>230647.75000999999</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0.151098242881402</v>
+      </c>
+      <c r="J2">
+        <v>94345.117769999997</v>
+      </c>
+      <c r="K2">
+        <v>7397144.6019200003</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>7397144.8240200002</v>
+      </c>
+      <c r="N2">
+        <v>32.071179449783799</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="26"/>
+      <c r="B3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3">
+        <v>509.62610000000001</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1660612.91713</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>1660612.91713</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0.37197404136091139</v>
+      </c>
+      <c r="J3">
+        <v>852363.57854000002</v>
+      </c>
+      <c r="K3">
+        <v>27956302.208470002</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>27956302.766770002</v>
+      </c>
+      <c r="N3">
+        <v>16.834930722367869</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4">
+        <v>296.35167999999999</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>1095000.0020000001</v>
+      </c>
+      <c r="F4">
+        <v>1855932.20677</v>
+      </c>
+      <c r="G4">
+        <v>-760932.20478000003</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0.71490875300588819</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>14561622.53201</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>14561622.188479999</v>
+      </c>
+      <c r="N4">
+        <v>13.298285119999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="27"/>
+      <c r="B5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5">
+        <v>146.51741999999999</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>277898.46784</v>
+      </c>
+      <c r="F5">
+        <v>277898.46784</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>2.7E-4</v>
+      </c>
+      <c r="I5">
+        <v>0.2165173943139321</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>2.7E-4</v>
+      </c>
+      <c r="M5">
+        <v>2.7E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="27"/>
+      <c r="B6" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6">
+        <v>68.424819999999997</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>93686.623240000001</v>
+      </c>
+      <c r="F6">
+        <v>93686.623240000001</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>1.2E-4</v>
+      </c>
+      <c r="I6">
+        <v>0.15630030155724189</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>1.2E-4</v>
+      </c>
+      <c r="M6">
+        <v>1.2E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="26"/>
+      <c r="B7" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7">
+        <v>4.9535</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>876000.00012999994</v>
+      </c>
+      <c r="F7">
+        <v>1130040.0001699999</v>
+      </c>
+      <c r="G7">
+        <v>-254040.00004000001</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0.80750984152619365</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>14312545.755589999</v>
+      </c>
+      <c r="L7">
+        <v>6534960.0009899996</v>
+      </c>
+      <c r="M7">
+        <v>20847505.657099999</v>
+      </c>
+      <c r="N7">
+        <v>23.7985224</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>876000</v>
+      </c>
+      <c r="G8">
+        <v>-876000</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>-79065470.042999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9">
+        <v>13.904439999999999</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>3905.8361599999998</v>
+      </c>
+      <c r="F9">
+        <v>4194.2990399999999</v>
+      </c>
+      <c r="G9">
+        <v>-288.46289000000002</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>6.6501779287767071E-2</v>
+      </c>
+      <c r="J9">
+        <v>122091.32225</v>
+      </c>
+      <c r="K9">
+        <v>256447.45592000001</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>256447.46484</v>
+      </c>
+      <c r="N9">
+        <v>65.657747774014851</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10">
+        <v>1555.6346000000001</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>138949.23378000001</v>
+      </c>
+      <c r="F10">
+        <v>138949.23405</v>
+      </c>
+      <c r="G10">
+        <v>-2.7E-4</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0.1904934809241193</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>7889228.0241299998</v>
+      </c>
+      <c r="L10">
+        <v>-2.7E-4</v>
+      </c>
+      <c r="M10">
+        <v>7889227.8938800003</v>
+      </c>
+      <c r="N10">
+        <v>56.777788495364327</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="26"/>
+      <c r="B11" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11">
+        <v>16314.93</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>46843.311560000002</v>
+      </c>
+      <c r="F11">
+        <v>46843.311679999999</v>
+      </c>
+      <c r="G11">
+        <v>-1.2E-4</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0.11884785040450679</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>157219.19657</v>
+      </c>
+      <c r="L11">
+        <v>-1.2E-4</v>
+      </c>
+      <c r="M11">
+        <v>157219.30428000001</v>
+      </c>
+      <c r="N11">
+        <v>3.3562808911229931</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>72530509.774609998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16">
+        <v>6534960.0009899996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17">
+        <v>876000.00012999994</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>559.59579056617883</v>
       </c>
     </row>
   </sheetData>
@@ -4466,7 +3579,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4475,197 +3588,197 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="C1" s="3" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="35" t="s">
-        <v>83</v>
+      <c r="A2" s="25" t="s">
+        <v>58</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="C2">
-        <v>174.25516999999999</v>
+        <v>207.16269</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>230647.75000999999</v>
+        <v>293320.56673999998</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>230647.75000999999</v>
+        <v>293320.56673999998</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.151098242881402</v>
+        <v>0.1616318073490936</v>
       </c>
       <c r="J2">
-        <v>94345.117769999997</v>
+        <v>69350.455220000003</v>
       </c>
       <c r="K2">
-        <v>7397144.6019200003</v>
+        <v>8794071.21208</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>7397144.8240200002</v>
+        <v>8794071.1928800009</v>
       </c>
       <c r="N2">
-        <v>32.071179449783799</v>
+        <v>29.981095792388501</v>
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="36"/>
+      <c r="A3" s="26"/>
       <c r="B3" s="3" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="C3">
-        <v>509.62610000000001</v>
+        <v>434.81051000000002</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1660612.91713</v>
+        <v>1598182.3574099999</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1660612.91713</v>
+        <v>1598182.3574099999</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.37197404136091139</v>
+        <v>0.41958716683274278</v>
       </c>
       <c r="J3">
-        <v>852363.57854000002</v>
+        <v>214290.90476999999</v>
       </c>
       <c r="K3">
-        <v>27956302.208470002</v>
+        <v>23852181.08134</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>27956302.766770002</v>
+        <v>23852180.823759999</v>
       </c>
       <c r="N3">
-        <v>16.834930722367869</v>
+        <v>14.924567576427901</v>
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="35" t="s">
-        <v>85</v>
+      <c r="A4" s="25" t="s">
+        <v>60</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="C4">
-        <v>296.35167999999999</v>
+        <v>325.54295999999999</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1095000.0020000001</v>
+        <v>1095000.0075000001</v>
       </c>
       <c r="F4">
-        <v>1855932.20677</v>
+        <v>1855932.2161099999</v>
       </c>
       <c r="G4">
-        <v>-760932.20478000003</v>
+        <v>-760932.20860000001</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.71490875300588819</v>
+        <v>0.65080323039392407</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>14561622.53201</v>
+        <v>15995973.77506</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>14561622.188479999</v>
+        <v>15995973.753830001</v>
       </c>
       <c r="N4">
-        <v>13.298285119999999</v>
+        <v>14.608195200000001</v>
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="37"/>
+      <c r="A5" s="27"/>
       <c r="B5" s="3" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="C5">
-        <v>146.51741999999999</v>
+        <v>170.30788000000001</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>277898.46784</v>
+        <v>352072.91389999999</v>
       </c>
       <c r="F5">
-        <v>277898.46784</v>
+        <v>352072.91389999999</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2.7E-4</v>
+        <v>-2.9999999999999997E-4</v>
       </c>
       <c r="I5">
-        <v>0.2165173943139321</v>
+        <v>0.23599007867398741</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -4674,37 +3787,37 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>2.7E-4</v>
+        <v>-2.9999999999999997E-4</v>
       </c>
       <c r="M5">
-        <v>2.7E-4</v>
+        <v>-2.9999999999999997E-4</v>
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="37"/>
+      <c r="A6" s="27"/>
       <c r="B6" s="3" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="C6">
-        <v>68.424819999999997</v>
+        <v>94.096869999999996</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>93686.623240000001</v>
+        <v>208814.89649000001</v>
       </c>
       <c r="F6">
-        <v>93686.623240000001</v>
+        <v>208814.89649000001</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1.2E-4</v>
+        <v>-6.2E-4</v>
       </c>
       <c r="I6">
-        <v>0.15630030155724189</v>
+        <v>0.25332744861757889</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -4713,60 +3826,60 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>1.2E-4</v>
+        <v>-6.2E-4</v>
       </c>
       <c r="M6">
-        <v>1.2E-4</v>
+        <v>-6.2E-4</v>
       </c>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="36"/>
+      <c r="A7" s="26"/>
       <c r="B7" s="3" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="C7">
-        <v>4.9535</v>
+        <v>5.4498499999999996</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>876000.00012999994</v>
+        <v>876000.00008000003</v>
       </c>
       <c r="F7">
-        <v>1130040.0001699999</v>
+        <v>1130040.0001000001</v>
       </c>
       <c r="G7">
-        <v>-254040.00004000001</v>
+        <v>-254040.00002000001</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.80750984152619365</v>
+        <v>0.73396515500426618</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>14312545.755589999</v>
+        <v>15746686.18462</v>
       </c>
       <c r="L7">
-        <v>6534960.0009899996</v>
+        <v>6534960.0005999999</v>
       </c>
       <c r="M7">
-        <v>20847505.657099999</v>
+        <v>22281645.81851</v>
       </c>
       <c r="N7">
-        <v>23.7985224</v>
+        <v>25.435668700000001</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="3" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -4796,177 +3909,177 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>-79065470.042999998</v>
+        <v>-84384543.881400004</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="3" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="C9">
-        <v>13.904439999999999</v>
+        <v>19.520589999999999</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>3905.8361599999998</v>
+        <v>7186.02927</v>
       </c>
       <c r="F9">
-        <v>4194.2990399999999</v>
+        <v>7716.7486500000005</v>
       </c>
       <c r="G9">
-        <v>-288.46289000000002</v>
+        <v>-530.71938</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>6.6501779287767071E-2</v>
+        <v>8.7150542068656744E-2</v>
       </c>
       <c r="J9">
-        <v>122091.32225</v>
+        <v>171531.06150000001</v>
       </c>
       <c r="K9">
-        <v>256447.45592000001</v>
+        <v>360029.33698000002</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>256447.46484</v>
+        <v>360029.3407</v>
       </c>
       <c r="N9">
-        <v>65.657747774014851</v>
+        <v>50.10147259606007</v>
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="35" t="s">
-        <v>93</v>
+      <c r="A10" s="25" t="s">
+        <v>68</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="C10">
-        <v>1555.6346000000001</v>
+        <v>2470.0556999999999</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>138949.23378000001</v>
+        <v>176036.4571</v>
       </c>
       <c r="F10">
-        <v>138949.23405</v>
+        <v>176036.45680000001</v>
       </c>
       <c r="G10">
-        <v>-2.7E-4</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.1904934809241193</v>
+        <v>0.36990376775714012</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>7889228.0241299998</v>
+        <v>12526613.02956</v>
       </c>
       <c r="L10">
-        <v>-2.7E-4</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="M10">
-        <v>7889227.8938800003</v>
+        <v>12526613.07666</v>
       </c>
       <c r="N10">
-        <v>56.777788495364327</v>
+        <v>71.159183478481978</v>
       </c>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="36"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="3" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="C11">
-        <v>16314.93</v>
+        <v>59568.19</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>46843.311560000002</v>
+        <v>104407.44855</v>
       </c>
       <c r="F11">
-        <v>46843.311679999999</v>
+        <v>104407.44792999999</v>
       </c>
       <c r="G11">
-        <v>-1.2E-4</v>
+        <v>6.2E-4</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.11884785040450679</v>
+        <v>0.34906625331405899</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>157219.19657</v>
+        <v>574030.22707999998</v>
       </c>
       <c r="L11">
-        <v>-1.2E-4</v>
+        <v>6.2E-4</v>
       </c>
       <c r="M11">
-        <v>157219.30428000001</v>
+        <v>574030.17469999997</v>
       </c>
       <c r="N11">
-        <v>3.3562808911229931</v>
+        <v>5.4979804776711481</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="3" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="B15">
-        <v>72530509.774609998</v>
+        <v>77849584.846719995</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="B16">
-        <v>6534960.0009899996</v>
+        <v>6534960.0005999999</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="B17">
-        <v>876000.00012999994</v>
+        <v>876000.00008000003</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="B18">
-        <v>559.59579056617883</v>
+        <v>597.24221233516505</v>
       </c>
     </row>
   </sheetData>
@@ -4980,7 +4093,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4989,197 +4102,197 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="C1" s="3" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="35" t="s">
-        <v>83</v>
+      <c r="A2" s="25" t="s">
+        <v>58</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="C2">
-        <v>207.16269</v>
+        <v>50</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>293320.56673999998</v>
+        <v>71543.95435</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>293320.56673999998</v>
+        <v>71543.95435</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.1616318073490936</v>
+        <v>0.1633424</v>
       </c>
       <c r="J2">
-        <v>69350.455220000003</v>
+        <v>15988.94565</v>
       </c>
       <c r="K2">
-        <v>8794071.21208</v>
+        <v>2122503.62555</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>8794071.1928800009</v>
+        <v>2059939.3756899999</v>
       </c>
       <c r="N2">
-        <v>29.981095792388501</v>
+        <v>28.792634368051399</v>
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="36"/>
+      <c r="A3" s="26"/>
       <c r="B3" s="3" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="C3">
-        <v>434.81051000000002</v>
+        <v>417.68669999999997</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1598182.3574099999</v>
+        <v>1819712.43729</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1598182.3574099999</v>
+        <v>1819712.43729</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.41958716683274278</v>
+        <v>0.49733383897548089</v>
       </c>
       <c r="J3">
-        <v>214290.90476999999</v>
+        <v>215962.64704000001</v>
       </c>
       <c r="K3">
-        <v>23852181.08134</v>
+        <v>22912828.863469999</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>23852180.823759999</v>
+        <v>22912829.05601</v>
       </c>
       <c r="N3">
-        <v>14.924567576427901</v>
+        <v>12.59145602317011</v>
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="35" t="s">
-        <v>85</v>
+      <c r="A4" s="25" t="s">
+        <v>60</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="C4">
-        <v>325.54295999999999</v>
+        <v>325.78577000000001</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1095000.0075000001</v>
+        <v>1094999.99208</v>
       </c>
       <c r="F4">
-        <v>1855932.2161099999</v>
+        <v>1855932.1899699999</v>
       </c>
       <c r="G4">
-        <v>-760932.20860000001</v>
+        <v>-760932.19788999995</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.65080323039392407</v>
+        <v>0.65031818301947319</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>15995973.77506</v>
+        <v>16007904.55799</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>15995973.753830001</v>
+        <v>16007904.53112</v>
       </c>
       <c r="N4">
-        <v>14.608195200000001</v>
+        <v>14.61909088</v>
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="37"/>
+      <c r="A5" s="27"/>
       <c r="B5" s="3" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="C5">
-        <v>170.30788000000001</v>
+        <v>169.36510999999999</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>352072.91389999999</v>
+        <v>375126.25644000003</v>
       </c>
       <c r="F5">
-        <v>352072.91389999999</v>
+        <v>375126.25644000003</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>-2.9999999999999997E-4</v>
+        <v>-1.4999999999999999E-4</v>
       </c>
       <c r="I5">
-        <v>0.23599007867398741</v>
+        <v>0.25284209953277859</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -5188,37 +4301,37 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>-2.9999999999999997E-4</v>
+        <v>-1.4999999999999999E-4</v>
       </c>
       <c r="M5">
-        <v>-2.9999999999999997E-4</v>
+        <v>-1.4999999999999999E-4</v>
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="37"/>
+      <c r="A6" s="27"/>
       <c r="B6" s="3" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="C6">
-        <v>94.096869999999996</v>
+        <v>89.557829999999996</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>208814.89649000001</v>
+        <v>205689.65367999999</v>
       </c>
       <c r="F6">
-        <v>208814.89649000001</v>
+        <v>205689.65367999999</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>-6.2E-4</v>
+        <v>3.6000000000000002E-4</v>
       </c>
       <c r="I6">
-        <v>0.25332744861757889</v>
+        <v>0.262183105597802</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -5227,60 +4340,60 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>-6.2E-4</v>
+        <v>3.6000000000000002E-4</v>
       </c>
       <c r="M6">
-        <v>-6.2E-4</v>
+        <v>3.6000000000000002E-4</v>
       </c>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="36"/>
+      <c r="A7" s="26"/>
       <c r="B7" s="3" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="C7">
-        <v>5.4498499999999996</v>
+        <v>5.4196799999999996</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>876000.00008000003</v>
+        <v>876000.00196999998</v>
       </c>
       <c r="F7">
-        <v>1130040.0001000001</v>
+        <v>1130040.00254</v>
       </c>
       <c r="G7">
-        <v>-254040.00002000001</v>
+        <v>-254040.00057</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.73396515500426618</v>
+        <v>0.73805095503793583</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>15746686.18462</v>
+        <v>15659517.390799999</v>
       </c>
       <c r="L7">
-        <v>6534960.0005999999</v>
+        <v>6534960.01468</v>
       </c>
       <c r="M7">
-        <v>22281645.81851</v>
+        <v>22194477.633340001</v>
       </c>
       <c r="N7">
-        <v>25.435668700000001</v>
+        <v>25.336161700000002</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="3" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -5310,177 +4423,177 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>-84384543.881400004</v>
+        <v>-76739749.526800007</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="3" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="C9">
-        <v>19.520589999999999</v>
+        <v>9.5773600000000005</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>7186.02927</v>
+        <v>3847.9340699999998</v>
       </c>
       <c r="F9">
-        <v>7716.7486500000005</v>
+        <v>4132.1206700000002</v>
       </c>
       <c r="G9">
-        <v>-530.71938</v>
+        <v>-284.1866</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>8.7150542068656744E-2</v>
+        <v>9.5117025986284312E-2</v>
       </c>
       <c r="J9">
-        <v>171531.06150000001</v>
+        <v>84181.903999999995</v>
       </c>
       <c r="K9">
-        <v>360029.33698000002</v>
+        <v>176640.81367</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>360029.3407</v>
+        <v>176640.81367999999</v>
       </c>
       <c r="N9">
-        <v>50.10147259606007</v>
+        <v>45.90556845603971</v>
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="35" t="s">
-        <v>93</v>
+      <c r="A10" s="25" t="s">
+        <v>68</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="C10">
-        <v>2470.0556999999999</v>
+        <v>2522.4285</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>176036.4571</v>
+        <v>187563.12830000001</v>
       </c>
       <c r="F10">
-        <v>176036.45680000001</v>
+        <v>187563.12815</v>
       </c>
       <c r="G10">
-        <v>2.9999999999999997E-4</v>
+        <v>1.4999999999999999E-4</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.36990376775714012</v>
+        <v>0.35976889731463152</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>12526613.02956</v>
+        <v>12792215.86551</v>
       </c>
       <c r="L10">
-        <v>2.9999999999999997E-4</v>
+        <v>1.4999999999999999E-4</v>
       </c>
       <c r="M10">
-        <v>12526613.07666</v>
+        <v>12792215.78186</v>
       </c>
       <c r="N10">
-        <v>71.159183478481978</v>
+        <v>68.202175764969184</v>
       </c>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="36"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="3" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="C11">
-        <v>59568.19</v>
+        <v>61821.285000000003</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>104407.44855</v>
+        <v>102844.82666000001</v>
       </c>
       <c r="F11">
-        <v>104407.44792999999</v>
+        <v>102844.82702</v>
       </c>
       <c r="G11">
-        <v>6.2E-4</v>
+        <v>-3.6000000000000002E-4</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.34906625331405899</v>
+        <v>0.3564811938153663</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>574030.22707999998</v>
+        <v>595742.22864999995</v>
       </c>
       <c r="L11">
-        <v>6.2E-4</v>
+        <v>-3.6000000000000002E-4</v>
       </c>
       <c r="M11">
-        <v>574030.17469999997</v>
+        <v>595742.20603999996</v>
       </c>
       <c r="N11">
-        <v>5.4979804776711481</v>
+        <v>5.792630158735566</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="3" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="B15">
-        <v>77849584.846719995</v>
+        <v>70267353.345640004</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="B16">
-        <v>6534960.0005999999</v>
+        <v>6534960.01468</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="B17">
-        <v>876000.00008000003</v>
+        <v>876000.00196999998</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="B18">
-        <v>597.24221233516505</v>
+        <v>543.57801571134166</v>
       </c>
     </row>
   </sheetData>
@@ -5494,7 +4607,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5502,198 +4615,198 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>82</v>
+      <c r="H1" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="N1" s="17" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="35" t="s">
-        <v>83</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>84</v>
+      <c r="A2" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>59</v>
       </c>
       <c r="C2">
-        <v>50</v>
+        <v>413.05016999999998</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>71543.95435</v>
+        <v>526612.4285162898</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>71543.95435</v>
+        <v>526612.4285162898</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.1633424</v>
+        <v>0.1455406107968433</v>
       </c>
       <c r="J2">
-        <v>15988.94565</v>
+        <v>155752.93840196001</v>
       </c>
       <c r="K2">
-        <v>2122503.62555</v>
+        <v>19659862.572386932</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>2059939.3756899999</v>
+        <v>19659862.466835171</v>
       </c>
       <c r="N2">
-        <v>28.792634368051399</v>
+        <v>37.332697449291267</v>
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="36"/>
-      <c r="B3" s="3" t="s">
-        <v>48</v>
+      <c r="A3" s="26"/>
+      <c r="B3" s="17" t="s">
+        <v>23</v>
       </c>
       <c r="C3">
-        <v>417.68669999999997</v>
+        <v>351.67365999999998</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1819712.43729</v>
+        <v>994429.88700283621</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1819712.43729</v>
+        <v>994429.88700283621</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.49733383897548089</v>
+        <v>0.32279754330612742</v>
       </c>
       <c r="J3">
-        <v>215962.64704000001</v>
+        <v>192165.22553206299</v>
       </c>
       <c r="K3">
-        <v>22912828.863469999</v>
+        <v>23385388.585446492</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>22912829.05601</v>
+        <v>23385388.601208799</v>
       </c>
       <c r="N3">
-        <v>12.59145602317011</v>
+        <v>23.516377481062289</v>
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>86</v>
+      <c r="A4" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>61</v>
       </c>
       <c r="C4">
-        <v>325.78577000000001</v>
+        <v>264.30856999999997</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1094999.99208</v>
+        <v>875999.99851301778</v>
       </c>
       <c r="F4">
-        <v>1855932.1899699999</v>
+        <v>1484745.7601915509</v>
       </c>
       <c r="G4">
-        <v>-760932.19788999995</v>
+        <v>-608745.7616785334</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.65031818301947319</v>
+        <v>0.6412638271094343</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>16007904.55799</v>
+        <v>15905993.215540141</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>16007904.53112</v>
+        <v>15905992.630118061</v>
       </c>
       <c r="N4">
-        <v>14.61909088</v>
+        <v>18.157525864290029</v>
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="37"/>
-      <c r="B5" s="3" t="s">
-        <v>87</v>
+      <c r="A5" s="27"/>
+      <c r="B5" s="17" t="s">
+        <v>62</v>
       </c>
       <c r="C5">
-        <v>169.36510999999999</v>
+        <v>106.59423</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>375126.25644000003</v>
+        <v>340852.65727559401</v>
       </c>
       <c r="F5">
-        <v>375126.25644000003</v>
+        <v>340852.65727559401</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>-1.4999999999999999E-4</v>
+        <v>3.4730801417026669E-4</v>
       </c>
       <c r="I5">
-        <v>0.25284209953277859</v>
+        <v>0.36503027127792009</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -5702,37 +4815,40 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>-1.4999999999999999E-4</v>
+        <v>3.4730801121440891E-4</v>
       </c>
       <c r="M5">
-        <v>-1.4999999999999999E-4</v>
+        <v>3.4730788320302958E-4</v>
+      </c>
+      <c r="N5">
+        <v>1.0189330184494681E-9</v>
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="37"/>
-      <c r="B6" s="3" t="s">
-        <v>88</v>
+      <c r="A6" s="27"/>
+      <c r="B6" s="17" t="s">
+        <v>63</v>
       </c>
       <c r="C6">
-        <v>89.557829999999996</v>
+        <v>36.043463000000003</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>205689.65367999999</v>
+        <v>78674.134831037838</v>
       </c>
       <c r="F6">
-        <v>205689.65367999999</v>
+        <v>78674.134831037838</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>3.6000000000000002E-4</v>
+        <v>-1.0503717930987481E-5</v>
       </c>
       <c r="I6">
-        <v>0.262183105597802</v>
+        <v>0.2491732167905599</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -5741,60 +4857,63 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>3.6000000000000002E-4</v>
+        <v>-1.050409991876222E-5</v>
       </c>
       <c r="M6">
-        <v>3.6000000000000002E-4</v>
+        <v>-1.0513234883546829E-5</v>
+      </c>
+      <c r="N6">
+        <v>-1.3343959954775191E-10</v>
       </c>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="36"/>
-      <c r="B7" s="3" t="s">
-        <v>89</v>
+      <c r="A7" s="26"/>
+      <c r="B7" s="17" t="s">
+        <v>64</v>
       </c>
       <c r="C7">
-        <v>5.4196799999999996</v>
+        <v>106.59423</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>876000.00196999998</v>
+        <v>876000.00624600239</v>
       </c>
       <c r="F7">
-        <v>1130040.00254</v>
+        <v>911040.00649584248</v>
       </c>
       <c r="G7">
-        <v>-254040.00057</v>
+        <v>-35040.000249840123</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.73805095503793583</v>
+        <v>0.93813708971877674</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>15659517.390799999</v>
+        <v>14933954.129742609</v>
       </c>
       <c r="L7">
-        <v>6534960.01468</v>
+        <v>6534960.0465951506</v>
       </c>
       <c r="M7">
-        <v>22194477.633340001</v>
+        <v>21468914.556158099</v>
       </c>
       <c r="N7">
-        <v>25.336161700000002</v>
+        <v>24.507893154202812</v>
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>91</v>
+      <c r="A8" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>66</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -5824,177 +4943,177 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>-76739749.526800007</v>
+        <v>-89035895.78829734</v>
       </c>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>91</v>
+      <c r="A9" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>66</v>
       </c>
       <c r="C9">
-        <v>9.5773600000000005</v>
+        <v>35.978589999999997</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>3847.9340699999998</v>
+        <v>17013.936610952991</v>
       </c>
       <c r="F9">
-        <v>4132.1206700000002</v>
+        <v>18270.48955099002</v>
       </c>
       <c r="G9">
-        <v>-284.1866</v>
+        <v>-1256.5529400370001</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>9.5117025986284312E-2</v>
+        <v>0.1119527621816799</v>
       </c>
       <c r="J9">
-        <v>84181.903999999995</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>176640.81367</v>
+        <v>740115.79607226502</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>176640.81367999999</v>
+        <v>740115.79334521503</v>
       </c>
       <c r="N9">
-        <v>45.90556845603971</v>
+        <v>43.500561349732159</v>
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="35" t="s">
-        <v>93</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>87</v>
+      <c r="A10" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>62</v>
       </c>
       <c r="C10">
-        <v>2522.4285</v>
+        <v>3367.4256</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>187563.12830000001</v>
+        <v>170426.32846414301</v>
       </c>
       <c r="F10">
-        <v>187563.12815</v>
+        <v>170426.3288114515</v>
       </c>
       <c r="G10">
-        <v>1.4999999999999999E-4</v>
+        <v>-3.4730801371551928E-4</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.35976889731463152</v>
+        <v>0.35713620957174153</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>12792215.86551</v>
+        <v>5387595.2712112172</v>
       </c>
       <c r="L10">
-        <v>1.4999999999999999E-4</v>
+        <v>-3.4730801371551928E-4</v>
       </c>
       <c r="M10">
-        <v>12792215.78186</v>
+        <v>5387595.0951646073</v>
       </c>
       <c r="N10">
-        <v>68.202175764969184</v>
+        <v>31.612457674332578</v>
       </c>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="36"/>
-      <c r="B11" s="3" t="s">
-        <v>88</v>
+      <c r="A11" s="26"/>
+      <c r="B11" s="17" t="s">
+        <v>63</v>
       </c>
       <c r="C11">
-        <v>61821.285000000003</v>
+        <v>21838.554</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>102844.82666000001</v>
+        <v>39337.067420771004</v>
       </c>
       <c r="F11">
-        <v>102844.82702</v>
+        <v>39337.067410267453</v>
       </c>
       <c r="G11">
-        <v>-3.6000000000000002E-4</v>
+        <v>1.0503717930987481E-5</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.3564811938153663</v>
+        <v>0.41873813376036878</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>595742.22864999995</v>
+        <v>2488027.154090113</v>
       </c>
       <c r="L11">
-        <v>-3.6000000000000002E-4</v>
+        <v>1.0503717930987481E-5</v>
       </c>
       <c r="M11">
-        <v>595742.20603999996</v>
+        <v>2488027.0877437391</v>
       </c>
       <c r="N11">
-        <v>5.792630158735566</v>
+        <v>63.248921459508111</v>
       </c>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>95</v>
+      <c r="A14" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="B15">
-        <v>70267353.345640004</v>
+        <v>82500936.724489778</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="B16">
-        <v>6534960.01468</v>
+        <v>6534960.0465951497</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="B17">
-        <v>876000.00196999998</v>
+        <v>876000.00624600239</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="B18">
-        <v>543.57801571134166</v>
+        <v>630.16273521087737</v>
       </c>
     </row>
   </sheetData>
@@ -6008,7 +5127,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6016,49 +5135,49 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="H1" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="I1" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="J1" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="K1" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="L1" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="M1" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="N1" s="24" t="s">
-        <v>82</v>
+      <c r="H1" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="M1" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="N1" s="18" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="38" t="s">
-        <v>83</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>84</v>
+      <c r="A2" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>59</v>
       </c>
       <c r="C2">
         <v>413.05016999999998</v>
@@ -6098,9 +5217,9 @@
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="39"/>
-      <c r="B3" s="24" t="s">
-        <v>48</v>
+      <c r="A3" s="30"/>
+      <c r="B3" s="17" t="s">
+        <v>23</v>
       </c>
       <c r="C3">
         <v>351.67365999999998</v>
@@ -6140,11 +5259,11 @@
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>86</v>
+      <c r="A4" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>61</v>
       </c>
       <c r="C4">
         <v>264.30856999999997</v>
@@ -6184,9 +5303,9 @@
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="40"/>
-      <c r="B5" s="24" t="s">
-        <v>87</v>
+      <c r="A5" s="30"/>
+      <c r="B5" s="17" t="s">
+        <v>62</v>
       </c>
       <c r="C5">
         <v>106.59423</v>
@@ -6226,9 +5345,9 @@
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="40"/>
-      <c r="B6" s="24" t="s">
-        <v>88</v>
+      <c r="A6" s="30"/>
+      <c r="B6" s="17" t="s">
+        <v>63</v>
       </c>
       <c r="C6">
         <v>36.043463000000003</v>
@@ -6268,9 +5387,9 @@
       </c>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="39"/>
-      <c r="B7" s="24" t="s">
-        <v>89</v>
+      <c r="A7" s="31"/>
+      <c r="B7" s="17" t="s">
+        <v>64</v>
       </c>
       <c r="C7">
         <v>106.59423</v>
@@ -6310,11 +5429,11 @@
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>91</v>
+      <c r="A8" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>66</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -6348,11 +5467,11 @@
       </c>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>91</v>
+      <c r="A9" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>66</v>
       </c>
       <c r="C9">
         <v>35.978589999999997</v>
@@ -6392,11 +5511,11 @@
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>87</v>
+      <c r="A10" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>62</v>
       </c>
       <c r="C10">
         <v>3367.4256</v>
@@ -6436,9 +5555,9 @@
       </c>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="39"/>
-      <c r="B11" s="24" t="s">
-        <v>88</v>
+      <c r="A11" s="26"/>
+      <c r="B11" s="17" t="s">
+        <v>63</v>
       </c>
       <c r="C11">
         <v>21838.554</v>
@@ -6478,16 +5597,16 @@
       </c>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="B14" s="24" t="s">
-        <v>95</v>
+      <c r="A14" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="B15">
         <v>82500936.724489778</v>
@@ -6495,7 +5614,7 @@
     </row>
     <row r="16" spans="1:14">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="B16">
         <v>6534960.0465951497</v>
@@ -6503,7 +5622,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="B17">
         <v>876000.00624600239</v>
@@ -6511,7 +5630,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="B18">
         <v>630.16273521087737</v>
@@ -6528,7 +5647,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6536,198 +5655,198 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="C1" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="H1" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="I1" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="J1" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="K1" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="L1" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="M1" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="N1" s="24" t="s">
-        <v>82</v>
+      <c r="C1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="38" t="s">
-        <v>83</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>84</v>
+      <c r="A2" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="C2">
-        <v>413.05016999999998</v>
+        <v>146.60072</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>526612.4285162898</v>
+        <v>203117.54063999999</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>526612.4285162898</v>
+        <v>203117.54063999999</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.1455406107968433</v>
+        <v>0.1581638207506757</v>
       </c>
       <c r="J2">
-        <v>155752.93840196001</v>
+        <v>40387.419300000001</v>
       </c>
       <c r="K2">
-        <v>19659862.572386932</v>
+        <v>6223211.19417</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>19659862.466835171</v>
+        <v>6223211.3856600001</v>
       </c>
       <c r="N2">
-        <v>37.332697449291267</v>
+        <v>30.638478660176229</v>
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="42"/>
-      <c r="B3" s="24" t="s">
-        <v>48</v>
+      <c r="A3" s="26"/>
+      <c r="B3" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="C3">
-        <v>351.67365999999998</v>
+        <v>508.90347000000003</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>994429.88700283621</v>
+        <v>1688447.8927199999</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>994429.88700283621</v>
+        <v>1688447.8927199999</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.32279754330612742</v>
+        <v>0.37874607143079608</v>
       </c>
       <c r="J3">
-        <v>192165.22553206299</v>
+        <v>218910.61305000001</v>
       </c>
       <c r="K3">
-        <v>23385388.585446492</v>
+        <v>27916661.25863</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>23385388.601208799</v>
+        <v>27916661.259980001</v>
       </c>
       <c r="N3">
-        <v>23.516377481062289</v>
+        <v>16.533919627255031</v>
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="41" t="s">
-        <v>85</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>86</v>
+      <c r="A4" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="C4">
-        <v>264.30856999999997</v>
+        <v>338.96838000000002</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>875999.99851301778</v>
+        <v>1095000.0012099999</v>
       </c>
       <c r="F4">
-        <v>1484745.7601915509</v>
+        <v>1855932.2054300001</v>
       </c>
       <c r="G4">
-        <v>-608745.7616785334</v>
+        <v>-760932.20423000003</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.6412638271094343</v>
+        <v>0.62502706004613162</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>15905993.215540141</v>
+        <v>16655649.12555</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>15905992.630118061</v>
+        <v>16655649.22866</v>
       </c>
       <c r="N4">
-        <v>18.157525864290029</v>
+        <v>15.21063856</v>
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="42"/>
-      <c r="B5" s="24" t="s">
-        <v>87</v>
+      <c r="A5" s="27"/>
+      <c r="B5" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="C5">
-        <v>106.59423</v>
+        <v>165.02476999999999</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>340852.65727559401</v>
+        <v>398787.85875000001</v>
       </c>
       <c r="F5">
-        <v>340852.65727559401</v>
+        <v>398787.85875000001</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>3.4730801417026669E-4</v>
+        <v>2.5000000000000001E-4</v>
       </c>
       <c r="I5">
-        <v>0.36503027127792009</v>
+        <v>0.27585998150459468</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -6736,40 +5855,37 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>3.4730801121440891E-4</v>
+        <v>2.5000000000000001E-4</v>
       </c>
       <c r="M5">
-        <v>3.4730788320302958E-4</v>
-      </c>
-      <c r="N5">
-        <v>1.0189330184494681E-9</v>
+        <v>2.5000000000000001E-4</v>
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="42"/>
-      <c r="B6" s="24" t="s">
-        <v>88</v>
+      <c r="A6" s="27"/>
+      <c r="B6" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="C6">
-        <v>36.043463000000003</v>
+        <v>87.877459999999999</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>78674.134831037838</v>
+        <v>219099.04689</v>
       </c>
       <c r="F6">
-        <v>78674.134831037838</v>
+        <v>219099.04689</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>-1.0503717930987481E-5</v>
+        <v>3.6000000000000002E-4</v>
       </c>
       <c r="I6">
-        <v>0.2491732167905599</v>
+        <v>0.28461575926295551</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -6778,63 +5894,60 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>-1.050409991876222E-5</v>
+        <v>3.6000000000000002E-4</v>
       </c>
       <c r="M6">
-        <v>-1.0513234883546829E-5</v>
-      </c>
-      <c r="N6">
-        <v>-1.3343959954775191E-10</v>
+        <v>3.6000000000000002E-4</v>
       </c>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="39"/>
-      <c r="B7" s="24" t="s">
-        <v>89</v>
+      <c r="A7" s="26"/>
+      <c r="B7" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="C7">
-        <v>106.59423</v>
+        <v>5.2807899999999997</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>876000.00624600239</v>
+        <v>875999.99939999997</v>
       </c>
       <c r="F7">
-        <v>911040.00649584248</v>
+        <v>1130039.9992200001</v>
       </c>
       <c r="G7">
-        <v>-35040.000249840123</v>
+        <v>-254039.99982999999</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.93813708971877674</v>
+        <v>0.75746242512957351</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>14933954.129742609</v>
+        <v>15258208.429540001</v>
       </c>
       <c r="L7">
-        <v>6534960.0465951506</v>
+        <v>6534959.9955099998</v>
       </c>
       <c r="M7">
-        <v>21468914.556158099</v>
+        <v>21793168.61919</v>
       </c>
       <c r="N7">
-        <v>24.507893154202812</v>
+        <v>24.878046399999999</v>
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>91</v>
+      <c r="A8" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -6864,177 +5977,177 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>-89035895.78829734</v>
+        <v>-85041586.743499994</v>
       </c>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>91</v>
+      <c r="A9" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="C9">
-        <v>35.978589999999997</v>
+        <v>17.87077</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>17013.936610952991</v>
+        <v>8032.4508999999998</v>
       </c>
       <c r="F9">
-        <v>18270.48955099002</v>
+        <v>8625.6821999999993</v>
       </c>
       <c r="G9">
-        <v>-1256.5529400370001</v>
+        <v>-593.23130000000003</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.1119527621816799</v>
+        <v>0.10640895719658409</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>157141.18526</v>
       </c>
       <c r="K9">
-        <v>740115.79607226502</v>
+        <v>329600.83805000002</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>740115.79334521503</v>
+        <v>329600.84026000003</v>
       </c>
       <c r="N9">
-        <v>43.500561349732159</v>
+        <v>41.033502371994111</v>
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>87</v>
+      <c r="A10" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="C10">
-        <v>3367.4256</v>
+        <v>2265.8643999999999</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>170426.32846414301</v>
+        <v>199393.92924999999</v>
       </c>
       <c r="F10">
-        <v>170426.3288114515</v>
+        <v>199393.9295</v>
       </c>
       <c r="G10">
-        <v>-3.4730801371551928E-4</v>
+        <v>-2.5000000000000001E-4</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.35713620957174153</v>
+        <v>0.43157598927808738</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>5387595.2712112172</v>
+        <v>11491079.539720001</v>
       </c>
       <c r="L10">
-        <v>-3.4730801371551928E-4</v>
+        <v>-2.5000000000000001E-4</v>
       </c>
       <c r="M10">
-        <v>5387595.0951646073</v>
+        <v>11491079.507300001</v>
       </c>
       <c r="N10">
-        <v>31.612457674332578</v>
+        <v>57.630047368712397</v>
       </c>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="39"/>
-      <c r="B11" s="24" t="s">
-        <v>88</v>
+      <c r="A11" s="26"/>
+      <c r="B11" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="C11">
-        <v>21838.554</v>
+        <v>65606.226999999999</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>39337.067420771004</v>
+        <v>109549.52326</v>
       </c>
       <c r="F11">
-        <v>39337.067410267453</v>
+        <v>109549.52363</v>
       </c>
       <c r="G11">
-        <v>1.0503717930987481E-5</v>
+        <v>-3.6000000000000002E-4</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.41873813376036878</v>
+        <v>0.33686179453666798</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2488027.154090113</v>
+        <v>632215.90891</v>
       </c>
       <c r="L11">
-        <v>1.0503717930987481E-5</v>
+        <v>-3.6000000000000002E-4</v>
       </c>
       <c r="M11">
-        <v>2488027.0877437391</v>
+        <v>632215.89356</v>
       </c>
       <c r="N11">
-        <v>63.248921459508111</v>
+        <v>5.7710522843674674</v>
       </c>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="B14" s="24" t="s">
-        <v>95</v>
+      <c r="A14" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="B15">
-        <v>82500936.724489778</v>
+        <v>78506626.294570014</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="B16">
-        <v>6534960.0465951497</v>
+        <v>6534959.9955099998</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="B17">
-        <v>876000.00624600239</v>
+        <v>875999.99939999997</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="B18">
-        <v>630.16273521087737</v>
+        <v>601.89250611830096</v>
       </c>
     </row>
   </sheetData>
@@ -7048,7 +6161,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7057,197 +6170,197 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="C1" s="3" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="35" t="s">
-        <v>83</v>
+      <c r="A2" s="25" t="s">
+        <v>58</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="C2">
-        <v>146.60072</v>
+        <v>75.575429999999997</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>203117.54063999999</v>
+        <v>103288.84832999999</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>203117.54063999999</v>
+        <v>103288.84832999999</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.1581638207506757</v>
+        <v>0.15601578449504019</v>
       </c>
       <c r="J2">
-        <v>40387.419300000001</v>
+        <v>22242.540150000001</v>
       </c>
       <c r="K2">
-        <v>6223211.19417</v>
+        <v>3208182.5260000001</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>6223211.3856600001</v>
+        <v>3208182.5161799998</v>
       </c>
       <c r="N2">
-        <v>30.638478660176229</v>
+        <v>31.060310610840851</v>
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="36"/>
+      <c r="A3" s="26"/>
       <c r="B3" s="3" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="C3">
-        <v>508.90347000000003</v>
+        <v>432.96611000000001</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1688447.8927199999</v>
+        <v>1788247.02593</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1688447.8927199999</v>
+        <v>1788247.02593</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.37874607143079608</v>
+        <v>0.47148676370998183</v>
       </c>
       <c r="J3">
-        <v>218910.61305000001</v>
+        <v>176597.7807</v>
       </c>
       <c r="K3">
-        <v>27916661.25863</v>
+        <v>23751003.75979</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>27916661.259980001</v>
+        <v>23751003.685989998</v>
       </c>
       <c r="N3">
-        <v>16.533919627255031</v>
+        <v>13.28172402571812</v>
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="35" t="s">
-        <v>85</v>
+      <c r="A4" s="25" t="s">
+        <v>60</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="C4">
-        <v>338.96838000000002</v>
+        <v>323.49389000000002</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1095000.0012099999</v>
+        <v>1094999.9942699999</v>
       </c>
       <c r="F4">
-        <v>1855932.2054300001</v>
+        <v>1855932.1936699999</v>
       </c>
       <c r="G4">
-        <v>-760932.20423000003</v>
+        <v>-760932.19940000004</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.62502706004613162</v>
+        <v>0.65492553816085974</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>16655649.12555</v>
+        <v>15895290.07425</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>16655649.22866</v>
+        <v>15895290.184629999</v>
       </c>
       <c r="N4">
-        <v>15.21063856</v>
+        <v>14.51624672</v>
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="37"/>
+      <c r="A5" s="27"/>
       <c r="B5" s="3" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="C5">
-        <v>165.02476999999999</v>
+        <v>158.35903999999999</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>398787.85875000001</v>
+        <v>381168.40603000001</v>
       </c>
       <c r="F5">
-        <v>398787.85875000001</v>
+        <v>381168.40603000001</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2.5000000000000001E-4</v>
+        <v>6.9999999999999999E-4</v>
       </c>
       <c r="I5">
-        <v>0.27585998150459468</v>
+        <v>0.2747704204319501</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -7256,37 +6369,37 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>2.5000000000000001E-4</v>
+        <v>6.9999999999999999E-4</v>
       </c>
       <c r="M5">
-        <v>2.5000000000000001E-4</v>
+        <v>6.9999999999999999E-4</v>
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="37"/>
+      <c r="A6" s="27"/>
       <c r="B6" s="3" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="C6">
-        <v>87.877459999999999</v>
+        <v>89.824179999999998</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>219099.04689</v>
+        <v>196429.29068999999</v>
       </c>
       <c r="F6">
-        <v>219099.04689</v>
+        <v>196429.29068999999</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>3.6000000000000002E-4</v>
+        <v>1.2999999999999999E-4</v>
       </c>
       <c r="I6">
-        <v>0.28461575926295551</v>
+        <v>0.2496370131071611</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -7295,60 +6408,60 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>3.6000000000000002E-4</v>
+        <v>1.2999999999999999E-4</v>
       </c>
       <c r="M6">
-        <v>3.6000000000000002E-4</v>
+        <v>1.2999999999999999E-4</v>
       </c>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="36"/>
+      <c r="A7" s="26"/>
       <c r="B7" s="3" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="C7">
-        <v>5.2807899999999997</v>
+        <v>5.0674900000000003</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>875999.99939999997</v>
+        <v>876000.00005999999</v>
       </c>
       <c r="F7">
-        <v>1130039.9992200001</v>
+        <v>1130040.0000700001</v>
       </c>
       <c r="G7">
-        <v>-254039.99982999999</v>
+        <v>-254040.00002000001</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.75746242512957351</v>
+        <v>0.78934541558049443</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>15258208.429540001</v>
+        <v>14641895.03369</v>
       </c>
       <c r="L7">
-        <v>6534959.9955099998</v>
+        <v>6534960.00043</v>
       </c>
       <c r="M7">
-        <v>21793168.61919</v>
+        <v>21176854.922809999</v>
       </c>
       <c r="N7">
-        <v>24.878046399999999</v>
+        <v>24.1744919</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="3" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -7378,177 +6491,177 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>-85041586.743499994</v>
+        <v>-76511118.563390002</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="3" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="C9">
-        <v>17.87077</v>
+        <v>16.388300000000001</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>8032.4508999999998</v>
+        <v>7632.2391500000003</v>
       </c>
       <c r="F9">
-        <v>8625.6821999999993</v>
+        <v>8195.91309</v>
       </c>
       <c r="G9">
-        <v>-593.23130000000003</v>
+        <v>-563.67394000000002</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.10640895719658409</v>
+        <v>0.11025365657206659</v>
       </c>
       <c r="J9">
-        <v>157141.18526</v>
+        <v>144125.15565999999</v>
       </c>
       <c r="K9">
-        <v>329600.83805000002</v>
+        <v>302258.72321999999</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>329600.84026000003</v>
+        <v>302258.72237999999</v>
       </c>
       <c r="N9">
-        <v>41.033502371994111</v>
+        <v>39.602896953836982</v>
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="35" t="s">
-        <v>93</v>
+      <c r="A10" s="25" t="s">
+        <v>68</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="C10">
-        <v>2265.8643999999999</v>
+        <v>2287.9717999999998</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>199393.92924999999</v>
+        <v>190584.20266000001</v>
       </c>
       <c r="F10">
-        <v>199393.9295</v>
+        <v>190584.20337</v>
       </c>
       <c r="G10">
-        <v>-2.5000000000000001E-4</v>
+        <v>-6.9999999999999999E-4</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.43157598927808738</v>
+        <v>0.40866922398256827</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>11491079.539720001</v>
+        <v>11603194.762429999</v>
       </c>
       <c r="L10">
-        <v>-2.5000000000000001E-4</v>
+        <v>-6.9999999999999999E-4</v>
       </c>
       <c r="M10">
-        <v>11491079.507300001</v>
+        <v>11603194.905230001</v>
       </c>
       <c r="N10">
-        <v>57.630047368712397</v>
+        <v>60.882242249217349</v>
       </c>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="36"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="3" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="C11">
-        <v>65606.226999999999</v>
+        <v>59599.658000000003</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>109549.52326</v>
+        <v>98214.645279999997</v>
       </c>
       <c r="F11">
-        <v>109549.52363</v>
+        <v>98214.645409999997</v>
       </c>
       <c r="G11">
-        <v>-3.6000000000000002E-4</v>
+        <v>-1.2999999999999999E-4</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.33686179453666798</v>
+        <v>0.3360916821032765</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>632215.90891</v>
+        <v>574333.46918000001</v>
       </c>
       <c r="L11">
-        <v>-3.6000000000000002E-4</v>
+        <v>-1.2999999999999999E-4</v>
       </c>
       <c r="M11">
-        <v>632215.89356</v>
+        <v>574333.46631000005</v>
       </c>
       <c r="N11">
-        <v>5.7710522843674674</v>
+        <v>5.8477361189897721</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="3" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="B15">
-        <v>78506626.294570014</v>
+        <v>69976158.348560005</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="B16">
-        <v>6534959.9955099998</v>
+        <v>6534960.00043</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="B17">
-        <v>875999.99939999997</v>
+        <v>876000.00005999999</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="B18">
-        <v>601.89250611830096</v>
+        <v>541.51704763840985</v>
       </c>
     </row>
   </sheetData>

--- a/LCOM_PyPSA_results2.xlsx
+++ b/LCOM_PyPSA_results2.xlsx
@@ -8,21 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/philip/Documents/GitHub/PyPSA-China-Green-LCOX-Model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9022D54C-AE9D-FD43-8229-CEBC0F0A1DEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5772DB49-4C2F-9543-82F7-9C8D8FABA598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="640" windowWidth="28240" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4840" yWindow="980" windowWidth="28240" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="LCOM_Overview" sheetId="2" r:id="rId1"/>
-    <sheet name="InMo_BT_VE" sheetId="3" r:id="rId2"/>
-    <sheet name="InMo_BT_GW" sheetId="4" r:id="rId3"/>
-    <sheet name="InMo_CF_VE" sheetId="5" r:id="rId4"/>
-    <sheet name="InMo_CF_GW" sheetId="6" r:id="rId5"/>
-    <sheet name="JiLi_BC_VE" sheetId="7" r:id="rId6"/>
-    <sheet name="JiLi_BC_GW" sheetId="8" r:id="rId7"/>
-    <sheet name="LiNi_CY_VE" sheetId="9" r:id="rId8"/>
-    <sheet name="LiNi_CY_GW" sheetId="10" r:id="rId9"/>
-    <sheet name="JiLi_BC_VE2" sheetId="11" r:id="rId10"/>
+    <sheet name="LCOM_Overview" sheetId="1" r:id="rId1"/>
+    <sheet name="LiNi_CY_GW" sheetId="2" r:id="rId2"/>
+    <sheet name="JiLi_BC_VE2" sheetId="3" r:id="rId3"/>
+    <sheet name="JiLi_BC_GW" sheetId="4" r:id="rId4"/>
+    <sheet name="JiLi_BC_VE" sheetId="5" r:id="rId5"/>
+    <sheet name="InMo_BT_VE" sheetId="6" r:id="rId6"/>
+    <sheet name="InMo_BT_GW" sheetId="7" r:id="rId7"/>
+    <sheet name="InMo_CF_GW" sheetId="8" r:id="rId8"/>
+    <sheet name="InMo_CF_VE" sheetId="9" r:id="rId9"/>
+    <sheet name="LiNi_CY_VE" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,13 +44,88 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="72">
   <si>
+    <t>LCOM Results from PyPSA Optimization</t>
+  </si>
+  <si>
+    <t>Wind turbine</t>
+  </si>
+  <si>
+    <t>Vestas_V90_2000</t>
+  </si>
+  <si>
+    <t>Cost Components</t>
+  </si>
+  <si>
+    <t>capacity factor</t>
+  </si>
+  <si>
     <t>Province</t>
   </si>
   <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Sheet_Code</t>
+  </si>
+  <si>
+    <t>Longitude</t>
+  </si>
+  <si>
     <t>Latitude</t>
   </si>
   <si>
-    <t>Longitude</t>
+    <t>Total CAPEX</t>
+  </si>
+  <si>
+    <t>Total OPEX</t>
+  </si>
+  <si>
+    <t>Total Methanol Output</t>
+  </si>
+  <si>
+    <t>Total LCOM (USD/t)</t>
+  </si>
+  <si>
+    <t>USD/t</t>
+  </si>
+  <si>
+    <t>PV</t>
+  </si>
+  <si>
+    <t>wind</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>MWh</t>
+  </si>
+  <si>
+    <t>Electricity generation</t>
+  </si>
+  <si>
+    <t>Electrolysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Electricity storage </t>
+  </si>
+  <si>
+    <t>H2 storage</t>
+  </si>
+  <si>
+    <t>Methanol Production</t>
+  </si>
+  <si>
+    <t>CO2 costs</t>
+  </si>
+  <si>
+    <t>Other</t>
   </si>
   <si>
     <t>Inner Mongolia</t>
@@ -59,127 +134,52 @@
     <t>Baotou</t>
   </si>
   <si>
+    <t>InMo_BT_VE</t>
+  </si>
+  <si>
     <t>Chifeng</t>
   </si>
   <si>
+    <t>InMo_CF_VE</t>
+  </si>
+  <si>
     <t>Liaoning</t>
   </si>
   <si>
+    <t>Chaoyang</t>
+  </si>
+  <si>
+    <t>LiNi_CY_VE</t>
+  </si>
+  <si>
     <t>Jilin</t>
   </si>
   <si>
     <t>Baicheng</t>
   </si>
   <si>
+    <t>JiLi_BC_VE</t>
+  </si>
+  <si>
+    <t>JiLi_BC_VE2</t>
+  </si>
+  <si>
+    <t>with a p_min=0.6 for methanol synthesis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wind turbine </t>
+  </si>
+  <si>
+    <t>Goldwind_140_3000</t>
+  </si>
+  <si>
+    <t>LCOM Averages built from different wind turbines</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
     <t>China</t>
-  </si>
-  <si>
-    <t>LCOM Results from PyPSA Optimization</t>
-  </si>
-  <si>
-    <t>Wind turbine</t>
-  </si>
-  <si>
-    <t>Vestas_V90_2000</t>
-  </si>
-  <si>
-    <t>Cost Components</t>
-  </si>
-  <si>
-    <t>capacity factor</t>
-  </si>
-  <si>
-    <t>City</t>
-  </si>
-  <si>
-    <t>Sheet_Code</t>
-  </si>
-  <si>
-    <t>Total CAPEX</t>
-  </si>
-  <si>
-    <t>Total OPEX</t>
-  </si>
-  <si>
-    <t>Total Methanol Output</t>
-  </si>
-  <si>
-    <t>Total LCOM (USD/t)</t>
-  </si>
-  <si>
-    <t>USD/t</t>
-  </si>
-  <si>
-    <t>PV</t>
-  </si>
-  <si>
-    <t>wind</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>Unit</t>
-  </si>
-  <si>
-    <t>USD</t>
-  </si>
-  <si>
-    <t>MWh</t>
-  </si>
-  <si>
-    <t>Electricity generation</t>
-  </si>
-  <si>
-    <t>Electrolysis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Electricity storage </t>
-  </si>
-  <si>
-    <t>H2 storage</t>
-  </si>
-  <si>
-    <t>Methanol Production</t>
-  </si>
-  <si>
-    <t>CO2 costs</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>InMo_BT_VE</t>
-  </si>
-  <si>
-    <t>InMo_CF_VE</t>
-  </si>
-  <si>
-    <t>Chaoyang</t>
-  </si>
-  <si>
-    <t>LiNi_CY_VE</t>
-  </si>
-  <si>
-    <t>JiLi_BC_VE</t>
-  </si>
-  <si>
-    <t>JiLi_BC_VE2</t>
-  </si>
-  <si>
-    <t>with a p_min=0.6 for methanol synthesis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wind turbine </t>
-  </si>
-  <si>
-    <t>Goldwind_140_3000</t>
-  </si>
-  <si>
-    <t>LCOM Averages built from different wind turbines</t>
-  </si>
-  <si>
-    <t>Average</t>
   </si>
   <si>
     <t>Optimal Capacity</t>
@@ -264,7 +264,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -322,11 +322,6 @@
       <sz val="12"/>
       <name val="Aptos Narrow"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Aptos Narrow"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -342,7 +337,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -461,21 +456,6 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -530,12 +510,8 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -551,27 +527,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -607,45 +568,34 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Prozent" xfId="1" builtinId="5"/>
@@ -980,11 +930,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -995,75 +945,75 @@
   <sheetData>
     <row r="1" spans="1:25" ht="22" customHeight="1">
       <c r="A1" s="11" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="R3" s="21"/>
+        <v>2</v>
+      </c>
+      <c r="J3" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="R3" s="19"/>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="R4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="S4" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="R4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
@@ -1074,44 +1024,44 @@
     </row>
     <row r="5" spans="1:25">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="2" t="s">
+      <c r="P5" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
@@ -1125,13 +1075,13 @@
     </row>
     <row r="6" spans="1:25">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D6">
         <v>41.640099999999997</v>
@@ -1141,70 +1091,70 @@
       </c>
       <c r="F6">
         <f>SUM(InMo_BT_VE!K$2:K$11)</f>
-        <v>84580794.667790011</v>
+        <v>73840665.324020296</v>
       </c>
       <c r="G6">
         <f>SUM(InMo_BT_VE!L$2:L$11)</f>
-        <v>6534960.0007600002</v>
+        <v>6534959.8284647735</v>
       </c>
       <c r="H6" s="12">
         <f>InMo_BT_VE!$E$7</f>
-        <v>876000.00009999995</v>
+        <v>875999.97700600058</v>
       </c>
       <c r="I6" s="12">
         <f>(F6+G6)/(H6/6.2)</f>
-        <v>644.88319506908886</v>
+        <v>568.86859477850646</v>
       </c>
       <c r="J6" s="12">
         <f>SUM(InMo_BT_VE!$K$2:$K$3)/($H6/6.2)</f>
-        <v>321.91407274406237</v>
+        <v>249.27673404414236</v>
       </c>
       <c r="K6" s="12">
         <f>SUM(InMo_BT_VE!$K$4)/($H6/6.2)</f>
-        <v>106.64116213316656</v>
+        <v>104.35893498455268</v>
       </c>
       <c r="L6" s="12">
         <f>SUM(InMo_BT_VE!$K$9)/($H6/6.2)</f>
-        <v>9.2268488381225087</v>
+        <v>2.6213297781899731</v>
       </c>
       <c r="M6" s="12">
         <f>SUM(InMo_BT_VE!$K$11)/($H6/6.2)</f>
-        <v>1.02724615332794</v>
+        <v>15.231179846239021</v>
       </c>
       <c r="N6" s="12">
         <f>SUM(InMo_BT_VE!$K$7)/($H6/6.2)</f>
-        <v>100.70039892211869</v>
+        <v>107.11928369895024</v>
       </c>
       <c r="O6" s="12">
         <f>SUM(InMo_BT_VE!$L$7)/($H6/6.2)</f>
-        <v>46.252000000099095</v>
+        <v>46.252000000000059</v>
       </c>
       <c r="P6" s="12">
         <f>I6-J6-K6-L6-M6-N6</f>
-        <v>105.37346627829075</v>
+        <v>90.261132426432212</v>
       </c>
       <c r="Q6" s="4">
         <f>InMo_BT_VE!$I$2</f>
-        <v>0.14972487655380351</v>
+        <v>0.17005645509510539</v>
       </c>
       <c r="R6" s="4">
         <f>InMo_BT_VE!$I$3</f>
-        <v>0.29633858073421132</v>
+        <v>0.38041056287170327</v>
       </c>
       <c r="T6">
         <f>(F6+G6-InMo_BT_VE!K11)/(H6/6.2)</f>
-        <v>643.85594891576091</v>
+        <v>553.63741493226746</v>
       </c>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D7">
         <v>42.785200000000003</v>
@@ -1214,66 +1164,66 @@
       </c>
       <c r="F7">
         <f>SUM(InMo_CF_VE!K$2:K$11)</f>
-        <v>77849584.846719995</v>
+        <v>76283845.463365749</v>
       </c>
       <c r="G7">
         <f>SUM(InMo_CF_VE!L$2:L$11)</f>
-        <v>6534960.0006000008</v>
+        <v>6534959.9498016452</v>
       </c>
       <c r="H7" s="12">
         <f>InMo_CF_VE!$E$7</f>
-        <v>876000.00008000003</v>
+        <v>875999.99327099766</v>
       </c>
       <c r="I7" s="12">
         <f>(F7+G7)/(H7/6.2)</f>
-        <v>597.24221233516505</v>
+        <v>586.16049943597397</v>
       </c>
       <c r="J7" s="12">
         <f>SUM(InMo_CF_VE!$K$2:$K$3)/($H7/6.2)</f>
-        <v>231.05795000082119</v>
+        <v>260.26376127176218</v>
       </c>
       <c r="K7" s="12">
         <f>SUM(InMo_CF_VE!$K$4)/($H7/6.2)</f>
-        <v>113.2135130094919</v>
+        <v>106.07323734128846</v>
       </c>
       <c r="L7" s="12">
         <f>SUM(InMo_CF_VE!$K$9)/($H7/6.2)</f>
-        <v>2.5481528414065613</v>
+        <v>2.6684715720034511</v>
       </c>
       <c r="M7" s="12">
         <f>SUM(InMo_CF_VE!$K$11)/($H7/6.2)</f>
-        <v>4.062771013208879</v>
+        <v>26.113379100417248</v>
       </c>
       <c r="N7" s="12">
         <f>SUM(InMo_CF_VE!$K$7)/($H7/6.2)</f>
-        <v>111.4491487850777</v>
+        <v>106.18600458451216</v>
       </c>
       <c r="O7" s="12">
         <f>SUM(InMo_CF_VE!$L$7)/($H7/6.2)</f>
-        <v>46.252000000022647</v>
+        <v>46.252000000000017</v>
       </c>
       <c r="P7" s="12">
         <f>I7-J7-K7-L7-M7-N7</f>
-        <v>134.91067668515882</v>
+        <v>84.855645565990457</v>
       </c>
       <c r="Q7" s="4">
         <f>InMo_CF_VE!$I$2</f>
-        <v>0.1616318073490936</v>
+        <v>0.14992175653151851</v>
       </c>
       <c r="R7" s="4">
         <f>InMo_CF_VE!$I$3</f>
-        <v>0.41958716683274278</v>
+        <v>0.3846793723694556</v>
       </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D8">
         <v>41.680700000000002</v>
@@ -1283,66 +1233,66 @@
       </c>
       <c r="F8">
         <f>SUM(LiNi_CY_VE!K$2:K$11)</f>
-        <v>78506626.294570014</v>
+        <v>79794447.915316492</v>
       </c>
       <c r="G8">
         <f>SUM(LiNi_CY_VE!L$2:L$11)</f>
-        <v>6534959.9955100007</v>
+        <v>6534960.1758173043</v>
       </c>
       <c r="H8" s="12">
         <f>LiNi_CY_VE!$E$7</f>
-        <v>875999.99939999997</v>
+        <v>876000.02356800274</v>
       </c>
       <c r="I8" s="12">
         <f>(F8+G8)/(H8/6.2)</f>
-        <v>601.89250611830096</v>
+        <v>611.00720977718038</v>
       </c>
       <c r="J8" s="12">
         <f>SUM(LiNi_CY_VE!$K$2:$K$3)/($H8/6.2)</f>
-        <v>241.62923442047665</v>
+        <v>293.03630474455002</v>
       </c>
       <c r="K8" s="12">
         <f>SUM(LiNi_CY_VE!$K$4)/($H8/6.2)</f>
-        <v>117.88244822961127</v>
+        <v>109.02079377198814</v>
       </c>
       <c r="L8" s="12">
         <f>SUM(LiNi_CY_VE!$K$9)/($H8/6.2)</f>
-        <v>2.3327913211297662</v>
+        <v>2.4175318457499215</v>
       </c>
       <c r="M8" s="12">
         <f>SUM(LiNi_CY_VE!$K$11)/($H8/6.2)</f>
-        <v>4.4745874862177546</v>
+        <v>22.406486950246141</v>
       </c>
       <c r="N8" s="12">
         <f>SUM(LiNi_CY_VE!$K$7)/($H8/6.2)</f>
-        <v>107.99188621911318</v>
+        <v>106.23990331615587</v>
       </c>
       <c r="O8" s="12">
         <f>SUM(LiNi_CY_VE!$L$7)/($H8/6.2)</f>
-        <v>46.251999999900917</v>
+        <v>46.252000000000038</v>
       </c>
       <c r="P8" s="12">
         <f>I8-J8-K8-L8-M8-N8</f>
-        <v>127.58155844175229</v>
+        <v>77.886189148490274</v>
       </c>
       <c r="Q8" s="4">
         <f>LiNi_CY_VE!$I$2</f>
-        <v>0.1581638207506757</v>
+        <v>0.13811829456604849</v>
       </c>
       <c r="R8" s="4">
         <f>LiNi_CY_VE!$I$3</f>
-        <v>0.37874607143079608</v>
+        <v>0.3377692171203372</v>
       </c>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D9">
         <v>45.3733</v>
@@ -1352,66 +1302,66 @@
       </c>
       <c r="F9">
         <f>SUM(JiLi_BC_VE!K$2:K$11)</f>
-        <v>82500936.724489763</v>
+        <v>82247272.395407274</v>
       </c>
       <c r="G9">
         <f>SUM(JiLi_BC_VE!L$2:L$11)</f>
-        <v>6534960.0465951497</v>
+        <v>6534959.8126644921</v>
       </c>
       <c r="H9" s="12">
         <f>JiLi_BC_VE!$E$7</f>
-        <v>876000.00624600239</v>
+        <v>875999.97488799482</v>
       </c>
       <c r="I9" s="12">
         <f>(F9+G9)/(H9/6.2)</f>
-        <v>630.16273521087737</v>
+        <v>628.36741491964699</v>
       </c>
       <c r="J9" s="12">
         <f>SUM(JiLi_BC_VE!$K$2:$K$3)/($H9/6.2)</f>
-        <v>304.6581681229128</v>
+        <v>303.47261507219599</v>
       </c>
       <c r="K9" s="12">
         <f>SUM(JiLi_BC_VE!$K$4)/($H9/6.2)</f>
-        <v>112.5766635082132</v>
+        <v>112.36765569147484</v>
       </c>
       <c r="L9" s="12">
         <f>SUM(JiLi_BC_VE!$K$9)/($H9/6.2)</f>
-        <v>5.2382624462669449</v>
+        <v>5.2046336498030419</v>
       </c>
       <c r="M9" s="12">
         <f>SUM(JiLi_BC_VE!$K$11)/($H9/6.2)</f>
-        <v>17.609324481016916</v>
+        <v>17.556208999700665</v>
       </c>
       <c r="N9" s="12">
         <f>SUM(JiLi_BC_VE!$K$7)/($H9/6.2)</f>
-        <v>105.69693486783204</v>
+        <v>105.6755303922416</v>
       </c>
       <c r="O9" s="12">
         <f>SUM(JiLi_BC_VE!$L$7)/($H9/6.2)</f>
-        <v>46.251999999999811</v>
+        <v>46.252000000000365</v>
       </c>
       <c r="P9" s="12">
         <f>I9-J9-K9-L9-M9-N9</f>
-        <v>84.383381784635461</v>
+        <v>84.090771114230847</v>
       </c>
       <c r="Q9" s="4">
         <f>JiLi_BC_VE!$I$2</f>
-        <v>0.1455406107968433</v>
+        <v>0.14516916307010169</v>
       </c>
       <c r="R9" s="4">
         <f>JiLi_BC_VE!$I$3</f>
-        <v>0.32279754330612742</v>
+        <v>0.32290397227876089</v>
       </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D10">
         <v>45.3733</v>
@@ -1472,7 +1422,7 @@
         <v>0.32697700957122983</v>
       </c>
       <c r="S10" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -1488,69 +1438,69 @@
     </row>
     <row r="12" spans="1:25">
       <c r="A12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" t="s">
         <v>42</v>
-      </c>
-      <c r="B12" t="s">
-        <v>43</v>
       </c>
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
-      <c r="J12" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="R12" s="21"/>
+      <c r="J12" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="R12" s="19"/>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="R13" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="I13" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="J13" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="R13" s="5" t="s">
-        <v>23</v>
       </c>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
@@ -1562,42 +1512,42 @@
     </row>
     <row r="14" spans="1:25">
       <c r="A14" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="I14" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="J14" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="J14" s="13" t="s">
-        <v>28</v>
-      </c>
       <c r="K14" s="13" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="L14" s="13" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="M14" s="13" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="N14" s="13" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="O14" s="15"/>
       <c r="P14" s="13" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
@@ -1611,13 +1561,13 @@
     </row>
     <row r="15" spans="1:25">
       <c r="A15" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D15">
         <v>41.640099999999997</v>
@@ -1627,66 +1577,66 @@
       </c>
       <c r="F15">
         <f>SUM(InMo_BT_GW!K$2:K$11)</f>
-        <v>72530509.774609998</v>
+        <v>65165250.936046183</v>
       </c>
       <c r="G15">
         <f>SUM(InMo_BT_GW!L$2:L$11)</f>
-        <v>6534960.0009899996</v>
+        <v>6534959.8327617012</v>
       </c>
       <c r="H15" s="12">
         <f>InMo_BT_GW!$E$7</f>
-        <v>876000.00012999994</v>
+        <v>875999.97758199403</v>
       </c>
       <c r="I15" s="12">
         <f>(F15+G15)/(H15/6.2)</f>
-        <v>559.59579056617872</v>
+        <v>507.46725815412441</v>
       </c>
       <c r="J15" s="12">
         <f>SUM(InMo_BT_GW!$K$2:$K$3)/($H15/6.2)</f>
-        <v>250.21845912316169</v>
+        <v>202.68802562458961</v>
       </c>
       <c r="K15" s="12">
         <f>SUM(InMo_BT_GW!$K$4)/($H15/6.2)</f>
-        <v>103.06171196925112</v>
+        <v>95.422732937998049</v>
       </c>
       <c r="L15" s="12">
         <f>SUM(InMo_BT_GW!$K$9)/($H15/6.2)</f>
-        <v>1.8150390713105538</v>
+        <v>1.2024733459158246</v>
       </c>
       <c r="M15" s="12">
         <f>SUM(InMo_BT_GW!$K$11)/($H15/6.2)</f>
-        <v>1.1127386056955983</v>
+        <v>14.644751291381384</v>
       </c>
       <c r="N15" s="12">
         <f>SUM(InMo_BT_GW!$K$7)/($H15/6.2)</f>
-        <v>101.29883980763601</v>
+        <v>105.8974461578094</v>
       </c>
       <c r="O15" s="12">
         <f>SUM(InMo_BT_GW!$L$7)/($H15/6.2)</f>
-        <v>46.252000000142971</v>
+        <v>46.252000000000187</v>
       </c>
       <c r="P15" s="12">
         <f>I15-J15-K15-L15-M15-N15</f>
-        <v>102.08900198912376</v>
+        <v>87.611828796430146</v>
       </c>
       <c r="Q15" s="4">
         <f>InMo_BT_GW!$I$2</f>
-        <v>0.151098242881402</v>
+        <v>0.16191742337071671</v>
       </c>
       <c r="R15" s="4">
         <f>InMo_BT_GW!$I$3</f>
-        <v>0.37197404136091139</v>
+        <v>0.48366356620195561</v>
       </c>
     </row>
     <row r="16" spans="1:25">
       <c r="A16" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D16">
         <v>42.785200000000003</v>
@@ -1696,66 +1646,66 @@
       </c>
       <c r="F16">
         <f>SUM(InMo_CF_GW!K$2:K$11)</f>
-        <v>70267353.345640004</v>
+        <v>69799080.741747215</v>
       </c>
       <c r="G16">
         <f>SUM(InMo_CF_GW!L$2:L$11)</f>
-        <v>6534960.01468</v>
+        <v>6534960.1266260138</v>
       </c>
       <c r="H16" s="12">
         <f>InMo_CF_GW!$E$7</f>
-        <v>876000.00196999998</v>
+        <v>876000.01697400049</v>
       </c>
       <c r="I16" s="12">
         <f>(F16+G16)/(H16/6.2)</f>
-        <v>543.57801571134166</v>
+        <v>540.26374910214247</v>
       </c>
       <c r="J16" s="12">
         <f>SUM(InMo_CF_GW!$K$2:$K$3)/($H16/6.2)</f>
-        <v>177.19070899869669</v>
+        <v>224.01874095840557</v>
       </c>
       <c r="K16" s="12">
         <f>SUM(InMo_CF_GW!$K$4)/($H16/6.2)</f>
-        <v>113.29795437938473</v>
+        <v>100.61239134865905</v>
       </c>
       <c r="L16" s="12">
         <f>SUM(InMo_CF_GW!$K$9)/($H16/6.2)</f>
-        <v>1.2501975368619986</v>
+        <v>1.7494689755451798</v>
       </c>
       <c r="M16" s="12">
         <f>SUM(InMo_CF_GW!$K$11)/($H16/6.2)</f>
-        <v>4.2164404216022966</v>
+        <v>24.477985540047783</v>
       </c>
       <c r="N16" s="12">
         <f>SUM(InMo_CF_GW!$K$7)/($H16/6.2)</f>
-        <v>110.83220046189562</v>
+        <v>105.30547678033174</v>
       </c>
       <c r="O16" s="12">
         <f>SUM(InMo_CF_GW!$L$7)/($H16/6.2)</f>
-        <v>46.251999999885342</v>
+        <v>46.251999999999782</v>
       </c>
       <c r="P16" s="12">
         <f>I16-J16-K16-L16-M16-N16</f>
-        <v>136.79051391290034</v>
+        <v>84.099685499153097</v>
       </c>
       <c r="Q16" s="4">
         <f>InMo_CF_GW!$I$2</f>
-        <v>0.1633424</v>
+        <v>0.14534543907996911</v>
       </c>
       <c r="R16" s="4">
         <f>InMo_CF_GW!$I$3</f>
-        <v>0.49733383897548089</v>
+        <v>0.46207258791347861</v>
       </c>
     </row>
     <row r="17" spans="1:18">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D17">
         <v>41.680700000000002</v>
@@ -1818,13 +1768,13 @@
     </row>
     <row r="18" spans="1:18">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D18">
         <v>45.3733</v>
@@ -1834,103 +1784,103 @@
       </c>
       <c r="F18">
         <f>SUM(JiLi_BC_GW!K$2:K$11)</f>
-        <v>82500936.724489763</v>
+        <v>74781168.013610318</v>
       </c>
       <c r="G18">
         <f>SUM(JiLi_BC_GW!L$2:L$11)</f>
-        <v>6534960.0465951497</v>
+        <v>6534959.7884493014</v>
       </c>
       <c r="H18" s="12">
         <f>JiLi_BC_GW!$E$7</f>
-        <v>876000.00624600239</v>
+        <v>875999.97164199571</v>
       </c>
       <c r="I18" s="12">
         <f>(F18+G18)/(H18/6.2)</f>
-        <v>630.16273521087737</v>
+        <v>575.52512407935342</v>
       </c>
       <c r="J18" s="12">
         <f>SUM(JiLi_BC_GW!$K$2:$K$3)/($H18/6.2)</f>
-        <v>304.6581681229128</v>
+        <v>261.65400640193968</v>
       </c>
       <c r="K18" s="12">
         <f>SUM(JiLi_BC_GW!$K$4)/($H18/6.2)</f>
-        <v>112.5766635082132</v>
+        <v>103.81487955665865</v>
       </c>
       <c r="L18" s="12">
         <f>SUM(JiLi_BC_GW!$K$9)/($H18/6.2)</f>
-        <v>5.2382624462669449</v>
+        <v>1.9193151055250872</v>
       </c>
       <c r="M18" s="12">
         <f>SUM(JiLi_BC_GW!$K$11)/($H18/6.2)</f>
-        <v>17.609324481016916</v>
+        <v>15.952438407988847</v>
       </c>
       <c r="N18" s="12">
         <f>SUM(JiLi_BC_GW!$K$7)/($H18/6.2)</f>
-        <v>105.69693486783204</v>
+        <v>104.26910036605193</v>
       </c>
       <c r="O18" s="12">
         <f>SUM(JiLi_BC_GW!$L$7)/($H18/6.2)</f>
-        <v>46.251999999999811</v>
+        <v>46.252000000000088</v>
       </c>
       <c r="P18" s="12">
         <f>I18-J18-K18-L18-M18-N18</f>
-        <v>84.383381784635461</v>
+        <v>87.91538424118923</v>
       </c>
       <c r="Q18" s="4">
         <f>JiLi_BC_GW!$I$2</f>
-        <v>0.1455406107968433</v>
+        <v>0.1449060176507215</v>
       </c>
       <c r="R18" s="4">
         <f>JiLi_BC_GW!$I$3</f>
-        <v>0.32279754330612742</v>
+        <v>0.38840421014675708</v>
       </c>
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:18">
       <c r="A23" s="7" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:18">
       <c r="A24" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:18">
       <c r="A25" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D25">
         <v>41.640099999999997</v>
@@ -1940,18 +1890,18 @@
       </c>
       <c r="F25" s="16">
         <f>AVERAGE(I6,I15)</f>
-        <v>602.23949281763385</v>
+        <v>538.16792646631541</v>
       </c>
     </row>
     <row r="26" spans="1:18">
       <c r="A26" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="C26" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D26">
         <v>42.785200000000003</v>
@@ -1961,18 +1911,18 @@
       </c>
       <c r="F26" s="16">
         <f>AVERAGE(I7,I16)</f>
-        <v>570.4101140232533</v>
+        <v>563.21212426905822</v>
       </c>
     </row>
     <row r="27" spans="1:18">
       <c r="A27" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D27">
         <v>41.680700000000002</v>
@@ -1982,18 +1932,18 @@
       </c>
       <c r="F27" s="16">
         <f>AVERAGE(I8,I17)</f>
-        <v>571.70477687835546</v>
+        <v>576.26212870779511</v>
       </c>
     </row>
     <row r="28" spans="1:18">
       <c r="A28" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="C28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D28">
         <v>45.3733</v>
@@ -2003,22 +1953,22 @@
       </c>
       <c r="F28" s="16">
         <f>AVERAGE(I9,I18)</f>
-        <v>630.16273521087737</v>
+        <v>601.9462694995002</v>
       </c>
     </row>
     <row r="29" spans="1:18">
       <c r="A29" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="9" t="s">
         <v>45</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>9</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
       <c r="F29" s="16">
         <f>AVERAGE(F25:F28)</f>
-        <v>593.62927973252999</v>
+        <v>569.89711223566724</v>
       </c>
     </row>
   </sheetData>
@@ -2035,7 +1985,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2043,198 +1993,198 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H1" s="6" t="s">
+      <c r="G1" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="17" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="17" t="s">
         <v>59</v>
       </c>
       <c r="C2">
-        <v>597.66889000000003</v>
+        <v>362.32258999999999</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>748690.46573000005</v>
+        <v>438379.99315072998</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>748690.46573000005</v>
+        <v>438379.99315072998</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.14300049982524601</v>
+        <v>0.13811829456604849</v>
       </c>
       <c r="J2">
-        <v>238667.92725000001</v>
+        <v>163440.69252359099</v>
       </c>
       <c r="K2">
-        <v>25371087.71807</v>
+        <v>17245392.55430229</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>25371087.837809999</v>
+        <v>17245392.544170439</v>
       </c>
       <c r="N2">
-        <v>33.88728508505335</v>
+        <v>39.338913302644457</v>
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="26"/>
-      <c r="B3" s="6" t="s">
-        <v>23</v>
+      <c r="A3" s="28"/>
+      <c r="B3" s="17" t="s">
+        <v>16</v>
       </c>
       <c r="C3">
-        <v>400.471</v>
+        <v>363.28935999999999</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1147076.54856</v>
+        <v>1074921.7533864521</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1147076.54856</v>
+        <v>1074921.7533864521</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.32697700957122983</v>
+        <v>0.3377692171203372</v>
       </c>
       <c r="J3">
-        <v>204167.47313</v>
+        <v>286678.41564558999</v>
       </c>
       <c r="K3">
-        <v>21968435.882169999</v>
+        <v>24157802.58481162</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>21968435.666839998</v>
+        <v>24157802.70140782</v>
       </c>
       <c r="N3">
-        <v>19.151673823498619</v>
+        <v>22.474010434062489</v>
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="17" t="s">
         <v>61</v>
       </c>
       <c r="C4">
-        <v>326.71201000000002</v>
+        <v>255.96007</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1095000.0019</v>
+        <v>876000.00688130769</v>
       </c>
       <c r="F4">
-        <v>1855932.20661</v>
+        <v>1484745.7743750969</v>
       </c>
       <c r="G4">
-        <v>-760932.20470999996</v>
+        <v>-608745.76749378967</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.64847450817617625</v>
+        <v>0.66217956087895979</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>16053416.55662</v>
+        <v>15403583.53446193</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>16053416.98325</v>
+        <v>15403584.349426029</v>
       </c>
       <c r="N4">
-        <v>14.6606548</v>
+        <v>17.58400026075936</v>
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="27"/>
-      <c r="B5" s="6" t="s">
+      <c r="A5" s="28"/>
+      <c r="B5" s="17" t="s">
         <v>62</v>
       </c>
       <c r="C5">
-        <v>133.11658</v>
+        <v>107.14181000000001</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>411866.58081999997</v>
+        <v>325803.55342145398</v>
       </c>
       <c r="F5">
-        <v>411866.58081999997</v>
+        <v>325803.55342145398</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>-2.5999999999999998E-4</v>
+        <v>1.125800134786914E-4</v>
       </c>
       <c r="I5">
-        <v>0.35319965401755371</v>
+        <v>0.34713046628236288</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -2243,37 +2193,40 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>-2.5999999999999998E-4</v>
+        <v>1.125800155818979E-4</v>
       </c>
       <c r="M5">
-        <v>-2.5999999999999998E-4</v>
+        <v>1.125819981098175E-4</v>
+      </c>
+      <c r="N5">
+        <v>3.4555985265179148E-10</v>
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="27"/>
-      <c r="B6" s="6" t="s">
+      <c r="A6" s="28"/>
+      <c r="B6" s="17" t="s">
         <v>63</v>
       </c>
       <c r="C6">
-        <v>36.104039999999998</v>
+        <v>35.714917</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>78958.506309999997</v>
+        <v>85586.963391541824</v>
       </c>
       <c r="F6">
-        <v>78958.506309999997</v>
+        <v>85586.963391541824</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>-4.2000000000000002E-4</v>
+        <v>-1.6344377763743981E-4</v>
       </c>
       <c r="I6">
-        <v>0.2496543323129489</v>
+        <v>0.27356080095060359</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -2282,59 +2235,62 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>-4.2000000000000002E-4</v>
+        <v>-1.634441587157198E-4</v>
       </c>
       <c r="M6">
-        <v>-4.2000000000000002E-4</v>
+        <v>-1.6343314200639719E-4</v>
+      </c>
+      <c r="N6">
+        <v>-1.90933517243638E-9</v>
       </c>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="26"/>
-      <c r="B7" s="6" t="s">
+      <c r="A7" s="28"/>
+      <c r="B7" s="17" t="s">
         <v>64</v>
       </c>
       <c r="C7">
-        <v>4.2597300000000002</v>
+        <v>107.14181000000001</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>876000.0013</v>
+        <v>876000.02356800274</v>
       </c>
       <c r="F7">
-        <v>1130040.00168</v>
+        <v>904032.02432217891</v>
       </c>
       <c r="G7">
-        <v>-254040.00038000001</v>
+        <v>-28032.000754176181</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.93902665192394819</v>
+        <v>0.93334248031101397</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>12307974.39481</v>
+        <v>15010670.614324979</v>
       </c>
       <c r="L7">
-        <v>6534960.0097000003</v>
+        <v>6534960.1758173052</v>
       </c>
       <c r="M7">
-        <v>18842934.721519999</v>
+        <v>21545631.183199339</v>
       </c>
       <c r="N7">
-        <v>21.510199499999999</v>
+        <v>24.59546872549457</v>
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="17" t="s">
         <v>66</v>
       </c>
       <c r="C8">
@@ -2365,177 +2321,177 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>-99845052.147799999</v>
+        <v>-86329407.912803292</v>
       </c>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="17" t="s">
         <v>66</v>
       </c>
       <c r="C9">
-        <v>162.59814</v>
+        <v>16.604626</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>64922.530980000003</v>
+        <v>7094.8525846729881</v>
       </c>
       <c r="F9">
-        <v>69717.341369999995</v>
+        <v>7618.8381753839967</v>
       </c>
       <c r="G9">
-        <v>-4794.8103899999996</v>
+        <v>-523.98559071099999</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>9.4526604055864355E-2</v>
+        <v>0.1011552481780347</v>
       </c>
       <c r="J9">
-        <v>1429154.51679</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>2998890.37855</v>
+        <v>341573.86352473038</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>2998890.24272</v>
+        <v>341573.86710638611</v>
       </c>
       <c r="N9">
-        <v>46.191812447292968</v>
+        <v>48.143899119805234</v>
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="17" t="s">
         <v>62</v>
       </c>
       <c r="C10">
-        <v>2842.5075000000002</v>
+        <v>2793.6511999999998</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>205933.29053999999</v>
+        <v>162901.77665443701</v>
       </c>
       <c r="F10">
-        <v>205933.29027999999</v>
+        <v>162901.7767670165</v>
       </c>
       <c r="G10">
-        <v>2.5999999999999998E-4</v>
+        <v>-1.1258001575242819E-4</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.36109558901779498</v>
+        <v>0.33779710326947732</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>14415460.949370001</v>
+        <v>4469604.9096180601</v>
       </c>
       <c r="L10">
-        <v>2.5999999999999998E-4</v>
+        <v>-1.1258001575242819E-4</v>
       </c>
       <c r="M10">
-        <v>14415461.39127</v>
+        <v>4469605.0341590298</v>
       </c>
       <c r="N10">
-        <v>70.000626159959197</v>
+        <v>27.437423495020521</v>
       </c>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="26"/>
-      <c r="B11" s="6" t="s">
+      <c r="A11" s="28"/>
+      <c r="B11" s="17" t="s">
         <v>63</v>
       </c>
       <c r="C11">
-        <v>20217.436000000002</v>
+        <v>27787.850999999999</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>39479.253360000002</v>
+        <v>42793.481777492852</v>
       </c>
       <c r="F11">
-        <v>39479.252939999998</v>
+        <v>42793.481614049313</v>
       </c>
       <c r="G11">
-        <v>4.2000000000000002E-4</v>
+        <v>1.6344377763743981E-4</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.43633853175051468</v>
+        <v>0.40987630140605291</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>194825.785</v>
+        <v>3165819.8542728652</v>
       </c>
       <c r="L11">
-        <v>4.2000000000000002E-4</v>
+        <v>1.6344377763743981E-4</v>
       </c>
       <c r="M11">
-        <v>194825.81617999999</v>
+        <v>3165819.9428275782</v>
       </c>
       <c r="N11">
-        <v>4.9348955790856408</v>
+        <v>73.979022302705246</v>
       </c>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="17" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B15">
-        <v>93310091.664590001</v>
+        <v>876000.02356800274</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B16">
-        <v>6534960.0097000003</v>
+        <v>79794447.915316492</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B17">
-        <v>876000.0013</v>
+        <v>6534960.1758173043</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B18">
-        <v>706.66588979672645</v>
+        <v>611.00720977718038</v>
       </c>
     </row>
   </sheetData>
@@ -2549,12 +2505,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
@@ -2597,160 +2551,160 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="24" t="s">
         <v>58</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>59</v>
       </c>
       <c r="C2">
-        <v>373.09978999999998</v>
+        <v>75.575429999999997</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>489353.88604000001</v>
+        <v>103288.84832999999</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>489353.88604000001</v>
+        <v>103288.84832999999</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.14972487655380351</v>
+        <v>0.15601578449504019</v>
       </c>
       <c r="J2">
-        <v>206492.15093999999</v>
+        <v>22242.540150000001</v>
       </c>
       <c r="K2">
-        <v>15838113.13934</v>
+        <v>3208182.5260000001</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>15838113.31718</v>
+        <v>3208182.5161799998</v>
       </c>
       <c r="N2">
-        <v>32.365354679146883</v>
+        <v>31.060310610840851</v>
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="26"/>
+      <c r="A3" s="25"/>
       <c r="B3" s="3" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C3">
-        <v>540.41421000000003</v>
+        <v>432.96611000000001</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1402875.3038600001</v>
+        <v>1788247.02593</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1402875.3038600001</v>
+        <v>1788247.02593</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.29633858073421132</v>
+        <v>0.47148676370998183</v>
       </c>
       <c r="J3">
-        <v>702421.73984000005</v>
+        <v>176597.7807</v>
       </c>
       <c r="K3">
-        <v>29645230.047109999</v>
+        <v>23751003.75979</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>29645230.019960001</v>
+        <v>23751003.685989998</v>
       </c>
       <c r="N3">
-        <v>21.131764485788491</v>
+        <v>13.28172402571812</v>
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="24" t="s">
         <v>60</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>61</v>
       </c>
       <c r="C4">
-        <v>306.64431000000002</v>
+        <v>323.49389000000002</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1095000.0049999999</v>
+        <v>1094999.9942699999</v>
       </c>
       <c r="F4">
-        <v>1855932.21187</v>
+        <v>1855932.1936699999</v>
       </c>
       <c r="G4">
-        <v>-760932.20686999999</v>
+        <v>-760932.19940000004</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.69091257555048058</v>
+        <v>0.65492553816085974</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>15067364.199890001</v>
+        <v>15895290.07425</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>15067363.79496</v>
+        <v>15895290.184629999</v>
       </c>
       <c r="N4">
-        <v>13.7601496</v>
+        <v>14.51624672</v>
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="27"/>
+      <c r="A5" s="26"/>
       <c r="B5" s="3" t="s">
         <v>62</v>
       </c>
       <c r="C5">
-        <v>152.14269999999999</v>
+        <v>158.35903999999999</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>316922.42543</v>
+        <v>381168.40603000001</v>
       </c>
       <c r="F5">
-        <v>316922.42543</v>
+        <v>381168.40603000001</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>-1.9000000000000001E-4</v>
+        <v>6.9999999999999999E-4</v>
       </c>
       <c r="I5">
-        <v>0.2377922831657385</v>
+        <v>0.2747704204319501</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -2759,37 +2713,37 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>-1.9000000000000001E-4</v>
+        <v>6.9999999999999999E-4</v>
       </c>
       <c r="M5">
-        <v>-1.9000000000000001E-4</v>
+        <v>6.9999999999999999E-4</v>
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="27"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C6">
-        <v>77.75318</v>
+        <v>89.824179999999998</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>88806.578880000001</v>
+        <v>196429.29068999999</v>
       </c>
       <c r="F6">
-        <v>88806.578880000001</v>
+        <v>196429.29068999999</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>-3.8000000000000002E-4</v>
+        <v>1.2999999999999999E-4</v>
       </c>
       <c r="I6">
-        <v>0.1303836061753359</v>
+        <v>0.2496370131071611</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -2798,52 +2752,52 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>-3.8000000000000002E-4</v>
+        <v>1.2999999999999999E-4</v>
       </c>
       <c r="M6">
-        <v>-3.8000000000000002E-4</v>
+        <v>1.2999999999999999E-4</v>
       </c>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="26"/>
+      <c r="A7" s="25"/>
       <c r="B7" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C7">
-        <v>4.9242400000000002</v>
+        <v>5.0674900000000003</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>876000.00009999995</v>
+        <v>876000.00005999999</v>
       </c>
       <c r="F7">
-        <v>1130040.0001300001</v>
+        <v>1130040.0000700001</v>
       </c>
       <c r="G7">
-        <v>-254040.00003</v>
+        <v>-254040.00002000001</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.81230809221321465</v>
+        <v>0.78934541558049443</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>14227991.849330001</v>
+        <v>14641895.03369</v>
       </c>
       <c r="L7">
-        <v>6534960.0007600002</v>
+        <v>6534960.00043</v>
       </c>
       <c r="M7">
-        <v>20762951.85647</v>
+        <v>21176854.922809999</v>
       </c>
       <c r="N7">
-        <v>23.701999799999999</v>
+        <v>24.1744919</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -2881,7 +2835,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>-91115754.346839994</v>
+        <v>-76511118.563390002</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -2892,126 +2846,126 @@
         <v>66</v>
       </c>
       <c r="C9">
-        <v>70.683949999999996</v>
+        <v>16.388300000000001</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>17019.788100000002</v>
+        <v>7632.2391500000003</v>
       </c>
       <c r="F9">
-        <v>18276.77318</v>
+        <v>8195.91309</v>
       </c>
       <c r="G9">
-        <v>-1256.9850799999999</v>
+        <v>-563.67394000000002</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>5.7004312860274499E-2</v>
+        <v>0.11025365657206659</v>
       </c>
       <c r="J9">
-        <v>620448.37832000002</v>
+        <v>144125.15565999999</v>
       </c>
       <c r="K9">
-        <v>1303664.4488900001</v>
+        <v>302258.72321999999</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1303664.4788500001</v>
+        <v>302258.72237999999</v>
       </c>
       <c r="N9">
-        <v>76.596916979772502</v>
+        <v>39.602896953836982</v>
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="24" t="s">
         <v>68</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>62</v>
       </c>
       <c r="C10">
-        <v>1647.1406999999999</v>
+        <v>2287.9717999999998</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>158461.21281</v>
+        <v>190584.20266000001</v>
       </c>
       <c r="F10">
-        <v>158461.21262000001</v>
+        <v>190584.20337</v>
       </c>
       <c r="G10">
-        <v>1.9000000000000001E-4</v>
+        <v>-6.9999999999999999E-4</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.2053340434123205</v>
+        <v>0.40866922398256827</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>8353291.0428400002</v>
+        <v>11603194.762429999</v>
       </c>
       <c r="L10">
-        <v>1.9000000000000001E-4</v>
+        <v>-6.9999999999999999E-4</v>
       </c>
       <c r="M10">
-        <v>8353291.2391499998</v>
+        <v>11603194.905230001</v>
       </c>
       <c r="N10">
-        <v>52.715051760223517</v>
+        <v>60.882242249217349</v>
       </c>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="26"/>
+      <c r="A11" s="25"/>
       <c r="B11" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C11">
-        <v>15061.442999999999</v>
+        <v>59599.658000000003</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>44403.289629999999</v>
+        <v>98214.645279999997</v>
       </c>
       <c r="F11">
-        <v>44403.289250000002</v>
+        <v>98214.645409999997</v>
       </c>
       <c r="G11">
-        <v>3.8000000000000002E-4</v>
+        <v>-1.2999999999999999E-4</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.1116411282770183</v>
+        <v>0.3360916821032765</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>145139.94039</v>
+        <v>574333.46918000001</v>
       </c>
       <c r="L11">
-        <v>3.8000000000000002E-4</v>
+        <v>-1.2999999999999999E-4</v>
       </c>
       <c r="M11">
-        <v>145139.94677000001</v>
+        <v>574333.46631000005</v>
       </c>
       <c r="N11">
-        <v>3.2686752668740762</v>
+        <v>5.8477361189897721</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -3024,34 +2978,34 @@
     </row>
     <row r="15" spans="1:14">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B15">
-        <v>84580794.667790011</v>
+        <v>69976158.348560005</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B16">
-        <v>6534960.0007600002</v>
+        <v>6534960.00043</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B17">
-        <v>876000.00009999995</v>
+        <v>876000.00005999999</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B18">
-        <v>644.88319506908886</v>
+        <v>541.51704763840985</v>
       </c>
     </row>
   </sheetData>
@@ -3065,206 +3019,206 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="6" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="6" t="s">
         <v>59</v>
       </c>
       <c r="C2">
-        <v>174.25516999999999</v>
+        <v>597.66889000000003</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>230647.75000999999</v>
+        <v>748690.46573000005</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>230647.75000999999</v>
+        <v>748690.46573000005</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.151098242881402</v>
+        <v>0.14300049982524601</v>
       </c>
       <c r="J2">
-        <v>94345.117769999997</v>
+        <v>238667.92725000001</v>
       </c>
       <c r="K2">
-        <v>7397144.6019200003</v>
+        <v>25371087.71807</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>7397144.8240200002</v>
+        <v>25371087.837809999</v>
       </c>
       <c r="N2">
-        <v>32.071179449783799</v>
+        <v>33.88728508505335</v>
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="26"/>
-      <c r="B3" s="3" t="s">
-        <v>23</v>
+      <c r="A3" s="25"/>
+      <c r="B3" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="C3">
-        <v>509.62610000000001</v>
+        <v>400.471</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1660612.91713</v>
+        <v>1147076.54856</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1660612.91713</v>
+        <v>1147076.54856</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.37197404136091139</v>
+        <v>0.32697700957122983</v>
       </c>
       <c r="J3">
-        <v>852363.57854000002</v>
+        <v>204167.47313</v>
       </c>
       <c r="K3">
-        <v>27956302.208470002</v>
+        <v>21968435.882169999</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>27956302.766770002</v>
+        <v>21968435.666839998</v>
       </c>
       <c r="N3">
-        <v>16.834930722367869</v>
+        <v>19.151673823498619</v>
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="6" t="s">
         <v>61</v>
       </c>
       <c r="C4">
-        <v>296.35167999999999</v>
+        <v>326.71201000000002</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1095000.0020000001</v>
+        <v>1095000.0019</v>
       </c>
       <c r="F4">
-        <v>1855932.20677</v>
+        <v>1855932.20661</v>
       </c>
       <c r="G4">
-        <v>-760932.20478000003</v>
+        <v>-760932.20470999996</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.71490875300588819</v>
+        <v>0.64847450817617625</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>14561622.53201</v>
+        <v>16053416.55662</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>14561622.188479999</v>
+        <v>16053416.98325</v>
       </c>
       <c r="N4">
-        <v>13.298285119999999</v>
+        <v>14.6606548</v>
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="27"/>
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="26"/>
+      <c r="B5" s="6" t="s">
         <v>62</v>
       </c>
       <c r="C5">
-        <v>146.51741999999999</v>
+        <v>133.11658</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>277898.46784</v>
+        <v>411866.58081999997</v>
       </c>
       <c r="F5">
-        <v>277898.46784</v>
+        <v>411866.58081999997</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2.7E-4</v>
+        <v>-2.5999999999999998E-4</v>
       </c>
       <c r="I5">
-        <v>0.2165173943139321</v>
+        <v>0.35319965401755371</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -3273,37 +3227,37 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>2.7E-4</v>
+        <v>-2.5999999999999998E-4</v>
       </c>
       <c r="M5">
-        <v>2.7E-4</v>
+        <v>-2.5999999999999998E-4</v>
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="27"/>
-      <c r="B6" s="3" t="s">
+      <c r="A6" s="26"/>
+      <c r="B6" s="6" t="s">
         <v>63</v>
       </c>
       <c r="C6">
-        <v>68.424819999999997</v>
+        <v>36.104039999999998</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>93686.623240000001</v>
+        <v>78958.506309999997</v>
       </c>
       <c r="F6">
-        <v>93686.623240000001</v>
+        <v>78958.506309999997</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1.2E-4</v>
+        <v>-4.2000000000000002E-4</v>
       </c>
       <c r="I6">
-        <v>0.15630030155724189</v>
+        <v>0.2496543323129489</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -3312,59 +3266,59 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>1.2E-4</v>
+        <v>-4.2000000000000002E-4</v>
       </c>
       <c r="M6">
-        <v>1.2E-4</v>
+        <v>-4.2000000000000002E-4</v>
       </c>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="26"/>
-      <c r="B7" s="3" t="s">
+      <c r="A7" s="25"/>
+      <c r="B7" s="6" t="s">
         <v>64</v>
       </c>
       <c r="C7">
-        <v>4.9535</v>
+        <v>4.2597300000000002</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>876000.00012999994</v>
+        <v>876000.0013</v>
       </c>
       <c r="F7">
-        <v>1130040.0001699999</v>
+        <v>1130040.00168</v>
       </c>
       <c r="G7">
-        <v>-254040.00004000001</v>
+        <v>-254040.00038000001</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.80750984152619365</v>
+        <v>0.93902665192394819</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>14312545.755589999</v>
+        <v>12307974.39481</v>
       </c>
       <c r="L7">
-        <v>6534960.0009899996</v>
+        <v>6534960.0097000003</v>
       </c>
       <c r="M7">
-        <v>20847505.657099999</v>
+        <v>18842934.721519999</v>
       </c>
       <c r="N7">
-        <v>23.7985224</v>
+        <v>21.510199499999999</v>
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="6" t="s">
         <v>66</v>
       </c>
       <c r="C8">
@@ -3395,177 +3349,177 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>-79065470.042999998</v>
+        <v>-99845052.147799999</v>
       </c>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="6" t="s">
         <v>66</v>
       </c>
       <c r="C9">
-        <v>13.904439999999999</v>
+        <v>162.59814</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>3905.8361599999998</v>
+        <v>64922.530980000003</v>
       </c>
       <c r="F9">
-        <v>4194.2990399999999</v>
+        <v>69717.341369999995</v>
       </c>
       <c r="G9">
-        <v>-288.46289000000002</v>
+        <v>-4794.8103899999996</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>6.6501779287767071E-2</v>
+        <v>9.4526604055864355E-2</v>
       </c>
       <c r="J9">
-        <v>122091.32225</v>
+        <v>1429154.51679</v>
       </c>
       <c r="K9">
-        <v>256447.45592000001</v>
+        <v>2998890.37855</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>256447.46484</v>
+        <v>2998890.24272</v>
       </c>
       <c r="N9">
-        <v>65.657747774014851</v>
+        <v>46.191812447292968</v>
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="6" t="s">
         <v>62</v>
       </c>
       <c r="C10">
-        <v>1555.6346000000001</v>
+        <v>2842.5075000000002</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>138949.23378000001</v>
+        <v>205933.29053999999</v>
       </c>
       <c r="F10">
-        <v>138949.23405</v>
+        <v>205933.29027999999</v>
       </c>
       <c r="G10">
-        <v>-2.7E-4</v>
+        <v>2.5999999999999998E-4</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.1904934809241193</v>
+        <v>0.36109558901779498</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>7889228.0241299998</v>
+        <v>14415460.949370001</v>
       </c>
       <c r="L10">
-        <v>-2.7E-4</v>
+        <v>2.5999999999999998E-4</v>
       </c>
       <c r="M10">
-        <v>7889227.8938800003</v>
+        <v>14415461.39127</v>
       </c>
       <c r="N10">
-        <v>56.777788495364327</v>
+        <v>70.000626159959197</v>
       </c>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="26"/>
-      <c r="B11" s="3" t="s">
+      <c r="A11" s="25"/>
+      <c r="B11" s="6" t="s">
         <v>63</v>
       </c>
       <c r="C11">
-        <v>16314.93</v>
+        <v>20217.436000000002</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>46843.311560000002</v>
+        <v>39479.253360000002</v>
       </c>
       <c r="F11">
-        <v>46843.311679999999</v>
+        <v>39479.252939999998</v>
       </c>
       <c r="G11">
-        <v>-1.2E-4</v>
+        <v>4.2000000000000002E-4</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.11884785040450679</v>
+        <v>0.43633853175051468</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>157219.19657</v>
+        <v>194825.785</v>
       </c>
       <c r="L11">
-        <v>-1.2E-4</v>
+        <v>4.2000000000000002E-4</v>
       </c>
       <c r="M11">
-        <v>157219.30428000001</v>
+        <v>194825.81617999999</v>
       </c>
       <c r="N11">
-        <v>3.3562808911229931</v>
+        <v>4.9348955790856408</v>
       </c>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="6" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B15">
-        <v>72530509.774609998</v>
+        <v>93310091.664590001</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B16">
-        <v>6534960.0009899996</v>
+        <v>6534960.0097000003</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B17">
-        <v>876000.00012999994</v>
+        <v>876000.0013</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B18">
-        <v>559.59579056617883</v>
+        <v>706.66588979672645</v>
       </c>
     </row>
   </sheetData>
@@ -3574,211 +3528,211 @@
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A2:A3"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H1" s="3" t="s">
+      <c r="G1" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="17" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="17" t="s">
         <v>59</v>
       </c>
       <c r="C2">
-        <v>207.16269</v>
+        <v>324.45375999999999</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>293320.56673999998</v>
+        <v>411854.04791500972</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>293320.56673999998</v>
+        <v>411854.04791500972</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.1616318073490936</v>
+        <v>0.1449060176507215</v>
       </c>
       <c r="J2">
-        <v>69350.455220000003</v>
+        <v>124148.6585024019</v>
       </c>
       <c r="K2">
-        <v>8794071.21208</v>
+        <v>15442957.771193299</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>8794071.1928800009</v>
+        <v>15442957.57803699</v>
       </c>
       <c r="N2">
-        <v>29.981095792388501</v>
+        <v>37.496189866813687</v>
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="26"/>
-      <c r="B3" s="3" t="s">
-        <v>23</v>
+      <c r="A3" s="29"/>
+      <c r="B3" s="17" t="s">
+        <v>16</v>
       </c>
       <c r="C3">
-        <v>434.81051000000002</v>
+        <v>323.71514999999999</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1598182.3574099999</v>
+        <v>1101415.1858190109</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1598182.3574099999</v>
+        <v>1101415.1858190109</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.41958716683274278</v>
+        <v>0.38840421014675708</v>
       </c>
       <c r="J3">
-        <v>214290.90476999999</v>
+        <v>246062.72388649001</v>
       </c>
       <c r="K3">
-        <v>23852181.08134</v>
+        <v>21526220.00108311</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>23852180.823759999</v>
+        <v>21526219.70066122</v>
       </c>
       <c r="N3">
-        <v>14.924567576427901</v>
+        <v>19.544146456137991</v>
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="17" t="s">
         <v>61</v>
       </c>
       <c r="C4">
-        <v>325.54295999999999</v>
+        <v>243.73756</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1095000.0075000001</v>
+        <v>876000.00292664964</v>
       </c>
       <c r="F4">
-        <v>1855932.2161099999</v>
+        <v>1484745.7676722871</v>
       </c>
       <c r="G4">
-        <v>-760932.20860000001</v>
+        <v>-608745.76474563743</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.65080323039392407</v>
+        <v>0.69538533983021389</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>15995973.77506</v>
+        <v>14668037.346395191</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>15995973.753830001</v>
+        <v>14668036.70734537</v>
       </c>
       <c r="N4">
-        <v>14.608195200000001</v>
+        <v>16.74433408486361</v>
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="27"/>
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="30"/>
+      <c r="B5" s="17" t="s">
         <v>62</v>
       </c>
       <c r="C5">
-        <v>170.30788000000001</v>
+        <v>105.15427</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>352072.91389999999</v>
+        <v>298716.43888094253</v>
       </c>
       <c r="F5">
-        <v>352072.91389999999</v>
+        <v>298716.43888094253</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>-2.9999999999999997E-4</v>
+        <v>-4.2734919998110849E-4</v>
       </c>
       <c r="I5">
-        <v>0.23599007867398741</v>
+        <v>0.32428592866998468</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -3787,37 +3741,40 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>-2.9999999999999997E-4</v>
+        <v>-4.2734918793030369E-4</v>
       </c>
       <c r="M5">
-        <v>-2.9999999999999997E-4</v>
+        <v>-4.2737089097499847E-4</v>
+      </c>
+      <c r="N5">
+        <v>-1.430605059039623E-9</v>
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="27"/>
-      <c r="B6" s="3" t="s">
+      <c r="A6" s="30"/>
+      <c r="B6" s="17" t="s">
         <v>63</v>
       </c>
       <c r="C6">
-        <v>94.096869999999996</v>
+        <v>36.907435</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>208814.89649000001</v>
+        <v>66580.831026434054</v>
       </c>
       <c r="F6">
-        <v>208814.89649000001</v>
+        <v>66580.831026434054</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>-6.2E-4</v>
+        <v>2.3325946131080851E-5</v>
       </c>
       <c r="I6">
-        <v>0.25332744861757889</v>
+        <v>0.2059355110165699</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -3826,59 +3783,62 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>-6.2E-4</v>
+        <v>2.3326130758505311E-5</v>
       </c>
       <c r="M6">
-        <v>-6.2E-4</v>
+        <v>2.332963049411774E-5</v>
+      </c>
+      <c r="N6">
+        <v>3.5045164406055438E-10</v>
       </c>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="26"/>
-      <c r="B7" s="3" t="s">
+      <c r="A7" s="29"/>
+      <c r="B7" s="17" t="s">
         <v>64</v>
       </c>
       <c r="C7">
-        <v>5.4498499999999996</v>
+        <v>105.15427</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>876000.00008000003</v>
+        <v>875999.97164199571</v>
       </c>
       <c r="F7">
-        <v>1130040.0001000001</v>
+        <v>904031.97073453967</v>
       </c>
       <c r="G7">
-        <v>-254040.00002000001</v>
+        <v>-28031.999092543982</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.73396515500426618</v>
+        <v>0.95098370007023825</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>15746686.18462</v>
+        <v>14732214.34899966</v>
       </c>
       <c r="L7">
-        <v>6534960.0005999999</v>
+        <v>6534959.7884493005</v>
       </c>
       <c r="M7">
-        <v>22281645.81851</v>
+        <v>21267174.687260911</v>
       </c>
       <c r="N7">
-        <v>25.435668700000001</v>
+        <v>24.277597460873348</v>
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="17" t="s">
         <v>66</v>
       </c>
       <c r="C8">
@@ -3909,177 +3869,177 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>-84384543.881400004</v>
+        <v>-81316128.662902057</v>
       </c>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="17" t="s">
         <v>66</v>
       </c>
       <c r="C9">
-        <v>19.520589999999999</v>
+        <v>13.182663</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>7186.02927</v>
+        <v>6654.6513447251155</v>
       </c>
       <c r="F9">
-        <v>7716.7486500000005</v>
+        <v>7146.1262372680176</v>
       </c>
       <c r="G9">
-        <v>-530.71938</v>
+        <v>-491.47489254290048</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>8.7150542068656744E-2</v>
+        <v>0.1195078134684268</v>
       </c>
       <c r="J9">
-        <v>171531.06150000001</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>360029.33698000002</v>
+        <v>271180.64161484363</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>360029.3407</v>
+        <v>271180.63705460518</v>
       </c>
       <c r="N9">
-        <v>50.10147259606007</v>
+        <v>40.750540187136963</v>
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="17" t="s">
         <v>62</v>
       </c>
       <c r="C10">
-        <v>2470.0556999999999</v>
+        <v>3679.3406</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>176036.4571</v>
+        <v>149358.21965414591</v>
       </c>
       <c r="F10">
-        <v>176036.45680000001</v>
+        <v>149358.21922679711</v>
       </c>
       <c r="G10">
-        <v>2.9999999999999997E-4</v>
+        <v>4.2734919998110849E-4</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.36990376775714012</v>
+        <v>0.30776377387445181</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>12526613.02956</v>
+        <v>5886632.8086759932</v>
       </c>
       <c r="L10">
-        <v>2.9999999999999997E-4</v>
+        <v>4.2734919998110849E-4</v>
       </c>
       <c r="M10">
-        <v>12526613.07666</v>
+        <v>5886632.7027052455</v>
       </c>
       <c r="N10">
-        <v>71.159183478481978</v>
+        <v>39.412847289800027</v>
       </c>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="26"/>
-      <c r="B11" s="3" t="s">
+      <c r="A11" s="29"/>
+      <c r="B11" s="17" t="s">
         <v>63</v>
       </c>
       <c r="C11">
-        <v>59568.19</v>
+        <v>19783.733</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>104407.44855</v>
+        <v>33290.415501554002</v>
       </c>
       <c r="F11">
-        <v>104407.44792999999</v>
+        <v>33290.415524880031</v>
       </c>
       <c r="G11">
-        <v>6.2E-4</v>
+        <v>-2.3325946131080851E-5</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.34906625331405899</v>
+        <v>0.45269730514981688</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>574030.22707999998</v>
+        <v>2253925.0956482119</v>
       </c>
       <c r="L11">
-        <v>6.2E-4</v>
+        <v>-2.3325946131080851E-5</v>
       </c>
       <c r="M11">
-        <v>574030.17469999997</v>
+        <v>2253925.1515488192</v>
       </c>
       <c r="N11">
-        <v>5.4979804776711481</v>
+        <v>67.704927006502658</v>
       </c>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="17" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B15">
-        <v>77849584.846719995</v>
+        <v>875999.97164199571</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B16">
-        <v>6534960.0005999999</v>
+        <v>74781168.013610303</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B17">
-        <v>876000.00008000003</v>
+        <v>6534959.7884493005</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B18">
-        <v>597.24221233516505</v>
+        <v>575.5251240793533</v>
       </c>
     </row>
   </sheetData>
@@ -4088,211 +4048,211 @@
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A2:A3"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H1" s="3" t="s">
+      <c r="G1" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="17" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="17" t="s">
         <v>59</v>
       </c>
       <c r="C2">
-        <v>50</v>
+        <v>411.56783999999999</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>71543.95435</v>
+        <v>523383.35978327668</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>71543.95435</v>
+        <v>523383.35978327668</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.1633424</v>
+        <v>0.14516916307010169</v>
       </c>
       <c r="J2">
-        <v>15988.94565</v>
+        <v>156533.17456585099</v>
       </c>
       <c r="K2">
-        <v>2122503.62555</v>
+        <v>19589308.421333261</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>2059939.3756899999</v>
+        <v>19589308.16137081</v>
       </c>
       <c r="N2">
-        <v>28.792634368051399</v>
+        <v>37.428221198095351</v>
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="26"/>
-      <c r="B3" s="3" t="s">
-        <v>23</v>
+      <c r="A3" s="29"/>
+      <c r="B3" s="17" t="s">
+        <v>16</v>
       </c>
       <c r="C3">
-        <v>417.68669999999997</v>
+        <v>350.21564000000001</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1819712.43729</v>
+        <v>990633.54667690059</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1819712.43729</v>
+        <v>990633.54667690059</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.49733383897548089</v>
+        <v>0.32290397227876089</v>
       </c>
       <c r="J3">
-        <v>215962.64704000001</v>
+        <v>191042.00833474009</v>
       </c>
       <c r="K3">
-        <v>22912828.863469999</v>
+        <v>23288434.02744703</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>22912829.05601</v>
+        <v>23288433.895957839</v>
       </c>
       <c r="N3">
-        <v>12.59145602317011</v>
+        <v>23.508626347330271</v>
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="17" t="s">
         <v>61</v>
       </c>
       <c r="C4">
-        <v>325.78577000000001</v>
+        <v>263.81785000000002</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1094999.99208</v>
+        <v>875999.99830223608</v>
       </c>
       <c r="F4">
-        <v>1855932.1899699999</v>
+        <v>1484745.7598342979</v>
       </c>
       <c r="G4">
-        <v>-760932.19788999995</v>
+        <v>-608745.76153206185</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.65031818301947319</v>
+        <v>0.64245662336812792</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>16007904.55799</v>
+        <v>15876461.865154</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>16007904.53112</v>
+        <v>15876462.28913907</v>
       </c>
       <c r="N4">
-        <v>14.61909088</v>
+        <v>18.123815433686239</v>
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="27"/>
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="30"/>
+      <c r="B5" s="17" t="s">
         <v>62</v>
       </c>
       <c r="C5">
-        <v>169.36510999999999</v>
+        <v>106.57264000000001</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>375126.25644000003</v>
+        <v>339957.22446697811</v>
       </c>
       <c r="F5">
-        <v>375126.25644000003</v>
+        <v>339957.22446697811</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>-1.4999999999999999E-4</v>
+        <v>7.5243587161821779E-4</v>
       </c>
       <c r="I5">
-        <v>0.25284209953277859</v>
+        <v>0.36414507829038562</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -4301,37 +4261,40 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>-1.4999999999999999E-4</v>
+        <v>7.5243587502882292E-4</v>
       </c>
       <c r="M5">
-        <v>-1.4999999999999999E-4</v>
+        <v>7.5243599712848663E-4</v>
+      </c>
+      <c r="N5">
+        <v>2.2133015174474959E-9</v>
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="27"/>
-      <c r="B6" s="3" t="s">
+      <c r="A6" s="30"/>
+      <c r="B6" s="17" t="s">
         <v>63</v>
       </c>
       <c r="C6">
-        <v>89.557829999999996</v>
+        <v>36.056412999999999</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>205689.65367999999</v>
+        <v>78453.182114255877</v>
       </c>
       <c r="F6">
-        <v>205689.65367999999</v>
+        <v>78453.182114255877</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>3.6000000000000002E-4</v>
+        <v>-1.274180649488699E-4</v>
       </c>
       <c r="I6">
-        <v>0.262183105597802</v>
+        <v>0.2483841836154583</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -4340,59 +4303,62 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>3.6000000000000002E-4</v>
+        <v>-1.2741784485115201E-4</v>
       </c>
       <c r="M6">
-        <v>3.6000000000000002E-4</v>
+        <v>-1.2741843238472941E-4</v>
+      </c>
+      <c r="N6">
+        <v>-1.6238233598018871E-9</v>
       </c>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="26"/>
-      <c r="B7" s="3" t="s">
+      <c r="A7" s="29"/>
+      <c r="B7" s="17" t="s">
         <v>64</v>
       </c>
       <c r="C7">
-        <v>5.4196799999999996</v>
+        <v>106.57264000000001</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>876000.00196999998</v>
+        <v>875999.97488799482</v>
       </c>
       <c r="F7">
-        <v>1130040.00254</v>
+        <v>904031.97408441105</v>
       </c>
       <c r="G7">
-        <v>-254040.00057</v>
+        <v>-28031.9991964162</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.73805095503793583</v>
+        <v>0.93832710847111889</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>15659517.390799999</v>
+        <v>14930929.349980511</v>
       </c>
       <c r="L7">
-        <v>6534960.01468</v>
+        <v>6534959.8126644921</v>
       </c>
       <c r="M7">
-        <v>22194477.633340001</v>
+        <v>21465886.807046872</v>
       </c>
       <c r="N7">
-        <v>25.336161700000002</v>
+        <v>24.50443769680626</v>
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="17" t="s">
         <v>66</v>
       </c>
       <c r="C8">
@@ -4423,177 +4389,177 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>-76739749.526800007</v>
+        <v>-88782231.742202431</v>
       </c>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="17" t="s">
         <v>66</v>
       </c>
       <c r="C9">
-        <v>9.5773600000000005</v>
+        <v>35.747611999999997</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>3847.9340699999998</v>
+        <v>16778.173275475008</v>
       </c>
       <c r="F9">
-        <v>4132.1206700000002</v>
+        <v>18017.314038424989</v>
       </c>
       <c r="G9">
-        <v>-284.1866</v>
+        <v>-1239.140762949999</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>9.5117025986284312E-2</v>
+        <v>0.1111147674119031</v>
       </c>
       <c r="J9">
-        <v>84181.903999999995</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>176640.81367</v>
+        <v>735364.34621430282</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>176640.81367999999</v>
+        <v>735364.34140132158</v>
       </c>
       <c r="N9">
-        <v>45.90556845603971</v>
+        <v>43.828629572935597</v>
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="17" t="s">
         <v>62</v>
       </c>
       <c r="C10">
-        <v>2522.4285</v>
+        <v>3341.5846999999999</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>187563.12830000001</v>
+        <v>169978.61185727091</v>
       </c>
       <c r="F10">
-        <v>187563.12815</v>
+        <v>169978.61260970711</v>
       </c>
       <c r="G10">
-        <v>1.4999999999999999E-4</v>
+        <v>-7.5243587252771249E-4</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.35976889731463152</v>
+        <v>0.35790427459048529</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>12792215.86551</v>
+        <v>5346252.0235255547</v>
       </c>
       <c r="L10">
-        <v>1.4999999999999999E-4</v>
+        <v>-7.5243587252771249E-4</v>
       </c>
       <c r="M10">
-        <v>12792215.78186</v>
+        <v>5346252.1126395669</v>
       </c>
       <c r="N10">
-        <v>68.202175764969184</v>
+        <v>31.452498959861771</v>
       </c>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="26"/>
-      <c r="B11" s="3" t="s">
+      <c r="A11" s="29"/>
+      <c r="B11" s="17" t="s">
         <v>63</v>
       </c>
       <c r="C11">
-        <v>61821.285000000003</v>
+        <v>21772.681</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>102844.82666000001</v>
+        <v>39226.591120836907</v>
       </c>
       <c r="F11">
-        <v>102844.82702</v>
+        <v>39226.590993418708</v>
       </c>
       <c r="G11">
-        <v>-3.6000000000000002E-4</v>
+        <v>1.274180649488699E-4</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.3564811938153663</v>
+        <v>0.41863813658606952</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>595742.22864999995</v>
+        <v>2480522.3617526079</v>
       </c>
       <c r="L11">
-        <v>-3.6000000000000002E-4</v>
+        <v>1.274180649488699E-4</v>
       </c>
       <c r="M11">
-        <v>595742.20603999996</v>
+        <v>2480522.4371749549</v>
       </c>
       <c r="N11">
-        <v>5.792630158735566</v>
+        <v>63.235737959837692</v>
       </c>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="17" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B15">
-        <v>70267353.345640004</v>
+        <v>875999.97488799482</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B16">
-        <v>6534960.01468</v>
+        <v>82247272.395407259</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B17">
-        <v>876000.00196999998</v>
+        <v>6534959.8126644921</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B18">
-        <v>543.57801571134166</v>
+        <v>628.36741491964688</v>
       </c>
     </row>
   </sheetData>
@@ -4602,17 +4568,17 @@
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A2:A3"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:14">
       <c r="C1" s="17" t="s">
@@ -4660,82 +4626,82 @@
         <v>59</v>
       </c>
       <c r="C2">
-        <v>413.05016999999998</v>
+        <v>280.94648000000001</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>526612.4285162898</v>
+        <v>418524.43915177177</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>526612.4285162898</v>
+        <v>418524.43915177177</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.1455406107968433</v>
+        <v>0.17005645509510539</v>
       </c>
       <c r="J2">
-        <v>155752.93840196001</v>
+        <v>105451.984876888</v>
       </c>
       <c r="K2">
-        <v>19659862.572386932</v>
+        <v>13372150.862438461</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>19659862.466835171</v>
+        <v>13372150.77054082</v>
       </c>
       <c r="N2">
-        <v>37.332697449291267</v>
+        <v>31.950704713068379</v>
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="26"/>
+      <c r="A3" s="29"/>
       <c r="B3" s="17" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C3">
-        <v>351.67365999999998</v>
+        <v>328.55772000000002</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>994429.88700283621</v>
+        <v>1094884.606281142</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>994429.88700283621</v>
+        <v>1094884.606281142</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.32279754330612742</v>
+        <v>0.38041056287170327</v>
       </c>
       <c r="J3">
-        <v>192165.22553206299</v>
+        <v>185080.99086245999</v>
       </c>
       <c r="K3">
-        <v>23385388.585446492</v>
+        <v>21848238.378013089</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>23385388.601208799</v>
+        <v>21848238.221087661</v>
       </c>
       <c r="N3">
-        <v>23.516377481062289</v>
+        <v>19.954831856935922</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -4746,67 +4712,67 @@
         <v>61</v>
       </c>
       <c r="C4">
-        <v>264.30856999999997</v>
+        <v>245.01490000000001</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>875999.99851301778</v>
+        <v>876000.00370052853</v>
       </c>
       <c r="F4">
-        <v>1484745.7601915509</v>
+        <v>1484745.7689839411</v>
       </c>
       <c r="G4">
-        <v>-608745.7616785334</v>
+        <v>-608745.76528341207</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.6412638271094343</v>
+        <v>0.6917600772023218</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>15905993.215540141</v>
+        <v>14744907.201103039</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>15905992.630118061</v>
+        <v>14744907.17190217</v>
       </c>
       <c r="N4">
-        <v>18.157525864290029</v>
+        <v>16.832085741569109</v>
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="27"/>
+      <c r="A5" s="30"/>
       <c r="B5" s="17" t="s">
         <v>62</v>
       </c>
       <c r="C5">
-        <v>106.59423</v>
+        <v>108.02865</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>340852.65727559401</v>
+        <v>310696.36606349418</v>
       </c>
       <c r="F5">
-        <v>340852.65727559401</v>
+        <v>310696.36606349418</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>3.4730801417026669E-4</v>
+        <v>6.3943794611986959E-4</v>
       </c>
       <c r="I5">
-        <v>0.36503027127792009</v>
+        <v>0.32831680944588221</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -4815,40 +4781,40 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>3.4730801121440891E-4</v>
+        <v>6.3943796749299509E-4</v>
       </c>
       <c r="M5">
-        <v>3.4730788320302958E-4</v>
+        <v>6.3942279666662216E-4</v>
       </c>
       <c r="N5">
-        <v>1.0189330184494681E-9</v>
+        <v>2.0580748888909259E-9</v>
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="27"/>
+      <c r="A6" s="30"/>
       <c r="B6" s="17" t="s">
         <v>63</v>
       </c>
       <c r="C6">
-        <v>36.043463000000003</v>
+        <v>35.182806999999997</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>78674.134831037838</v>
+        <v>91787.992498194566</v>
       </c>
       <c r="F6">
-        <v>78674.134831037838</v>
+        <v>91787.992498194566</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>-1.0503717930987481E-5</v>
+        <v>2.8759594715666031E-4</v>
       </c>
       <c r="I6">
-        <v>0.2491732167905599</v>
+        <v>0.29781823080262743</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -4857,55 +4823,55 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>-1.050409991876222E-5</v>
+        <v>2.8759645738318801E-4</v>
       </c>
       <c r="M6">
-        <v>-1.0513234883546829E-5</v>
+        <v>2.8760917484760279E-4</v>
       </c>
       <c r="N6">
-        <v>-1.3343959954775191E-10</v>
+        <v>3.1335030473143602E-9</v>
       </c>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="26"/>
+      <c r="A7" s="29"/>
       <c r="B7" s="17" t="s">
         <v>64</v>
       </c>
       <c r="C7">
-        <v>106.59423</v>
+        <v>108.02865</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>876000.00624600239</v>
+        <v>875999.97700600058</v>
       </c>
       <c r="F7">
-        <v>911040.00649584248</v>
+        <v>904031.97627019265</v>
       </c>
       <c r="G7">
-        <v>-35040.000249840123</v>
+        <v>-28031.99926419212</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.93813708971877674</v>
+        <v>0.9256803391981161</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>14933954.129742609</v>
+        <v>15134917.75115801</v>
       </c>
       <c r="L7">
-        <v>6534960.0465951506</v>
+        <v>6534959.8284647726</v>
       </c>
       <c r="M7">
-        <v>21468914.556158099</v>
+        <v>21669876.569111489</v>
       </c>
       <c r="N7">
-        <v>24.507893154202812</v>
+        <v>24.73730266885957</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -4943,7 +4909,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>-89035895.78829734</v>
+        <v>-80375625.247996926</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -4954,40 +4920,40 @@
         <v>66</v>
       </c>
       <c r="C9">
-        <v>35.978589999999997</v>
+        <v>18.004394999999999</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>17013.936610952991</v>
+        <v>8547.7210886479934</v>
       </c>
       <c r="F9">
-        <v>18270.48955099002</v>
+        <v>9179.0073588659798</v>
       </c>
       <c r="G9">
-        <v>-1256.5529400370001</v>
+        <v>-631.28627021800048</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.1119527621816799</v>
+        <v>0.1123947312777832</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>740115.79607226502</v>
+        <v>370368.52022896142</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>740115.79334521503</v>
+        <v>370368.51887525897</v>
       </c>
       <c r="N9">
-        <v>43.500561349732159</v>
+        <v>43.329504441497953</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -4998,82 +4964,82 @@
         <v>62</v>
       </c>
       <c r="C10">
-        <v>3367.4256</v>
+        <v>3886.4962999999998</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>170426.32846414301</v>
+        <v>155348.18271202801</v>
       </c>
       <c r="F10">
-        <v>170426.3288114515</v>
+        <v>155348.18335146681</v>
       </c>
       <c r="G10">
-        <v>-3.4730801371551928E-4</v>
+        <v>-6.3943794611986959E-4</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.35713620957174153</v>
+        <v>0.4269152158810246</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>5387595.2712112172</v>
+        <v>6218064.3538078144</v>
       </c>
       <c r="L10">
-        <v>-3.4730801371551928E-4</v>
+        <v>-6.3943794611986959E-4</v>
       </c>
       <c r="M10">
-        <v>5387595.0951646073</v>
+        <v>6218064.4158397513</v>
       </c>
       <c r="N10">
-        <v>31.612457674332578</v>
+        <v>40.026631192502123</v>
       </c>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="26"/>
+      <c r="A11" s="29"/>
       <c r="B11" s="17" t="s">
         <v>63</v>
       </c>
       <c r="C11">
-        <v>21838.554</v>
+        <v>18889.25</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>39337.067420771004</v>
+        <v>45893.996105299033</v>
       </c>
       <c r="F11">
-        <v>39337.067410267453</v>
+        <v>45893.996392895016</v>
       </c>
       <c r="G11">
-        <v>1.0503717930987481E-5</v>
+        <v>-2.8759594715666031E-4</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.41873813376036878</v>
+        <v>0.51117883626240601</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2488027.154090113</v>
+        <v>2152018.2572709098</v>
       </c>
       <c r="L11">
-        <v>1.0503717930987481E-5</v>
+        <v>-2.8759594715666031E-4</v>
       </c>
       <c r="M11">
-        <v>2488027.0877437391</v>
+        <v>2152018.196886159</v>
       </c>
       <c r="N11">
-        <v>63.248921459508111</v>
+        <v>46.891061566061673</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -5086,34 +5052,34 @@
     </row>
     <row r="15" spans="1:14">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B15">
-        <v>82500936.724489778</v>
+        <v>875999.97700600058</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B16">
-        <v>6534960.0465951497</v>
+        <v>73840665.324020267</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B17">
-        <v>876000.00624600239</v>
+        <v>6534959.8284647726</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B18">
-        <v>630.16273521087737</v>
+        <v>568.86859477850624</v>
       </c>
     </row>
   </sheetData>
@@ -5122,184 +5088,184 @@
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A2:A3"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="L1" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="M1" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="N1" s="17" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="28" t="s">
         <v>58</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>59</v>
       </c>
       <c r="C2">
-        <v>413.05016999999998</v>
+        <v>193.02328</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>526612.4285162898</v>
+        <v>273783.56961791997</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>526612.4285162898</v>
+        <v>273783.56961791997</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.1455406107968433</v>
+        <v>0.16191742337071671</v>
       </c>
       <c r="J2">
-        <v>155752.93840196001</v>
+        <v>86212.569083859969</v>
       </c>
       <c r="K2">
-        <v>19659862.572386932</v>
+        <v>9187288.6968461089</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>19659862.466835171</v>
+        <v>9187288.5772999339</v>
       </c>
       <c r="N2">
-        <v>37.332697449291267</v>
+        <v>33.556756492441473</v>
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="30"/>
+      <c r="A3" s="29"/>
       <c r="B3" s="17" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C3">
-        <v>351.67365999999998</v>
+        <v>292.50110999999998</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>994429.88700283621</v>
+        <v>1239295.858630318</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>994429.88700283621</v>
+        <v>1239295.858630318</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.32279754330612742</v>
+        <v>0.48366356620195561</v>
       </c>
       <c r="J3">
-        <v>192165.22553206299</v>
+        <v>203032.96601549</v>
       </c>
       <c r="K3">
-        <v>23385388.585446492</v>
+        <v>19450567.094005361</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>23385388.601208799</v>
+        <v>19450566.913555909</v>
       </c>
       <c r="N3">
-        <v>23.516377481062289</v>
+        <v>15.694853475144191</v>
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="28" t="s">
         <v>60</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>61</v>
       </c>
       <c r="C4">
-        <v>264.30856999999997</v>
+        <v>224.03440000000001</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>875999.99851301778</v>
+        <v>876000.00660653692</v>
       </c>
       <c r="F4">
-        <v>1484745.7601915509</v>
+        <v>1484745.7739093909</v>
       </c>
       <c r="G4">
-        <v>-608745.7616785334</v>
+        <v>-608745.76730285375</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.6412638271094343</v>
+        <v>0.75654241804823175</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>15905993.215540141</v>
+        <v>13482308.373306271</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>15905992.630118061</v>
+        <v>13482308.392364601</v>
       </c>
       <c r="N4">
-        <v>18.157525864290029</v>
+        <v>15.3907628889097</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -5308,25 +5274,25 @@
         <v>62</v>
       </c>
       <c r="C5">
-        <v>106.59423</v>
+        <v>106.79644</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>340852.65727559401</v>
+        <v>251965.37841551629</v>
       </c>
       <c r="F5">
-        <v>340852.65727559401</v>
+        <v>251965.37841551629</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>3.4730801417026669E-4</v>
+        <v>4.4936799713468639E-4</v>
       </c>
       <c r="I5">
-        <v>0.36503027127792009</v>
+        <v>0.26932705857985029</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -5335,13 +5301,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>3.4730801121440891E-4</v>
+        <v>4.4936803442396922E-4</v>
       </c>
       <c r="M5">
-        <v>3.4730788320302958E-4</v>
+        <v>4.4939294457435608E-4</v>
       </c>
       <c r="N5">
-        <v>1.0189330184494681E-9</v>
+        <v>1.783524535145448E-9</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -5350,25 +5316,25 @@
         <v>63</v>
       </c>
       <c r="C6">
-        <v>36.043463000000003</v>
+        <v>35.922134</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>78674.134831037838</v>
+        <v>81861.279452870163</v>
       </c>
       <c r="F6">
-        <v>78674.134831037838</v>
+        <v>81861.279452870163</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>-1.0503717930987481E-5</v>
+        <v>-6.7891608523495961E-5</v>
       </c>
       <c r="I6">
-        <v>0.2491732167905599</v>
+        <v>0.26014308934739733</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -5377,55 +5343,55 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>-1.050409991876222E-5</v>
+        <v>-6.7891758135374403E-5</v>
       </c>
       <c r="M6">
-        <v>-1.0513234883546829E-5</v>
+        <v>-6.7883636802434921E-5</v>
       </c>
       <c r="N6">
-        <v>-1.3343959954775191E-10</v>
+        <v>-8.2923588799075122E-10</v>
       </c>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="31"/>
+      <c r="A7" s="29"/>
       <c r="B7" s="17" t="s">
         <v>64</v>
       </c>
       <c r="C7">
-        <v>106.59423</v>
+        <v>106.79644</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>876000.00624600239</v>
+        <v>875999.97758199403</v>
       </c>
       <c r="F7">
-        <v>911040.00649584248</v>
+        <v>904031.9768646179</v>
       </c>
       <c r="G7">
-        <v>-35040.000249840123</v>
+        <v>-28031.999282623841</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.93813708971877674</v>
+        <v>0.93636077607894019</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>14933954.129742609</v>
+        <v>14962283.94519862</v>
       </c>
       <c r="L7">
-        <v>6534960.0465951506</v>
+        <v>6534959.8327617012</v>
       </c>
       <c r="M7">
-        <v>21468914.556158099</v>
+        <v>21497243.440455891</v>
       </c>
       <c r="N7">
-        <v>24.507893154202812</v>
+        <v>24.54023286598045</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -5463,7 +5429,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>-89035895.78829734</v>
+        <v>-71700211.359002858</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -5474,40 +5440,40 @@
         <v>66</v>
       </c>
       <c r="C9">
-        <v>35.978589999999997</v>
+        <v>8.2590924999999995</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>17013.936610952991</v>
+        <v>4084.6481735551911</v>
       </c>
       <c r="F9">
-        <v>18270.48955099002</v>
+        <v>4386.3171385869873</v>
       </c>
       <c r="G9">
-        <v>-1256.5529400370001</v>
+        <v>-301.66896503179942</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.1119527621816799</v>
+        <v>0.1170837077583249</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>740115.79607226502</v>
+        <v>169897.84259116251</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>740115.79334521503</v>
+        <v>169897.84286981891</v>
       </c>
       <c r="N9">
-        <v>43.500561349732159</v>
+        <v>41.594241572571718</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -5518,82 +5484,82 @@
         <v>62</v>
       </c>
       <c r="C10">
-        <v>3367.4256</v>
+        <v>3652.5333000000001</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>170426.32846414301</v>
+        <v>125982.688983074</v>
       </c>
       <c r="F10">
-        <v>170426.3288114515</v>
+        <v>125982.6894324423</v>
       </c>
       <c r="G10">
-        <v>-3.4730801371551928E-4</v>
+        <v>-4.4936799713468639E-4</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.35713620957174153</v>
+        <v>0.41873955572302213</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>5387595.2712112172</v>
+        <v>5843743.4029786736</v>
       </c>
       <c r="L10">
-        <v>-3.4730801371551928E-4</v>
+        <v>-4.4936799713468639E-4</v>
       </c>
       <c r="M10">
-        <v>5387595.0951646073</v>
+        <v>5843743.4438920887</v>
       </c>
       <c r="N10">
-        <v>31.612457674332578</v>
+        <v>46.385289050920463</v>
       </c>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="26"/>
+      <c r="A11" s="29"/>
       <c r="B11" s="17" t="s">
         <v>63</v>
       </c>
       <c r="C11">
-        <v>21838.554</v>
+        <v>18161.978999999999</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>39337.067420771004</v>
+        <v>40930.639760381113</v>
       </c>
       <c r="F11">
-        <v>39337.067410267453</v>
+        <v>40930.639692489567</v>
       </c>
       <c r="G11">
-        <v>1.0503717930987481E-5</v>
+        <v>6.7891608523495961E-5</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.41873813376036878</v>
+        <v>0.48074739571877839</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2488027.154090113</v>
+        <v>2069161.5811199951</v>
       </c>
       <c r="L11">
-        <v>1.0503717930987481E-5</v>
+        <v>6.7891608523495961E-5</v>
       </c>
       <c r="M11">
-        <v>2488027.0877437391</v>
+        <v>2069161.7494261621</v>
       </c>
       <c r="N11">
-        <v>63.248921459508111</v>
+        <v>50.552880715756501</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -5606,34 +5572,34 @@
     </row>
     <row r="15" spans="1:14">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B15">
-        <v>82500936.724489778</v>
+        <v>875999.97758199403</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B16">
-        <v>6534960.0465951497</v>
+        <v>65165250.936046191</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B17">
-        <v>876000.00624600239</v>
+        <v>6534959.8327617012</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B18">
-        <v>630.16273521087737</v>
+        <v>507.46725815412441</v>
       </c>
     </row>
   </sheetData>
@@ -5642,211 +5608,211 @@
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A2:A3"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H1" s="3" t="s">
+      <c r="G1" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="17" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="17" t="s">
         <v>59</v>
       </c>
       <c r="C2">
-        <v>146.60072</v>
+        <v>254.63283000000001</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>203117.54063999999</v>
+        <v>324205.15140939993</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>203117.54063999999</v>
+        <v>324205.15140939993</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.1581638207506757</v>
+        <v>0.14534543907996911</v>
       </c>
       <c r="J2">
-        <v>40387.419300000001</v>
+        <v>121569.85008513001</v>
       </c>
       <c r="K2">
-        <v>6223211.19417</v>
+        <v>12119705.565592591</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>6223211.3856600001</v>
+        <v>12119705.441790501</v>
       </c>
       <c r="N2">
-        <v>30.638478660176229</v>
+        <v>37.382828092345669</v>
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="26"/>
-      <c r="B3" s="3" t="s">
-        <v>23</v>
+      <c r="A3" s="29"/>
+      <c r="B3" s="17" t="s">
+        <v>16</v>
       </c>
       <c r="C3">
-        <v>508.90347000000003</v>
+        <v>293.72534000000002</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1688447.8927199999</v>
+        <v>1188928.469188601</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1688447.8927199999</v>
+        <v>1188928.469188601</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.37874607143079608</v>
+        <v>0.46207258791347861</v>
       </c>
       <c r="J3">
-        <v>218910.61305000001</v>
+        <v>242597.49915831001</v>
       </c>
       <c r="K3">
-        <v>27916661.25863</v>
+        <v>19531975.221836042</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>27916661.259980001</v>
+        <v>19531975.612870172</v>
       </c>
       <c r="N3">
-        <v>16.533919627255031</v>
+        <v>16.42821760858331</v>
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="17" t="s">
         <v>61</v>
       </c>
       <c r="C4">
-        <v>338.96838000000002</v>
+        <v>236.21874</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1095000.0012099999</v>
+        <v>876000.00268242159</v>
       </c>
       <c r="F4">
-        <v>1855932.2054300001</v>
+        <v>1484745.7672583349</v>
       </c>
       <c r="G4">
-        <v>-760932.20423000003</v>
+        <v>-608745.76457591332</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.62502706004613162</v>
+        <v>0.71751938877810018</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>16655649.12555</v>
+        <v>14215557.504712921</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>16655649.22866</v>
+        <v>14215556.712205449</v>
       </c>
       <c r="N4">
-        <v>15.21063856</v>
+        <v>16.227804416296191</v>
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="27"/>
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="30"/>
+      <c r="B5" s="17" t="s">
         <v>62</v>
       </c>
       <c r="C5">
-        <v>165.02476999999999</v>
+        <v>106.19945</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>398787.85875000001</v>
+        <v>289302.22639092762</v>
       </c>
       <c r="F5">
-        <v>398787.85875000001</v>
+        <v>289302.22639092762</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2.5000000000000001E-4</v>
+        <v>-1.1082713015184711E-3</v>
       </c>
       <c r="I5">
-        <v>0.27585998150459468</v>
+        <v>0.31097494675788317</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -5855,37 +5821,40 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>2.5000000000000001E-4</v>
+        <v>-1.1082713174346279E-3</v>
       </c>
       <c r="M5">
-        <v>2.5000000000000001E-4</v>
+        <v>-1.108274795114994E-3</v>
+      </c>
+      <c r="N5">
+        <v>-3.8308233176965602E-9</v>
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="27"/>
-      <c r="B6" s="3" t="s">
+      <c r="A6" s="30"/>
+      <c r="B6" s="17" t="s">
         <v>63</v>
       </c>
       <c r="C6">
-        <v>87.877459999999999</v>
+        <v>36.280332000000001</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>219099.04689</v>
+        <v>77760.903711309889</v>
       </c>
       <c r="F6">
-        <v>219099.04689</v>
+        <v>77760.903711309889</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>3.6000000000000002E-4</v>
+        <v>1.388094059393552E-4</v>
       </c>
       <c r="I6">
-        <v>0.28461575926295551</v>
+        <v>0.2446729399322661</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -5894,59 +5863,62 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>3.6000000000000002E-4</v>
+        <v>1.3880987927450411E-4</v>
       </c>
       <c r="M6">
-        <v>3.6000000000000002E-4</v>
+        <v>1.3883411884307861E-4</v>
+      </c>
+      <c r="N6">
+        <v>1.7851074362837079E-9</v>
       </c>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="26"/>
-      <c r="B7" s="3" t="s">
+      <c r="A7" s="29"/>
+      <c r="B7" s="17" t="s">
         <v>64</v>
       </c>
       <c r="C7">
-        <v>5.2807899999999997</v>
+        <v>106.19945</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>875999.99939999997</v>
+        <v>876000.01697400049</v>
       </c>
       <c r="F7">
-        <v>1130039.9992200001</v>
+        <v>904032.01751716831</v>
       </c>
       <c r="G7">
-        <v>-254039.99982999999</v>
+        <v>-28032.000543167789</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.75746242512957351</v>
+        <v>0.94162448051917225</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>15258208.429540001</v>
+        <v>14878645.072100939</v>
       </c>
       <c r="L7">
-        <v>6534959.9955099998</v>
+        <v>6534960.1266260128</v>
       </c>
       <c r="M7">
-        <v>21793168.61919</v>
+        <v>21413606.18804371</v>
       </c>
       <c r="N7">
-        <v>24.878046399999999</v>
+        <v>24.444755448765289</v>
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="17" t="s">
         <v>66</v>
       </c>
       <c r="C8">
@@ -5977,177 +5949,177 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>-85041586.743499994</v>
+        <v>-76334040.298001975</v>
       </c>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="17" t="s">
         <v>66</v>
       </c>
       <c r="C9">
-        <v>17.87077</v>
+        <v>12.016088999999999</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>8032.4508999999998</v>
+        <v>4818.3650580019967</v>
       </c>
       <c r="F9">
-        <v>8625.6821999999993</v>
+        <v>5174.2221727710039</v>
       </c>
       <c r="G9">
-        <v>-593.23130000000003</v>
+        <v>-355.85711476900019</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.10640895719658409</v>
+        <v>9.4931579225383783E-2</v>
       </c>
       <c r="J9">
-        <v>157141.18526</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>329600.83805000002</v>
+        <v>247183.040689204</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>329600.84026000003</v>
+        <v>247183.04101878591</v>
       </c>
       <c r="N9">
-        <v>41.033502371994111</v>
+        <v>51.300189596112403</v>
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="17" t="s">
         <v>62</v>
       </c>
       <c r="C10">
-        <v>2265.8643999999999</v>
+        <v>3342.3721</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>199393.92924999999</v>
+        <v>144651.11374959929</v>
       </c>
       <c r="F10">
-        <v>199393.9295</v>
+        <v>144651.11264132831</v>
       </c>
       <c r="G10">
-        <v>-2.5000000000000001E-4</v>
+        <v>1.108271301973218E-3</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.43157598927808738</v>
+        <v>0.36099248855737159</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>11491079.539720001</v>
+        <v>5347511.7967233798</v>
       </c>
       <c r="L10">
-        <v>-2.5000000000000001E-4</v>
+        <v>1.108271301973218E-3</v>
       </c>
       <c r="M10">
-        <v>11491079.507300001</v>
+        <v>5347511.7433085898</v>
       </c>
       <c r="N10">
-        <v>57.630047368712397</v>
+        <v>36.968341305449563</v>
       </c>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="26"/>
-      <c r="B11" s="3" t="s">
+      <c r="A11" s="29"/>
+      <c r="B11" s="17" t="s">
         <v>63</v>
       </c>
       <c r="C11">
-        <v>65606.226999999999</v>
+        <v>30356.861000000001</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>109549.52326</v>
+        <v>38880.451786250087</v>
       </c>
       <c r="F11">
-        <v>109549.52363</v>
+        <v>38880.451925059519</v>
       </c>
       <c r="G11">
-        <v>-3.6000000000000002E-4</v>
+        <v>-1.388094059393552E-4</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.33686179453666798</v>
+        <v>0.46331676434599928</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>632215.90891</v>
+        <v>3458502.5400921288</v>
       </c>
       <c r="L11">
-        <v>-3.6000000000000002E-4</v>
+        <v>-1.388094059393552E-4</v>
       </c>
       <c r="M11">
-        <v>632215.89356</v>
+        <v>3458502.568898946</v>
       </c>
       <c r="N11">
-        <v>5.7710522843674674</v>
+        <v>88.952221746611301</v>
       </c>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="17" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B15">
-        <v>78506626.294570014</v>
+        <v>876000.01697400049</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B16">
-        <v>6534959.9955099998</v>
+        <v>69799080.7417472</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B17">
-        <v>875999.99939999997</v>
+        <v>6534960.1266260138</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B18">
-        <v>601.89250611830096</v>
+        <v>540.26374910214247</v>
       </c>
     </row>
   </sheetData>
@@ -6156,211 +6128,211 @@
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A2:A3"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H1" s="3" t="s">
+      <c r="G1" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="17" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="17" t="s">
         <v>59</v>
       </c>
       <c r="C2">
-        <v>75.575429999999997</v>
+        <v>318.69371999999998</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>103288.84832999999</v>
+        <v>418545.11133016407</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>103288.84832999999</v>
+        <v>418545.11133016407</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.15601578449504019</v>
+        <v>0.14992175653151851</v>
       </c>
       <c r="J2">
-        <v>22242.540150000001</v>
+        <v>139378.60053387599</v>
       </c>
       <c r="K2">
-        <v>3208182.5260000001</v>
+        <v>15168798.35174202</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>3208182.5161799998</v>
+        <v>15168798.23579918</v>
       </c>
       <c r="N2">
-        <v>31.060310610840851</v>
+        <v>36.241728370907829</v>
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="26"/>
-      <c r="B3" s="3" t="s">
-        <v>23</v>
+      <c r="A3" s="29"/>
+      <c r="B3" s="17" t="s">
+        <v>16</v>
       </c>
       <c r="C3">
-        <v>432.96611000000001</v>
+        <v>324.88409999999999</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1788247.02593</v>
+        <v>1094791.6143239399</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1788247.02593</v>
+        <v>1094791.6143239399</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.47148676370998183</v>
+        <v>0.3846793723694556</v>
       </c>
       <c r="J3">
-        <v>176597.7807</v>
+        <v>259462.09152265801</v>
       </c>
       <c r="K3">
-        <v>23751003.75979</v>
+        <v>21603952.151927039</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>23751003.685989998</v>
+        <v>21603951.81317478</v>
       </c>
       <c r="N3">
-        <v>13.28172402571812</v>
+        <v>19.733391752836631</v>
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="17" t="s">
         <v>61</v>
       </c>
       <c r="C4">
-        <v>323.49389000000002</v>
+        <v>249.03976</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1094999.9942699999</v>
+        <v>876000.00544603344</v>
       </c>
       <c r="F4">
-        <v>1855932.1936699999</v>
+        <v>1484745.771942426</v>
       </c>
       <c r="G4">
-        <v>-760932.19940000004</v>
+        <v>-608745.76649639255</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.65492553816085974</v>
+        <v>0.68058018718555646</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>15895290.07425</v>
+        <v>14987121.806000261</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>15895290.184629999</v>
+        <v>14987122.19829556</v>
       </c>
       <c r="N4">
-        <v>14.51624672</v>
+        <v>17.10858687799287</v>
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="27"/>
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="30"/>
+      <c r="B5" s="17" t="s">
         <v>62</v>
       </c>
       <c r="C5">
-        <v>158.35903999999999</v>
+        <v>107.08745</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>381168.40603000001</v>
+        <v>323013.21545790602</v>
       </c>
       <c r="F5">
-        <v>381168.40603000001</v>
+        <v>323013.21545790602</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>6.9999999999999999E-4</v>
+        <v>-1.6842800619087939E-4</v>
       </c>
       <c r="I5">
-        <v>0.2747704204319501</v>
+        <v>0.34433217648414999</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -6369,37 +6341,40 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.9999999999999999E-4</v>
+        <v>-1.6842801824168421E-4</v>
       </c>
       <c r="M5">
-        <v>6.9999999999999999E-4</v>
+        <v>-1.684287562966347E-4</v>
+      </c>
+      <c r="N5">
+        <v>-5.214431263393336E-10</v>
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="27"/>
-      <c r="B6" s="3" t="s">
+      <c r="A6" s="30"/>
+      <c r="B6" s="17" t="s">
         <v>63</v>
       </c>
       <c r="C6">
-        <v>89.824179999999998</v>
+        <v>35.747529</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>196429.29068999999</v>
+        <v>85091.412461791188</v>
       </c>
       <c r="F6">
-        <v>196429.29068999999</v>
+        <v>85091.412461791188</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1.2999999999999999E-4</v>
+        <v>1.4957458768094509E-4</v>
       </c>
       <c r="I6">
-        <v>0.2496370131071611</v>
+        <v>0.27172875528166462</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -6408,59 +6383,62 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>1.2999999999999999E-4</v>
+        <v>1.4957488997424659E-4</v>
       </c>
       <c r="M6">
-        <v>1.2999999999999999E-4</v>
+        <v>1.495704054832458E-4</v>
+      </c>
+      <c r="N6">
+        <v>1.7580345506668889E-9</v>
       </c>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="26"/>
-      <c r="B7" s="3" t="s">
+      <c r="A7" s="29"/>
+      <c r="B7" s="17" t="s">
         <v>64</v>
       </c>
       <c r="C7">
-        <v>5.0674900000000003</v>
+        <v>107.08745</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>876000.00005999999</v>
+        <v>875999.99327099766</v>
       </c>
       <c r="F7">
-        <v>1130040.0000700001</v>
+        <v>904031.99305566982</v>
       </c>
       <c r="G7">
-        <v>-254040.00002000001</v>
+        <v>-28031.999784672189</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.78934541558049443</v>
+        <v>0.9338162336655681</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>14641895.03369</v>
+        <v>15003054.726049479</v>
       </c>
       <c r="L7">
-        <v>6534960.00043</v>
+        <v>6534959.9498016443</v>
       </c>
       <c r="M7">
-        <v>21176854.922809999</v>
+        <v>21538013.696676221</v>
       </c>
       <c r="N7">
-        <v>24.1744919</v>
+        <v>24.586773815205689</v>
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="17" t="s">
         <v>66</v>
       </c>
       <c r="C8">
@@ -6491,177 +6469,177 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>-76511118.563390002</v>
+        <v>-82818804.602502674</v>
       </c>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="17" t="s">
         <v>66</v>
       </c>
       <c r="C9">
-        <v>16.388300000000001</v>
+        <v>18.328185000000001</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>7632.2391500000003</v>
+        <v>7568.5012822229901</v>
       </c>
       <c r="F9">
-        <v>8195.91309</v>
+        <v>8127.4679002040912</v>
       </c>
       <c r="G9">
-        <v>-563.67394000000002</v>
+        <v>-558.96661798110199</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.11025365657206659</v>
+        <v>9.7760760486105713E-2</v>
       </c>
       <c r="J9">
-        <v>144125.15565999999</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>302258.72321999999</v>
+        <v>377029.20630949538</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>302258.72237999999</v>
+        <v>377029.20870504598</v>
       </c>
       <c r="N9">
-        <v>39.602896953836982</v>
+        <v>49.815570434085437</v>
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="17" t="s">
         <v>62</v>
       </c>
       <c r="C10">
-        <v>2287.9717999999998</v>
+        <v>3409.1316999999999</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>190584.20266000001</v>
+        <v>161506.60781316701</v>
       </c>
       <c r="F10">
-        <v>190584.20337</v>
+        <v>161506.6076447384</v>
       </c>
       <c r="G10">
-        <v>-6.9999999999999999E-4</v>
+        <v>1.6842800596350571E-4</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.40866922398256827</v>
+        <v>0.37745218813355341</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>11603194.762429999</v>
+        <v>5454321.4929102687</v>
       </c>
       <c r="L10">
-        <v>-6.9999999999999999E-4</v>
+        <v>1.6842800596350571E-4</v>
       </c>
       <c r="M10">
-        <v>11603194.905230001</v>
+        <v>5454321.6797991572</v>
       </c>
       <c r="N10">
-        <v>60.882242249217349</v>
+        <v>33.771507888449833</v>
       </c>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="26"/>
-      <c r="B11" s="3" t="s">
+      <c r="A11" s="29"/>
+      <c r="B11" s="17" t="s">
         <v>63</v>
       </c>
       <c r="C11">
-        <v>59599.658000000003</v>
+        <v>32385.026000000002</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>98214.645279999997</v>
+        <v>42545.706156108106</v>
       </c>
       <c r="F11">
-        <v>98214.645409999997</v>
+        <v>42545.706305682412</v>
       </c>
       <c r="G11">
-        <v>-1.2999999999999999E-4</v>
+        <v>-1.4957458768094509E-4</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.3360916821032765</v>
+        <v>0.46279174399440981</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>574333.46918000001</v>
+        <v>3689567.7284271801</v>
       </c>
       <c r="L11">
-        <v>-1.2999999999999999E-4</v>
+        <v>-1.4957458768094509E-4</v>
       </c>
       <c r="M11">
-        <v>574333.46631000005</v>
+        <v>3689567.671609519</v>
       </c>
       <c r="N11">
-        <v>5.8477361189897721</v>
+        <v>86.720094809847666</v>
       </c>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="17" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B15">
-        <v>69976158.348560005</v>
+        <v>875999.99327099766</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B16">
-        <v>6534960.00043</v>
+        <v>76283845.463365749</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B17">
-        <v>876000.00005999999</v>
+        <v>6534959.9498016452</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B18">
-        <v>541.51704763840985</v>
+        <v>586.16049943597397</v>
       </c>
     </row>
   </sheetData>
@@ -6670,6 +6648,6 @@
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A2:A3"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/LCOM_PyPSA_results2.xlsx
+++ b/LCOM_PyPSA_results2.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/philip/Documents/GitHub/PyPSA-China-Green-LCOX-Model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5772DB49-4C2F-9543-82F7-9C8D8FABA598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF1A53FB-953B-BA42-A871-781B8304DE71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4840" yWindow="980" windowWidth="28240" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15920" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="LCOM_Overview" sheetId="1" r:id="rId1"/>
-    <sheet name="LiNi_CY_GW" sheetId="2" r:id="rId2"/>
-    <sheet name="JiLi_BC_VE2" sheetId="3" r:id="rId3"/>
-    <sheet name="JiLi_BC_GW" sheetId="4" r:id="rId4"/>
-    <sheet name="JiLi_BC_VE" sheetId="5" r:id="rId5"/>
-    <sheet name="InMo_BT_VE" sheetId="6" r:id="rId6"/>
-    <sheet name="InMo_BT_GW" sheetId="7" r:id="rId7"/>
-    <sheet name="InMo_CF_GW" sheetId="8" r:id="rId8"/>
-    <sheet name="InMo_CF_VE" sheetId="9" r:id="rId9"/>
+    <sheet name="LCOX_Results" sheetId="11" r:id="rId1"/>
+    <sheet name="LCOM_Overview" sheetId="1" r:id="rId2"/>
+    <sheet name="JiLi_BC_GW" sheetId="3" r:id="rId3"/>
+    <sheet name="JiLi_BC_VE" sheetId="4" r:id="rId4"/>
+    <sheet name="InMo_BT_VE" sheetId="5" r:id="rId5"/>
+    <sheet name="InMo_BT_GW" sheetId="6" r:id="rId6"/>
+    <sheet name="InMo_CF_GW" sheetId="7" r:id="rId7"/>
+    <sheet name="InMo_CF_VE" sheetId="8" r:id="rId8"/>
+    <sheet name="LiNi_CY_GW" sheetId="9" r:id="rId9"/>
     <sheet name="LiNi_CY_VE" sheetId="10" r:id="rId10"/>
+    <sheet name="JiLi_BC_VE2" sheetId="2" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="97">
   <si>
     <t>LCOM Results from PyPSA Optimization</t>
   </si>
@@ -258,12 +259,90 @@
   </si>
   <si>
     <t>Dispatch</t>
+  </si>
+  <si>
+    <t>Prefecture</t>
+  </si>
+  <si>
+    <t>LCOA (USD/t)</t>
+  </si>
+  <si>
+    <t>LCOM (USD/t)</t>
+  </si>
+  <si>
+    <t>Methodology</t>
+  </si>
+  <si>
+    <t>all models*</t>
+  </si>
+  <si>
+    <t>PyPSA</t>
+  </si>
+  <si>
+    <t>LCOX-real-projects</t>
+  </si>
+  <si>
+    <t>LCOX-China</t>
+  </si>
+  <si>
+    <t>LCOX-Sichuan (hydro)</t>
+  </si>
+  <si>
+    <t>PTX-BOA Germany (2030)</t>
+  </si>
+  <si>
+    <t>grey prices China ('22-'24)</t>
+  </si>
+  <si>
+    <t>PyPSA*</t>
+  </si>
+  <si>
+    <t>LCOX-real-projects*</t>
+  </si>
+  <si>
+    <t>LCOX-China*</t>
+  </si>
+  <si>
+    <t>biomethanol**</t>
+  </si>
+  <si>
+    <t>bio e-methanol***</t>
+  </si>
+  <si>
+    <t>grey methanol (2022-2024)</t>
+  </si>
+  <si>
+    <t>Changchun</t>
+  </si>
+  <si>
+    <t>Bayannur</t>
+  </si>
+  <si>
+    <t>Sichuan</t>
+  </si>
+  <si>
+    <t>Tongnan</t>
+  </si>
+  <si>
+    <t>Heilongjiang</t>
+  </si>
+  <si>
+    <t>Shuangyashan</t>
+  </si>
+  <si>
+    <t>LCOA Notes: all models assume a PV/wind hybrid as RES (except the AgMe-Sichuan hydropower case and grey ammonia).</t>
+  </si>
+  <si>
+    <t>LCOM Notes: Notes: all models assume a PV/wind hybrid as RES (except grey ammonia) *with CCS from coal-fired power generation; **depending on biomass costs (42-113 USD/t); ***depending on biomass (42-113 USD/t) and LCOH (2.09-2.73 USD/kg) costs.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="0.0"/>
+  </numFmts>
   <fonts count="9">
     <font>
       <sz val="12"/>
@@ -271,11 +350,6 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Aptos Narrow"/>
     </font>
     <font>
       <b/>
@@ -322,6 +396,11 @@
       <sz val="12"/>
       <name val="Aptos Narrow"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Aptos Narrow"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -337,7 +416,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -373,21 +452,6 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -456,6 +520,21 @@
       <right style="thin">
         <color auto="1"/>
       </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -468,21 +547,6 @@
         <color auto="1"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -530,9 +594,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -540,23 +604,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -564,38 +625,43 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Prozent" xfId="1" builtinId="5"/>
@@ -930,1056 +996,591 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF7C1AE4-ACB4-A24F-81A8-94427228AE1F}">
+  <dimension ref="A1:T20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col min="8" max="8" width="19.6640625" customWidth="1"/>
-    <col min="14" max="15" width="17.6640625" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="22" customHeight="1">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25">
+    <row r="1" spans="1:19">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J2" t="s">
+        <v>81</v>
+      </c>
+      <c r="K2" t="s">
+        <v>82</v>
+      </c>
+      <c r="L2" t="s">
+        <v>76</v>
+      </c>
+      <c r="M2" t="s">
+        <v>83</v>
+      </c>
+      <c r="N2" t="s">
+        <v>84</v>
+      </c>
+      <c r="O2" t="s">
+        <v>85</v>
+      </c>
+      <c r="P2" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>87</v>
+      </c>
+      <c r="R2" t="s">
+        <v>81</v>
+      </c>
+      <c r="S2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="R3" s="19"/>
-    </row>
-    <row r="4" spans="1:25">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="R4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
-    </row>
-    <row r="5" spans="1:25">
-      <c r="A5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-    </row>
-    <row r="6" spans="1:25">
+        <v>29</v>
+      </c>
+      <c r="C3">
+        <v>41.640099999999997</v>
+      </c>
+      <c r="D3">
+        <v>109.8633</v>
+      </c>
+      <c r="E3" s="11">
+        <v>580.04324109866684</v>
+      </c>
+      <c r="F3">
+        <v>580.04324109866684</v>
+      </c>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11">
+        <v>512</v>
+      </c>
+      <c r="K3">
+        <v>420</v>
+      </c>
+      <c r="L3" s="11">
+        <v>538.16792646631541</v>
+      </c>
+      <c r="M3" s="11">
+        <v>538.16792646631541</v>
+      </c>
+      <c r="O3" s="11"/>
+      <c r="P3" s="32">
+        <v>353.23706445869948</v>
+      </c>
+      <c r="Q3" s="32">
+        <v>454.12540635609167</v>
+      </c>
+      <c r="R3">
+        <v>684</v>
+      </c>
+      <c r="S3">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4">
+        <v>42.785200000000003</v>
+      </c>
+      <c r="D4">
+        <v>118.7646</v>
+      </c>
+      <c r="E4" s="11">
+        <v>606.52114953335661</v>
+      </c>
+      <c r="F4">
+        <v>606.52114953335661</v>
+      </c>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11">
+        <v>536</v>
+      </c>
+      <c r="K4">
+        <v>570</v>
+      </c>
+      <c r="L4" s="11">
+        <v>563.21212426905822</v>
+      </c>
+      <c r="M4" s="11">
+        <v>563.21212426905822</v>
+      </c>
+      <c r="O4" s="11"/>
+      <c r="P4" s="32">
+        <v>393.36479498120781</v>
+      </c>
+      <c r="Q4" s="32">
+        <v>480.25051851152028</v>
+      </c>
+      <c r="R4">
+        <v>693</v>
+      </c>
+      <c r="S4">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5">
+        <v>41.680700000000002</v>
+      </c>
+      <c r="D5">
+        <v>120.7899</v>
+      </c>
+      <c r="E5" s="11">
+        <v>630.24181558220721</v>
+      </c>
+      <c r="F5">
+        <v>630.24181558220721</v>
+      </c>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11">
+        <v>631</v>
+      </c>
+      <c r="K5">
+        <v>455</v>
+      </c>
+      <c r="L5" s="11">
+        <v>583.83970266656161</v>
+      </c>
+      <c r="M5" s="11">
+        <v>583.83970266656161</v>
+      </c>
+      <c r="O5" s="11"/>
+      <c r="P5" s="32">
+        <v>436.60101167095257</v>
+      </c>
+      <c r="Q5" s="32">
+        <v>506.37563066694878</v>
+      </c>
+      <c r="R5">
+        <v>794</v>
+      </c>
+      <c r="S5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" t="s">
-        <v>30</v>
+        <v>37</v>
+      </c>
+      <c r="C6">
+        <v>45.3733</v>
       </c>
       <c r="D6">
-        <v>41.640099999999997</v>
-      </c>
-      <c r="E6">
-        <v>109.8633</v>
+        <v>122.9395</v>
+      </c>
+      <c r="E6" s="11">
+        <v>650.77108206141395</v>
       </c>
       <c r="F6">
-        <f>SUM(InMo_BT_VE!K$2:K$11)</f>
-        <v>73840665.324020296</v>
-      </c>
-      <c r="G6">
-        <f>SUM(InMo_BT_VE!L$2:L$11)</f>
-        <v>6534959.8284647735</v>
-      </c>
-      <c r="H6" s="12">
-        <f>InMo_BT_VE!$E$7</f>
-        <v>875999.97700600058</v>
-      </c>
-      <c r="I6" s="12">
-        <f>(F6+G6)/(H6/6.2)</f>
-        <v>568.86859477850646</v>
-      </c>
-      <c r="J6" s="12">
-        <f>SUM(InMo_BT_VE!$K$2:$K$3)/($H6/6.2)</f>
-        <v>249.27673404414236</v>
-      </c>
-      <c r="K6" s="12">
-        <f>SUM(InMo_BT_VE!$K$4)/($H6/6.2)</f>
-        <v>104.35893498455268</v>
-      </c>
-      <c r="L6" s="12">
-        <f>SUM(InMo_BT_VE!$K$9)/($H6/6.2)</f>
-        <v>2.6213297781899731</v>
-      </c>
-      <c r="M6" s="12">
-        <f>SUM(InMo_BT_VE!$K$11)/($H6/6.2)</f>
-        <v>15.231179846239021</v>
-      </c>
-      <c r="N6" s="12">
-        <f>SUM(InMo_BT_VE!$K$7)/($H6/6.2)</f>
-        <v>107.11928369895024</v>
-      </c>
-      <c r="O6" s="12">
-        <f>SUM(InMo_BT_VE!$L$7)/($H6/6.2)</f>
-        <v>46.252000000000059</v>
-      </c>
-      <c r="P6" s="12">
-        <f>I6-J6-K6-L6-M6-N6</f>
-        <v>90.261132426432212</v>
-      </c>
-      <c r="Q6" s="4">
-        <f>InMo_BT_VE!$I$2</f>
-        <v>0.17005645509510539</v>
-      </c>
-      <c r="R6" s="4">
-        <f>InMo_BT_VE!$I$3</f>
-        <v>0.38041056287170327</v>
-      </c>
-      <c r="T6">
-        <f>(F6+G6-InMo_BT_VE!K11)/(H6/6.2)</f>
-        <v>553.63741493226746</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25">
+        <v>650.77108206141395</v>
+      </c>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11">
+        <v>647</v>
+      </c>
+      <c r="K6">
+        <v>518</v>
+      </c>
+      <c r="L6" s="11">
+        <v>601.9462694995002</v>
+      </c>
+      <c r="M6" s="11">
+        <v>601.9462694995002</v>
+      </c>
+      <c r="O6" s="11"/>
+      <c r="P6" s="32">
+        <v>479.83722836069751</v>
+      </c>
+      <c r="Q6" s="32">
+        <v>532.50074282237745</v>
+      </c>
+      <c r="R6">
+        <v>800</v>
+      </c>
+      <c r="S6">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" t="s">
         <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7">
-        <v>42.785200000000003</v>
-      </c>
-      <c r="E7">
-        <v>118.7646</v>
-      </c>
-      <c r="F7">
-        <f>SUM(InMo_CF_VE!K$2:K$11)</f>
-        <v>76283845.463365749</v>
-      </c>
-      <c r="G7">
-        <f>SUM(InMo_CF_VE!L$2:L$11)</f>
-        <v>6534959.9498016452</v>
-      </c>
-      <c r="H7" s="12">
-        <f>InMo_CF_VE!$E$7</f>
-        <v>875999.99327099766</v>
-      </c>
-      <c r="I7" s="12">
-        <f>(F7+G7)/(H7/6.2)</f>
-        <v>586.16049943597397</v>
-      </c>
-      <c r="J7" s="12">
-        <f>SUM(InMo_CF_VE!$K$2:$K$3)/($H7/6.2)</f>
-        <v>260.26376127176218</v>
-      </c>
-      <c r="K7" s="12">
-        <f>SUM(InMo_CF_VE!$K$4)/($H7/6.2)</f>
-        <v>106.07323734128846</v>
-      </c>
-      <c r="L7" s="12">
-        <f>SUM(InMo_CF_VE!$K$9)/($H7/6.2)</f>
-        <v>2.6684715720034511</v>
-      </c>
-      <c r="M7" s="12">
-        <f>SUM(InMo_CF_VE!$K$11)/($H7/6.2)</f>
-        <v>26.113379100417248</v>
-      </c>
-      <c r="N7" s="12">
-        <f>SUM(InMo_CF_VE!$K$7)/($H7/6.2)</f>
-        <v>106.18600458451216</v>
-      </c>
-      <c r="O7" s="12">
-        <f>SUM(InMo_CF_VE!$L$7)/($H7/6.2)</f>
-        <v>46.252000000000017</v>
-      </c>
-      <c r="P7" s="12">
-        <f>I7-J7-K7-L7-M7-N7</f>
-        <v>84.855645565990457</v>
-      </c>
-      <c r="Q7" s="4">
-        <f>InMo_CF_VE!$I$2</f>
-        <v>0.14992175653151851</v>
-      </c>
-      <c r="R7" s="4">
-        <f>InMo_CF_VE!$I$3</f>
-        <v>0.3846793723694556</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25">
+        <v>90</v>
+      </c>
+      <c r="E7" s="11">
+        <v>693.12907968171191</v>
+      </c>
+      <c r="G7" s="11">
+        <v>693.12907968171191</v>
+      </c>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11">
+        <v>659</v>
+      </c>
+      <c r="K7">
+        <v>589</v>
+      </c>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="32">
+        <v>523.07344505044227</v>
+      </c>
+      <c r="Q7" s="32">
+        <v>558.62585497780606</v>
+      </c>
+      <c r="R7" s="11">
+        <v>838</v>
+      </c>
+      <c r="S7" s="11">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8">
-        <v>41.680700000000002</v>
-      </c>
-      <c r="E8">
-        <v>120.7899</v>
-      </c>
-      <c r="F8">
-        <f>SUM(LiNi_CY_VE!K$2:K$11)</f>
-        <v>79794447.915316492</v>
-      </c>
-      <c r="G8">
-        <f>SUM(LiNi_CY_VE!L$2:L$11)</f>
-        <v>6534960.1758173043</v>
-      </c>
-      <c r="H8" s="12">
-        <f>LiNi_CY_VE!$E$7</f>
-        <v>876000.02356800274</v>
-      </c>
-      <c r="I8" s="12">
-        <f>(F8+G8)/(H8/6.2)</f>
-        <v>611.00720977718038</v>
-      </c>
-      <c r="J8" s="12">
-        <f>SUM(LiNi_CY_VE!$K$2:$K$3)/($H8/6.2)</f>
-        <v>293.03630474455002</v>
-      </c>
-      <c r="K8" s="12">
-        <f>SUM(LiNi_CY_VE!$K$4)/($H8/6.2)</f>
-        <v>109.02079377198814</v>
-      </c>
-      <c r="L8" s="12">
-        <f>SUM(LiNi_CY_VE!$K$9)/($H8/6.2)</f>
-        <v>2.4175318457499215</v>
-      </c>
-      <c r="M8" s="12">
-        <f>SUM(LiNi_CY_VE!$K$11)/($H8/6.2)</f>
-        <v>22.406486950246141</v>
-      </c>
-      <c r="N8" s="12">
-        <f>SUM(LiNi_CY_VE!$K$7)/($H8/6.2)</f>
-        <v>106.23990331615587</v>
-      </c>
-      <c r="O8" s="12">
-        <f>SUM(LiNi_CY_VE!$L$7)/($H8/6.2)</f>
-        <v>46.252000000000038</v>
-      </c>
-      <c r="P8" s="12">
-        <f>I8-J8-K8-L8-M8-N8</f>
-        <v>77.886189148490274</v>
-      </c>
-      <c r="Q8" s="4">
-        <f>LiNi_CY_VE!$I$2</f>
-        <v>0.13811829456604849</v>
-      </c>
-      <c r="R8" s="4">
-        <f>LiNi_CY_VE!$I$3</f>
-        <v>0.3377692171203372</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25">
+        <v>37</v>
+      </c>
+      <c r="E8" s="11">
+        <v>610.45899674050804</v>
+      </c>
+      <c r="G8" s="11">
+        <v>610.45899674050804</v>
+      </c>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11">
+        <v>666</v>
+      </c>
+      <c r="K8" s="11">
+        <v>415</v>
+      </c>
+      <c r="L8">
+        <v>647</v>
+      </c>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11">
+        <v>647</v>
+      </c>
+      <c r="P8" s="32">
+        <v>566.30966174018704</v>
+      </c>
+      <c r="Q8" s="32">
+        <v>584.75096713323455</v>
+      </c>
+      <c r="R8" s="11">
+        <v>842</v>
+      </c>
+      <c r="S8" s="11">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E9" s="11">
+        <v>335.48017627422809</v>
+      </c>
+      <c r="G9" s="11"/>
+      <c r="I9" s="11">
+        <v>335.48017627422809</v>
+      </c>
+      <c r="J9" s="11">
+        <v>671</v>
+      </c>
+      <c r="K9" s="11">
+        <v>430</v>
+      </c>
+      <c r="L9">
+        <v>697</v>
+      </c>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9">
+        <v>697</v>
+      </c>
+      <c r="P9" s="32"/>
+      <c r="Q9" s="32">
+        <v>458.37650413733672</v>
+      </c>
+      <c r="R9" s="11">
+        <v>855</v>
+      </c>
+      <c r="S9" s="11">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="11">
+        <v>523</v>
+      </c>
+      <c r="H10">
+        <v>523</v>
+      </c>
+      <c r="J10" s="11">
+        <v>713</v>
+      </c>
+      <c r="K10">
+        <v>350</v>
+      </c>
+      <c r="L10">
+        <v>795</v>
+      </c>
+      <c r="O10" s="11">
+        <v>795</v>
+      </c>
+      <c r="P10" s="32"/>
+      <c r="Q10" s="32">
+        <v>484.7461751850102</v>
+      </c>
+      <c r="R10">
+        <v>875</v>
+      </c>
+      <c r="S10">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>90</v>
+      </c>
+      <c r="E11" s="11">
+        <v>564</v>
+      </c>
+      <c r="G11" s="11"/>
+      <c r="H11">
+        <v>564</v>
+      </c>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11">
+        <v>717</v>
+      </c>
+      <c r="K11" s="11">
+        <v>407</v>
+      </c>
+      <c r="L11">
+        <v>748</v>
+      </c>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11">
+        <v>748</v>
+      </c>
+      <c r="O11" s="11"/>
+      <c r="P11" s="32"/>
+      <c r="Q11" s="32">
+        <v>511.11584623268368</v>
+      </c>
+      <c r="R11" s="11">
+        <v>914</v>
+      </c>
+      <c r="S11" s="11"/>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" t="s">
         <v>36</v>
       </c>
-      <c r="B9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9">
-        <v>45.3733</v>
-      </c>
-      <c r="E9">
-        <v>122.9395</v>
-      </c>
-      <c r="F9">
-        <f>SUM(JiLi_BC_VE!K$2:K$11)</f>
-        <v>82247272.395407274</v>
-      </c>
-      <c r="G9">
-        <f>SUM(JiLi_BC_VE!L$2:L$11)</f>
-        <v>6534959.8126644921</v>
-      </c>
-      <c r="H9" s="12">
-        <f>JiLi_BC_VE!$E$7</f>
-        <v>875999.97488799482</v>
-      </c>
-      <c r="I9" s="12">
-        <f>(F9+G9)/(H9/6.2)</f>
-        <v>628.36741491964699</v>
-      </c>
-      <c r="J9" s="12">
-        <f>SUM(JiLi_BC_VE!$K$2:$K$3)/($H9/6.2)</f>
-        <v>303.47261507219599</v>
-      </c>
-      <c r="K9" s="12">
-        <f>SUM(JiLi_BC_VE!$K$4)/($H9/6.2)</f>
-        <v>112.36765569147484</v>
-      </c>
-      <c r="L9" s="12">
-        <f>SUM(JiLi_BC_VE!$K$9)/($H9/6.2)</f>
-        <v>5.2046336498030419</v>
-      </c>
-      <c r="M9" s="12">
-        <f>SUM(JiLi_BC_VE!$K$11)/($H9/6.2)</f>
-        <v>17.556208999700665</v>
-      </c>
-      <c r="N9" s="12">
-        <f>SUM(JiLi_BC_VE!$K$7)/($H9/6.2)</f>
-        <v>105.6755303922416</v>
-      </c>
-      <c r="O9" s="12">
-        <f>SUM(JiLi_BC_VE!$L$7)/($H9/6.2)</f>
-        <v>46.252000000000365</v>
-      </c>
-      <c r="P9" s="12">
-        <f>I9-J9-K9-L9-M9-N9</f>
-        <v>84.090771114230847</v>
-      </c>
-      <c r="Q9" s="4">
-        <f>JiLi_BC_VE!$I$2</f>
-        <v>0.14516916307010169</v>
-      </c>
-      <c r="R9" s="4">
-        <f>JiLi_BC_VE!$I$3</f>
-        <v>0.32290397227876089</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25">
-      <c r="A10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10">
-        <v>45.3733</v>
-      </c>
-      <c r="E10">
-        <v>122.9395</v>
-      </c>
-      <c r="F10">
-        <f>SUM(JiLi_BC_VE2!K$2:K$11)</f>
-        <v>93310091.664589986</v>
-      </c>
-      <c r="G10">
-        <f>SUM(JiLi_BC_VE2!L$2:L$11)</f>
-        <v>6534960.0097000012</v>
-      </c>
-      <c r="H10" s="12">
-        <f>JiLi_BC_VE2!$E$7</f>
-        <v>876000.0013</v>
-      </c>
-      <c r="I10" s="12">
-        <f>(F10+G10)/(H10/6.2)</f>
-        <v>706.66588979672645</v>
-      </c>
-      <c r="J10" s="12">
-        <f>SUM(JiLi_BC_VE2!$K$2:$K$3)/($H10/6.2)</f>
-        <v>335.05142224420229</v>
-      </c>
-      <c r="K10" s="12">
-        <f>SUM(JiLi_BC_VE2!$K$4)/($H10/6.2)</f>
-        <v>113.62007135084238</v>
-      </c>
-      <c r="L10" s="12">
-        <f>SUM(JiLi_BC_VE2!$K$9)/($H10/6.2)</f>
-        <v>21.225023195682045</v>
-      </c>
-      <c r="M10" s="12">
-        <f>SUM(JiLi_BC_VE2!$K$11)/($H10/6.2)</f>
-        <v>1.3789039557162386</v>
-      </c>
-      <c r="N10" s="12">
-        <f>SUM(JiLi_BC_VE2!$K$7)/($H10/6.2)</f>
-        <v>87.111234171892022</v>
-      </c>
-      <c r="O10" s="12">
-        <f>SUM(JiLi_BC_VE2!$L$7)/($H10/6.2)</f>
-        <v>46.252000000014164</v>
-      </c>
-      <c r="P10" s="12">
-        <f>I10-J10-K10-L10-M10-N10</f>
-        <v>148.27923487839146</v>
-      </c>
-      <c r="Q10" s="4">
-        <f>JiLi_BC_VE2!$I$2</f>
-        <v>0.14300049982524601</v>
-      </c>
-      <c r="R10" s="4">
-        <f>JiLi_BC_VE2!$I$3</f>
-        <v>0.32697700957122983</v>
-      </c>
-      <c r="S10" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25">
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-    </row>
-    <row r="12" spans="1:25">
-      <c r="A12" t="s">
-        <v>41</v>
-      </c>
       <c r="B12" t="s">
-        <v>42</v>
-      </c>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="R12" s="19"/>
-    </row>
-    <row r="13" spans="1:25">
-      <c r="A13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I13" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="J13" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="21"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="22"/>
-      <c r="Q13" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="R13" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
-      <c r="X13" s="1"/>
-      <c r="Y13" s="1"/>
-    </row>
-    <row r="14" spans="1:25">
-      <c r="A14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="I14" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="J14" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="K14" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="L14" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="M14" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="N14" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="O14" s="15"/>
-      <c r="P14" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
-      <c r="U14" s="2"/>
-      <c r="V14" s="2"/>
-      <c r="W14" s="2"/>
-      <c r="X14" s="2"/>
-      <c r="Y14" s="2"/>
-    </row>
-    <row r="15" spans="1:25">
-      <c r="A15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15">
-        <v>41.640099999999997</v>
-      </c>
-      <c r="E15">
-        <v>109.8633</v>
-      </c>
-      <c r="F15">
-        <f>SUM(InMo_BT_GW!K$2:K$11)</f>
-        <v>65165250.936046183</v>
-      </c>
-      <c r="G15">
-        <f>SUM(InMo_BT_GW!L$2:L$11)</f>
-        <v>6534959.8327617012</v>
-      </c>
-      <c r="H15" s="12">
-        <f>InMo_BT_GW!$E$7</f>
-        <v>875999.97758199403</v>
-      </c>
-      <c r="I15" s="12">
-        <f>(F15+G15)/(H15/6.2)</f>
-        <v>507.46725815412441</v>
-      </c>
-      <c r="J15" s="12">
-        <f>SUM(InMo_BT_GW!$K$2:$K$3)/($H15/6.2)</f>
-        <v>202.68802562458961</v>
-      </c>
-      <c r="K15" s="12">
-        <f>SUM(InMo_BT_GW!$K$4)/($H15/6.2)</f>
-        <v>95.422732937998049</v>
-      </c>
-      <c r="L15" s="12">
-        <f>SUM(InMo_BT_GW!$K$9)/($H15/6.2)</f>
-        <v>1.2024733459158246</v>
-      </c>
-      <c r="M15" s="12">
-        <f>SUM(InMo_BT_GW!$K$11)/($H15/6.2)</f>
-        <v>14.644751291381384</v>
-      </c>
-      <c r="N15" s="12">
-        <f>SUM(InMo_BT_GW!$K$7)/($H15/6.2)</f>
-        <v>105.8974461578094</v>
-      </c>
-      <c r="O15" s="12">
-        <f>SUM(InMo_BT_GW!$L$7)/($H15/6.2)</f>
-        <v>46.252000000000187</v>
-      </c>
-      <c r="P15" s="12">
-        <f>I15-J15-K15-L15-M15-N15</f>
-        <v>87.611828796430146</v>
-      </c>
-      <c r="Q15" s="4">
-        <f>InMo_BT_GW!$I$2</f>
-        <v>0.16191742337071671</v>
-      </c>
-      <c r="R15" s="4">
-        <f>InMo_BT_GW!$I$3</f>
-        <v>0.48366356620195561</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25">
-      <c r="A16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16">
-        <v>42.785200000000003</v>
-      </c>
-      <c r="E16">
-        <v>118.7646</v>
-      </c>
-      <c r="F16">
-        <f>SUM(InMo_CF_GW!K$2:K$11)</f>
-        <v>69799080.741747215</v>
-      </c>
-      <c r="G16">
-        <f>SUM(InMo_CF_GW!L$2:L$11)</f>
-        <v>6534960.1266260138</v>
-      </c>
-      <c r="H16" s="12">
-        <f>InMo_CF_GW!$E$7</f>
-        <v>876000.01697400049</v>
-      </c>
-      <c r="I16" s="12">
-        <f>(F16+G16)/(H16/6.2)</f>
-        <v>540.26374910214247</v>
-      </c>
-      <c r="J16" s="12">
-        <f>SUM(InMo_CF_GW!$K$2:$K$3)/($H16/6.2)</f>
-        <v>224.01874095840557</v>
-      </c>
-      <c r="K16" s="12">
-        <f>SUM(InMo_CF_GW!$K$4)/($H16/6.2)</f>
-        <v>100.61239134865905</v>
-      </c>
-      <c r="L16" s="12">
-        <f>SUM(InMo_CF_GW!$K$9)/($H16/6.2)</f>
-        <v>1.7494689755451798</v>
-      </c>
-      <c r="M16" s="12">
-        <f>SUM(InMo_CF_GW!$K$11)/($H16/6.2)</f>
-        <v>24.477985540047783</v>
-      </c>
-      <c r="N16" s="12">
-        <f>SUM(InMo_CF_GW!$K$7)/($H16/6.2)</f>
-        <v>105.30547678033174</v>
-      </c>
-      <c r="O16" s="12">
-        <f>SUM(InMo_CF_GW!$L$7)/($H16/6.2)</f>
-        <v>46.251999999999782</v>
-      </c>
-      <c r="P16" s="12">
-        <f>I16-J16-K16-L16-M16-N16</f>
-        <v>84.099685499153097</v>
-      </c>
-      <c r="Q16" s="4">
-        <f>InMo_CF_GW!$I$2</f>
-        <v>0.14534543907996911</v>
-      </c>
-      <c r="R16" s="4">
-        <f>InMo_CF_GW!$I$3</f>
-        <v>0.46207258791347861</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
-      <c r="A17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17">
-        <v>41.680700000000002</v>
-      </c>
-      <c r="E17">
-        <v>120.7899</v>
-      </c>
-      <c r="F17">
-        <f>SUM(LiNi_CY_GW!K$2:K$11)</f>
-        <v>69976158.348560005</v>
-      </c>
-      <c r="G17">
-        <f>SUM(LiNi_CY_GW!L$2:L$11)</f>
-        <v>6534960.0004300009</v>
-      </c>
-      <c r="H17" s="12">
-        <f>LiNi_CY_GW!$E$7</f>
-        <v>876000.00005999999</v>
-      </c>
-      <c r="I17" s="12">
-        <f>(F17+G17)/(H17/6.2)</f>
-        <v>541.51704763840985</v>
-      </c>
-      <c r="J17" s="12">
-        <f>SUM(LiNi_CY_GW!$K$2:$K$3)/($H17/6.2)</f>
-        <v>190.80702621055889</v>
-      </c>
-      <c r="K17" s="12">
-        <f>SUM(LiNi_CY_GW!$K$4)/($H17/6.2)</f>
-        <v>112.50091147671226</v>
-      </c>
-      <c r="L17" s="12">
-        <f>SUM(LiNi_CY_GW!$K$9)/($H17/6.2)</f>
-        <v>2.1392740683055291</v>
-      </c>
-      <c r="M17" s="12">
-        <f>SUM(LiNi_CY_GW!$K$11)/($H17/6.2)</f>
-        <v>4.0649172473425859</v>
-      </c>
-      <c r="N17" s="12">
-        <f>SUM(LiNi_CY_GW!$K$7)/($H17/6.2)</f>
-        <v>103.62985068796827</v>
-      </c>
-      <c r="O17" s="12">
-        <f>SUM(LiNi_CY_GW!$L$7)/($H17/6.2)</f>
-        <v>46.25199999987543</v>
-      </c>
-      <c r="P17" s="12">
-        <f>I17-J17-K17-L17-M17-N17</f>
-        <v>128.37506794752233</v>
-      </c>
-      <c r="Q17" s="4">
-        <f>LiNi_CY_GW!$I$2</f>
-        <v>0.15601578449504019</v>
-      </c>
-      <c r="R17" s="4">
-        <f>LiNi_CY_GW!$I$3</f>
-        <v>0.47148676370998183</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>92</v>
+      </c>
+      <c r="E12" s="11">
+        <v>644</v>
+      </c>
+      <c r="H12" s="11">
+        <v>644</v>
+      </c>
+      <c r="J12" s="11">
+        <v>744</v>
+      </c>
+      <c r="K12" s="11">
+        <v>335</v>
+      </c>
+      <c r="L12">
+        <v>645</v>
+      </c>
+      <c r="N12">
+        <v>645</v>
+      </c>
+      <c r="P12" s="32"/>
+      <c r="Q12" s="32">
+        <v>537.48551728035716</v>
+      </c>
+      <c r="R12">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13" t="s">
+        <v>94</v>
+      </c>
+      <c r="J13" s="11">
+        <v>749</v>
+      </c>
+      <c r="K13" s="11">
+        <v>518</v>
+      </c>
+      <c r="L13">
+        <v>715</v>
+      </c>
+      <c r="N13">
+        <v>715</v>
+      </c>
+      <c r="P13" s="32"/>
+      <c r="Q13" s="32">
+        <v>563.85518832803075</v>
+      </c>
+      <c r="R13">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="J14" s="11">
+        <v>765</v>
+      </c>
+      <c r="P14" s="32"/>
+      <c r="Q14" s="32">
+        <v>590.22485937570423</v>
+      </c>
+      <c r="R14">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="J15" s="11">
+        <v>781</v>
+      </c>
+      <c r="P15" s="32"/>
+      <c r="Q15" s="32">
+        <v>486.77632877601388</v>
+      </c>
+      <c r="R15">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="J16" s="11">
+        <v>803</v>
+      </c>
+      <c r="P16" s="32"/>
+      <c r="Q16" s="32">
+        <v>514.77979655361139</v>
+      </c>
+      <c r="R16">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="J17" s="11">
+        <v>809</v>
+      </c>
+      <c r="P17" s="32"/>
+      <c r="Q17" s="32">
+        <v>542.78326433120878</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18">
-        <v>45.3733</v>
-      </c>
-      <c r="E18">
-        <v>122.9395</v>
-      </c>
-      <c r="F18">
-        <f>SUM(JiLi_BC_GW!K$2:K$11)</f>
-        <v>74781168.013610318</v>
-      </c>
-      <c r="G18">
-        <f>SUM(JiLi_BC_GW!L$2:L$11)</f>
-        <v>6534959.7884493014</v>
-      </c>
-      <c r="H18" s="12">
-        <f>JiLi_BC_GW!$E$7</f>
-        <v>875999.97164199571</v>
-      </c>
-      <c r="I18" s="12">
-        <f>(F18+G18)/(H18/6.2)</f>
-        <v>575.52512407935342</v>
-      </c>
-      <c r="J18" s="12">
-        <f>SUM(JiLi_BC_GW!$K$2:$K$3)/($H18/6.2)</f>
-        <v>261.65400640193968</v>
-      </c>
-      <c r="K18" s="12">
-        <f>SUM(JiLi_BC_GW!$K$4)/($H18/6.2)</f>
-        <v>103.81487955665865</v>
-      </c>
-      <c r="L18" s="12">
-        <f>SUM(JiLi_BC_GW!$K$9)/($H18/6.2)</f>
-        <v>1.9193151055250872</v>
-      </c>
-      <c r="M18" s="12">
-        <f>SUM(JiLi_BC_GW!$K$11)/($H18/6.2)</f>
-        <v>15.952438407988847</v>
-      </c>
-      <c r="N18" s="12">
-        <f>SUM(JiLi_BC_GW!$K$7)/($H18/6.2)</f>
-        <v>104.26910036605193</v>
-      </c>
-      <c r="O18" s="12">
-        <f>SUM(JiLi_BC_GW!$L$7)/($H18/6.2)</f>
-        <v>46.252000000000088</v>
-      </c>
-      <c r="P18" s="12">
-        <f>I18-J18-K18-L18-M18-N18</f>
-        <v>87.91538424118923</v>
-      </c>
-      <c r="Q18" s="4">
-        <f>JiLi_BC_GW!$I$2</f>
-        <v>0.1449060176507215</v>
-      </c>
-      <c r="R18" s="4">
-        <f>JiLi_BC_GW!$I$3</f>
-        <v>0.38840421014675708</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
-      <c r="A21" s="10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
-      <c r="A23" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
-      <c r="A24" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
-      <c r="A25" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D25">
-        <v>41.640099999999997</v>
-      </c>
-      <c r="E25">
-        <v>109.8633</v>
-      </c>
-      <c r="F25" s="16">
-        <f>AVERAGE(I6,I15)</f>
-        <v>538.16792646631541</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18">
-      <c r="A26" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D26">
-        <v>42.785200000000003</v>
-      </c>
-      <c r="E26">
-        <v>118.7646</v>
-      </c>
-      <c r="F26" s="16">
-        <f>AVERAGE(I7,I16)</f>
-        <v>563.21212426905822</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18">
-      <c r="A27" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" t="s">
-        <v>34</v>
-      </c>
-      <c r="C27" t="s">
-        <v>35</v>
-      </c>
-      <c r="D27">
-        <v>41.680700000000002</v>
-      </c>
-      <c r="E27">
-        <v>120.7899</v>
-      </c>
-      <c r="F27" s="16">
-        <f>AVERAGE(I8,I17)</f>
-        <v>576.26212870779511</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18">
-      <c r="A28" t="s">
-        <v>36</v>
-      </c>
-      <c r="B28" t="s">
-        <v>37</v>
-      </c>
-      <c r="C28" t="s">
-        <v>38</v>
-      </c>
-      <c r="D28">
-        <v>45.3733</v>
-      </c>
-      <c r="E28">
-        <v>122.9395</v>
-      </c>
-      <c r="F28" s="16">
-        <f>AVERAGE(I9,I18)</f>
-        <v>601.9462694995002</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18">
-      <c r="A29" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="16">
-        <f>AVERAGE(F25:F28)</f>
-        <v>569.89711223566724</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="P18" s="32"/>
+      <c r="Q18" s="32">
+        <v>570.78673210880606</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>96</v>
+      </c>
+      <c r="P19" s="32"/>
+      <c r="Q19" s="32">
+        <v>598.79019988640357</v>
+      </c>
+      <c r="T19" s="31"/>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="P20" s="32"/>
+      <c r="Q20" s="32">
+        <v>626.79366766400096</v>
+      </c>
+      <c r="T20" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="J3:P3"/>
-    <mergeCell ref="J4:P4"/>
-    <mergeCell ref="J12:P12"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2504,49 +2105,49 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="5" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2554,157 +2155,157 @@
       <c r="A2" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>59</v>
       </c>
       <c r="C2">
-        <v>75.575429999999997</v>
+        <v>597.66889000000003</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>103288.84832999999</v>
+        <v>748690.46573000005</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>103288.84832999999</v>
+        <v>748690.46573000005</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.15601578449504019</v>
+        <v>0.14300049982524601</v>
       </c>
       <c r="J2">
-        <v>22242.540150000001</v>
+        <v>238667.92725000001</v>
       </c>
       <c r="K2">
-        <v>3208182.5260000001</v>
+        <v>25371087.71807</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>3208182.5161799998</v>
+        <v>25371087.837809999</v>
       </c>
       <c r="N2">
-        <v>31.060310610840851</v>
+        <v>33.88728508505335</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="25"/>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C3">
-        <v>432.96611000000001</v>
+        <v>400.471</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1788247.02593</v>
+        <v>1147076.54856</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1788247.02593</v>
+        <v>1147076.54856</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.47148676370998183</v>
+        <v>0.32697700957122983</v>
       </c>
       <c r="J3">
-        <v>176597.7807</v>
+        <v>204167.47313</v>
       </c>
       <c r="K3">
-        <v>23751003.75979</v>
+        <v>21968435.882169999</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>23751003.685989998</v>
+        <v>21968435.666839998</v>
       </c>
       <c r="N3">
-        <v>13.28172402571812</v>
+        <v>19.151673823498619</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="5" t="s">
         <v>61</v>
       </c>
       <c r="C4">
-        <v>323.49389000000002</v>
+        <v>326.71201000000002</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1094999.9942699999</v>
+        <v>1095000.0019</v>
       </c>
       <c r="F4">
-        <v>1855932.1936699999</v>
+        <v>1855932.20661</v>
       </c>
       <c r="G4">
-        <v>-760932.19940000004</v>
+        <v>-760932.20470999996</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.65492553816085974</v>
+        <v>0.64847450817617625</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>15895290.07425</v>
+        <v>16053416.55662</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>15895290.184629999</v>
+        <v>16053416.98325</v>
       </c>
       <c r="N4">
-        <v>14.51624672</v>
+        <v>14.6606548</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="26"/>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="5" t="s">
         <v>62</v>
       </c>
       <c r="C5">
-        <v>158.35903999999999</v>
+        <v>133.11658</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>381168.40603000001</v>
+        <v>411866.58081999997</v>
       </c>
       <c r="F5">
-        <v>381168.40603000001</v>
+        <v>411866.58081999997</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>6.9999999999999999E-4</v>
+        <v>-2.5999999999999998E-4</v>
       </c>
       <c r="I5">
-        <v>0.2747704204319501</v>
+        <v>0.35319965401755371</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -2713,37 +2314,37 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.9999999999999999E-4</v>
+        <v>-2.5999999999999998E-4</v>
       </c>
       <c r="M5">
-        <v>6.9999999999999999E-4</v>
+        <v>-2.5999999999999998E-4</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="26"/>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C6">
-        <v>89.824179999999998</v>
+        <v>36.104039999999998</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>196429.29068999999</v>
+        <v>78958.506309999997</v>
       </c>
       <c r="F6">
-        <v>196429.29068999999</v>
+        <v>78958.506309999997</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1.2999999999999999E-4</v>
+        <v>-4.2000000000000002E-4</v>
       </c>
       <c r="I6">
-        <v>0.2496370131071611</v>
+        <v>0.2496543323129489</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -2752,59 +2353,59 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>1.2999999999999999E-4</v>
+        <v>-4.2000000000000002E-4</v>
       </c>
       <c r="M6">
-        <v>1.2999999999999999E-4</v>
+        <v>-4.2000000000000002E-4</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="25"/>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="5" t="s">
         <v>64</v>
       </c>
       <c r="C7">
-        <v>5.0674900000000003</v>
+        <v>4.2597300000000002</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>876000.00005999999</v>
+        <v>876000.0013</v>
       </c>
       <c r="F7">
-        <v>1130040.0000700001</v>
+        <v>1130040.00168</v>
       </c>
       <c r="G7">
-        <v>-254040.00002000001</v>
+        <v>-254040.00038000001</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.78934541558049443</v>
+        <v>0.93902665192394819</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>14641895.03369</v>
+        <v>12307974.39481</v>
       </c>
       <c r="L7">
-        <v>6534960.00043</v>
+        <v>6534960.0097000003</v>
       </c>
       <c r="M7">
-        <v>21176854.922809999</v>
+        <v>18842934.721519999</v>
       </c>
       <c r="N7">
-        <v>24.1744919</v>
+        <v>21.510199499999999</v>
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="5" t="s">
         <v>66</v>
       </c>
       <c r="C8">
@@ -2835,144 +2436,144 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>-76511118.563390002</v>
+        <v>-99845052.147799999</v>
       </c>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="5" t="s">
         <v>66</v>
       </c>
       <c r="C9">
-        <v>16.388300000000001</v>
+        <v>162.59814</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>7632.2391500000003</v>
+        <v>64922.530980000003</v>
       </c>
       <c r="F9">
-        <v>8195.91309</v>
+        <v>69717.341369999995</v>
       </c>
       <c r="G9">
-        <v>-563.67394000000002</v>
+        <v>-4794.8103899999996</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.11025365657206659</v>
+        <v>9.4526604055864355E-2</v>
       </c>
       <c r="J9">
-        <v>144125.15565999999</v>
+        <v>1429154.51679</v>
       </c>
       <c r="K9">
-        <v>302258.72321999999</v>
+        <v>2998890.37855</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>302258.72237999999</v>
+        <v>2998890.24272</v>
       </c>
       <c r="N9">
-        <v>39.602896953836982</v>
+        <v>46.191812447292968</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="5" t="s">
         <v>62</v>
       </c>
       <c r="C10">
-        <v>2287.9717999999998</v>
+        <v>2842.5075000000002</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>190584.20266000001</v>
+        <v>205933.29053999999</v>
       </c>
       <c r="F10">
-        <v>190584.20337</v>
+        <v>205933.29027999999</v>
       </c>
       <c r="G10">
-        <v>-6.9999999999999999E-4</v>
+        <v>2.5999999999999998E-4</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.40866922398256827</v>
+        <v>0.36109558901779498</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>11603194.762429999</v>
+        <v>14415460.949370001</v>
       </c>
       <c r="L10">
-        <v>-6.9999999999999999E-4</v>
+        <v>2.5999999999999998E-4</v>
       </c>
       <c r="M10">
-        <v>11603194.905230001</v>
+        <v>14415461.39127</v>
       </c>
       <c r="N10">
-        <v>60.882242249217349</v>
+        <v>70.000626159959197</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="25"/>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C11">
-        <v>59599.658000000003</v>
+        <v>20217.436000000002</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>98214.645279999997</v>
+        <v>39479.253360000002</v>
       </c>
       <c r="F11">
-        <v>98214.645409999997</v>
+        <v>39479.252939999998</v>
       </c>
       <c r="G11">
-        <v>-1.2999999999999999E-4</v>
+        <v>4.2000000000000002E-4</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.3360916821032765</v>
+        <v>0.43633853175051468</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>574333.46918000001</v>
+        <v>194825.785</v>
       </c>
       <c r="L11">
-        <v>-1.2999999999999999E-4</v>
+        <v>4.2000000000000002E-4</v>
       </c>
       <c r="M11">
-        <v>574333.46631000005</v>
+        <v>194825.81617999999</v>
       </c>
       <c r="N11">
-        <v>5.8477361189897721</v>
+        <v>4.9348955790856408</v>
       </c>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="5" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2981,7 +2582,7 @@
         <v>10</v>
       </c>
       <c r="B15">
-        <v>69976158.348560005</v>
+        <v>93310091.664590001</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -2989,7 +2590,7 @@
         <v>11</v>
       </c>
       <c r="B16">
-        <v>6534960.00043</v>
+        <v>6534960.0097000003</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -2997,7 +2598,7 @@
         <v>12</v>
       </c>
       <c r="B17">
-        <v>876000.00005999999</v>
+        <v>876000.0013</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3005,7 +2606,7 @@
         <v>13</v>
       </c>
       <c r="B18">
-        <v>541.51704763840985</v>
+        <v>706.66588979672645</v>
       </c>
     </row>
   </sheetData>
@@ -3013,6 +2614,1061 @@
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Y29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F25" sqref="F25:F28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="8" max="8" width="19.6640625" customWidth="1"/>
+    <col min="14" max="15" width="17.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" ht="22" customHeight="1">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="R3" s="19"/>
+    </row>
+    <row r="4" spans="1:25">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+    </row>
+    <row r="5" spans="1:25">
+      <c r="A5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+    </row>
+    <row r="6" spans="1:25">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6">
+        <v>41.640099999999997</v>
+      </c>
+      <c r="E6">
+        <v>109.8633</v>
+      </c>
+      <c r="F6">
+        <f>SUM(InMo_BT_VE!K$2:K$11)</f>
+        <v>73840665.324020296</v>
+      </c>
+      <c r="G6">
+        <f>SUM(InMo_BT_VE!L$2:L$11)</f>
+        <v>6534959.8284647735</v>
+      </c>
+      <c r="H6" s="11">
+        <f>InMo_BT_VE!$E$7</f>
+        <v>875999.97700600058</v>
+      </c>
+      <c r="I6" s="11">
+        <f>(F6+G6)/(H6/6.2)</f>
+        <v>568.86859477850646</v>
+      </c>
+      <c r="J6" s="11">
+        <f>SUM(InMo_BT_VE!$K$2:$K$3)/($H6/6.2)</f>
+        <v>249.27673404414236</v>
+      </c>
+      <c r="K6" s="11">
+        <f>SUM(InMo_BT_VE!$K$4)/($H6/6.2)</f>
+        <v>104.35893498455268</v>
+      </c>
+      <c r="L6" s="11">
+        <f>SUM(InMo_BT_VE!$K$9)/($H6/6.2)</f>
+        <v>2.6213297781899731</v>
+      </c>
+      <c r="M6" s="11">
+        <f>SUM(InMo_BT_VE!$K$11)/($H6/6.2)</f>
+        <v>15.231179846239021</v>
+      </c>
+      <c r="N6" s="11">
+        <f>SUM(InMo_BT_VE!$K$7)/($H6/6.2)</f>
+        <v>107.11928369895024</v>
+      </c>
+      <c r="O6" s="11">
+        <f>SUM(InMo_BT_VE!$L$7)/($H6/6.2)</f>
+        <v>46.252000000000059</v>
+      </c>
+      <c r="P6" s="11">
+        <f>I6-J6-K6-L6-M6-N6</f>
+        <v>90.261132426432212</v>
+      </c>
+      <c r="Q6" s="3">
+        <f>InMo_BT_VE!$I$2</f>
+        <v>0.17005645509510539</v>
+      </c>
+      <c r="R6" s="3">
+        <f>InMo_BT_VE!$I$3</f>
+        <v>0.38041056287170327</v>
+      </c>
+      <c r="T6">
+        <f>(F6+G6-InMo_BT_VE!K11)/(H6/6.2)</f>
+        <v>553.63741493226746</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7">
+        <v>42.785200000000003</v>
+      </c>
+      <c r="E7">
+        <v>118.7646</v>
+      </c>
+      <c r="F7">
+        <f>SUM(InMo_CF_VE!K$2:K$11)</f>
+        <v>76283845.463365749</v>
+      </c>
+      <c r="G7">
+        <f>SUM(InMo_CF_VE!L$2:L$11)</f>
+        <v>6534959.9498016452</v>
+      </c>
+      <c r="H7" s="11">
+        <f>InMo_CF_VE!$E$7</f>
+        <v>875999.99327099766</v>
+      </c>
+      <c r="I7" s="11">
+        <f>(F7+G7)/(H7/6.2)</f>
+        <v>586.16049943597397</v>
+      </c>
+      <c r="J7" s="11">
+        <f>SUM(InMo_CF_VE!$K$2:$K$3)/($H7/6.2)</f>
+        <v>260.26376127176218</v>
+      </c>
+      <c r="K7" s="11">
+        <f>SUM(InMo_CF_VE!$K$4)/($H7/6.2)</f>
+        <v>106.07323734128846</v>
+      </c>
+      <c r="L7" s="11">
+        <f>SUM(InMo_CF_VE!$K$9)/($H7/6.2)</f>
+        <v>2.6684715720034511</v>
+      </c>
+      <c r="M7" s="11">
+        <f>SUM(InMo_CF_VE!$K$11)/($H7/6.2)</f>
+        <v>26.113379100417248</v>
+      </c>
+      <c r="N7" s="11">
+        <f>SUM(InMo_CF_VE!$K$7)/($H7/6.2)</f>
+        <v>106.18600458451216</v>
+      </c>
+      <c r="O7" s="11">
+        <f>SUM(InMo_CF_VE!$L$7)/($H7/6.2)</f>
+        <v>46.252000000000017</v>
+      </c>
+      <c r="P7" s="11">
+        <f>I7-J7-K7-L7-M7-N7</f>
+        <v>84.855645565990457</v>
+      </c>
+      <c r="Q7" s="3">
+        <f>InMo_CF_VE!$I$2</f>
+        <v>0.14992175653151851</v>
+      </c>
+      <c r="R7" s="3">
+        <f>InMo_CF_VE!$I$3</f>
+        <v>0.3846793723694556</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8">
+        <v>41.680700000000002</v>
+      </c>
+      <c r="E8">
+        <v>120.7899</v>
+      </c>
+      <c r="F8">
+        <f>SUM(LiNi_CY_VE!K$2:K$11)</f>
+        <v>79794447.915316492</v>
+      </c>
+      <c r="G8">
+        <f>SUM(LiNi_CY_VE!L$2:L$11)</f>
+        <v>6534960.1758173043</v>
+      </c>
+      <c r="H8" s="11">
+        <f>LiNi_CY_VE!$E$7</f>
+        <v>876000.02356800274</v>
+      </c>
+      <c r="I8" s="11">
+        <f>(F8+G8)/(H8/6.2)</f>
+        <v>611.00720977718038</v>
+      </c>
+      <c r="J8" s="11">
+        <f>SUM(LiNi_CY_VE!$K$2:$K$3)/($H8/6.2)</f>
+        <v>293.03630474455002</v>
+      </c>
+      <c r="K8" s="11">
+        <f>SUM(LiNi_CY_VE!$K$4)/($H8/6.2)</f>
+        <v>109.02079377198814</v>
+      </c>
+      <c r="L8" s="11">
+        <f>SUM(LiNi_CY_VE!$K$9)/($H8/6.2)</f>
+        <v>2.4175318457499215</v>
+      </c>
+      <c r="M8" s="11">
+        <f>SUM(LiNi_CY_VE!$K$11)/($H8/6.2)</f>
+        <v>22.406486950246141</v>
+      </c>
+      <c r="N8" s="11">
+        <f>SUM(LiNi_CY_VE!$K$7)/($H8/6.2)</f>
+        <v>106.23990331615587</v>
+      </c>
+      <c r="O8" s="11">
+        <f>SUM(LiNi_CY_VE!$L$7)/($H8/6.2)</f>
+        <v>46.252000000000038</v>
+      </c>
+      <c r="P8" s="11">
+        <f>I8-J8-K8-L8-M8-N8</f>
+        <v>77.886189148490274</v>
+      </c>
+      <c r="Q8" s="3">
+        <f>LiNi_CY_VE!$I$2</f>
+        <v>0.13811829456604849</v>
+      </c>
+      <c r="R8" s="3">
+        <f>LiNi_CY_VE!$I$3</f>
+        <v>0.3377692171203372</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9">
+        <v>45.3733</v>
+      </c>
+      <c r="E9">
+        <v>122.9395</v>
+      </c>
+      <c r="F9">
+        <f>SUM(JiLi_BC_VE!K$2:K$11)</f>
+        <v>82247272.395407274</v>
+      </c>
+      <c r="G9">
+        <f>SUM(JiLi_BC_VE!L$2:L$11)</f>
+        <v>6534959.8126644921</v>
+      </c>
+      <c r="H9" s="11">
+        <f>JiLi_BC_VE!$E$7</f>
+        <v>875999.97488799482</v>
+      </c>
+      <c r="I9" s="11">
+        <f>(F9+G9)/(H9/6.2)</f>
+        <v>628.36741491964699</v>
+      </c>
+      <c r="J9" s="11">
+        <f>SUM(JiLi_BC_VE!$K$2:$K$3)/($H9/6.2)</f>
+        <v>303.47261507219599</v>
+      </c>
+      <c r="K9" s="11">
+        <f>SUM(JiLi_BC_VE!$K$4)/($H9/6.2)</f>
+        <v>112.36765569147484</v>
+      </c>
+      <c r="L9" s="11">
+        <f>SUM(JiLi_BC_VE!$K$9)/($H9/6.2)</f>
+        <v>5.2046336498030419</v>
+      </c>
+      <c r="M9" s="11">
+        <f>SUM(JiLi_BC_VE!$K$11)/($H9/6.2)</f>
+        <v>17.556208999700665</v>
+      </c>
+      <c r="N9" s="11">
+        <f>SUM(JiLi_BC_VE!$K$7)/($H9/6.2)</f>
+        <v>105.6755303922416</v>
+      </c>
+      <c r="O9" s="11">
+        <f>SUM(JiLi_BC_VE!$L$7)/($H9/6.2)</f>
+        <v>46.252000000000365</v>
+      </c>
+      <c r="P9" s="11">
+        <f>I9-J9-K9-L9-M9-N9</f>
+        <v>84.090771114230847</v>
+      </c>
+      <c r="Q9" s="3">
+        <f>JiLi_BC_VE!$I$2</f>
+        <v>0.14516916307010169</v>
+      </c>
+      <c r="R9" s="3">
+        <f>JiLi_BC_VE!$I$3</f>
+        <v>0.32290397227876089</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10">
+        <v>45.3733</v>
+      </c>
+      <c r="E10">
+        <v>122.9395</v>
+      </c>
+      <c r="F10">
+        <f>SUM(JiLi_BC_VE2!K$2:K$11)</f>
+        <v>93310091.664589986</v>
+      </c>
+      <c r="G10">
+        <f>SUM(JiLi_BC_VE2!L$2:L$11)</f>
+        <v>6534960.0097000012</v>
+      </c>
+      <c r="H10" s="11">
+        <f>JiLi_BC_VE2!$E$7</f>
+        <v>876000.0013</v>
+      </c>
+      <c r="I10" s="11">
+        <f>(F10+G10)/(H10/6.2)</f>
+        <v>706.66588979672645</v>
+      </c>
+      <c r="J10" s="11">
+        <f>SUM(JiLi_BC_VE2!$K$2:$K$3)/($H10/6.2)</f>
+        <v>335.05142224420229</v>
+      </c>
+      <c r="K10" s="11">
+        <f>SUM(JiLi_BC_VE2!$K$4)/($H10/6.2)</f>
+        <v>113.62007135084238</v>
+      </c>
+      <c r="L10" s="11">
+        <f>SUM(JiLi_BC_VE2!$K$9)/($H10/6.2)</f>
+        <v>21.225023195682045</v>
+      </c>
+      <c r="M10" s="11">
+        <f>SUM(JiLi_BC_VE2!$K$11)/($H10/6.2)</f>
+        <v>1.3789039557162386</v>
+      </c>
+      <c r="N10" s="11">
+        <f>SUM(JiLi_BC_VE2!$K$7)/($H10/6.2)</f>
+        <v>87.111234171892022</v>
+      </c>
+      <c r="O10" s="11">
+        <f>SUM(JiLi_BC_VE2!$L$7)/($H10/6.2)</f>
+        <v>46.252000000014164</v>
+      </c>
+      <c r="P10" s="11">
+        <f>I10-J10-K10-L10-M10-N10</f>
+        <v>148.27923487839146</v>
+      </c>
+      <c r="Q10" s="3">
+        <f>JiLi_BC_VE2!$I$2</f>
+        <v>0.14300049982524601</v>
+      </c>
+      <c r="R10" s="3">
+        <f>JiLi_BC_VE2!$I$3</f>
+        <v>0.32697700957122983</v>
+      </c>
+      <c r="S10" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25">
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+    </row>
+    <row r="12" spans="1:25">
+      <c r="A12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="R12" s="19"/>
+    </row>
+    <row r="13" spans="1:25">
+      <c r="A13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+    </row>
+    <row r="14" spans="1:25">
+      <c r="A14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="L14" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="M14" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="N14" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="O14" s="14"/>
+      <c r="P14" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2"/>
+    </row>
+    <row r="15" spans="1:25">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15">
+        <v>41.640099999999997</v>
+      </c>
+      <c r="E15">
+        <v>109.8633</v>
+      </c>
+      <c r="F15">
+        <f>SUM(InMo_BT_GW!K$2:K$11)</f>
+        <v>65165250.936046183</v>
+      </c>
+      <c r="G15">
+        <f>SUM(InMo_BT_GW!L$2:L$11)</f>
+        <v>6534959.8327617012</v>
+      </c>
+      <c r="H15" s="11">
+        <f>InMo_BT_GW!$E$7</f>
+        <v>875999.97758199403</v>
+      </c>
+      <c r="I15" s="11">
+        <f>(F15+G15)/(H15/6.2)</f>
+        <v>507.46725815412441</v>
+      </c>
+      <c r="J15" s="11">
+        <f>SUM(InMo_BT_GW!$K$2:$K$3)/($H15/6.2)</f>
+        <v>202.68802562458961</v>
+      </c>
+      <c r="K15" s="11">
+        <f>SUM(InMo_BT_GW!$K$4)/($H15/6.2)</f>
+        <v>95.422732937998049</v>
+      </c>
+      <c r="L15" s="11">
+        <f>SUM(InMo_BT_GW!$K$9)/($H15/6.2)</f>
+        <v>1.2024733459158246</v>
+      </c>
+      <c r="M15" s="11">
+        <f>SUM(InMo_BT_GW!$K$11)/($H15/6.2)</f>
+        <v>14.644751291381384</v>
+      </c>
+      <c r="N15" s="11">
+        <f>SUM(InMo_BT_GW!$K$7)/($H15/6.2)</f>
+        <v>105.8974461578094</v>
+      </c>
+      <c r="O15" s="11">
+        <f>SUM(InMo_BT_GW!$L$7)/($H15/6.2)</f>
+        <v>46.252000000000187</v>
+      </c>
+      <c r="P15" s="11">
+        <f>I15-J15-K15-L15-M15-N15</f>
+        <v>87.611828796430146</v>
+      </c>
+      <c r="Q15" s="3">
+        <f>InMo_BT_GW!$I$2</f>
+        <v>0.16191742337071671</v>
+      </c>
+      <c r="R15" s="3">
+        <f>InMo_BT_GW!$I$3</f>
+        <v>0.48366356620195561</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16">
+        <v>42.785200000000003</v>
+      </c>
+      <c r="E16">
+        <v>118.7646</v>
+      </c>
+      <c r="F16">
+        <f>SUM(InMo_CF_GW!K$2:K$11)</f>
+        <v>69799080.741747215</v>
+      </c>
+      <c r="G16">
+        <f>SUM(InMo_CF_GW!L$2:L$11)</f>
+        <v>6534960.1266260138</v>
+      </c>
+      <c r="H16" s="11">
+        <f>InMo_CF_GW!$E$7</f>
+        <v>876000.01697400049</v>
+      </c>
+      <c r="I16" s="11">
+        <f>(F16+G16)/(H16/6.2)</f>
+        <v>540.26374910214247</v>
+      </c>
+      <c r="J16" s="11">
+        <f>SUM(InMo_CF_GW!$K$2:$K$3)/($H16/6.2)</f>
+        <v>224.01874095840557</v>
+      </c>
+      <c r="K16" s="11">
+        <f>SUM(InMo_CF_GW!$K$4)/($H16/6.2)</f>
+        <v>100.61239134865905</v>
+      </c>
+      <c r="L16" s="11">
+        <f>SUM(InMo_CF_GW!$K$9)/($H16/6.2)</f>
+        <v>1.7494689755451798</v>
+      </c>
+      <c r="M16" s="11">
+        <f>SUM(InMo_CF_GW!$K$11)/($H16/6.2)</f>
+        <v>24.477985540047783</v>
+      </c>
+      <c r="N16" s="11">
+        <f>SUM(InMo_CF_GW!$K$7)/($H16/6.2)</f>
+        <v>105.30547678033174</v>
+      </c>
+      <c r="O16" s="11">
+        <f>SUM(InMo_CF_GW!$L$7)/($H16/6.2)</f>
+        <v>46.251999999999782</v>
+      </c>
+      <c r="P16" s="11">
+        <f>I16-J16-K16-L16-M16-N16</f>
+        <v>84.099685499153097</v>
+      </c>
+      <c r="Q16" s="3">
+        <f>InMo_CF_GW!$I$2</f>
+        <v>0.14534543907996911</v>
+      </c>
+      <c r="R16" s="3">
+        <f>InMo_CF_GW!$I$3</f>
+        <v>0.46207258791347861</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17">
+        <v>41.680700000000002</v>
+      </c>
+      <c r="E17">
+        <v>120.7899</v>
+      </c>
+      <c r="F17">
+        <f>SUM(LiNi_CY_GW!K$2:K$11)</f>
+        <v>72117433.496356666</v>
+      </c>
+      <c r="G17">
+        <f>SUM(LiNi_CY_GW!L$2:L$11)</f>
+        <v>6534959.9469519807</v>
+      </c>
+      <c r="H17" s="11">
+        <f>LiNi_CY_GW!$E$7</f>
+        <v>875999.99288900651</v>
+      </c>
+      <c r="I17" s="11">
+        <f>(F17+G17)/(H17/6.2)</f>
+        <v>556.67219555594295</v>
+      </c>
+      <c r="J17" s="11">
+        <f>SUM(LiNi_CY_GW!$K$2:$K$3)/($H17/6.2)</f>
+        <v>247.05660426862946</v>
+      </c>
+      <c r="K17" s="11">
+        <f>SUM(LiNi_CY_GW!$K$4)/($H17/6.2)</f>
+        <v>104.25186307909478</v>
+      </c>
+      <c r="L17" s="11">
+        <f>SUM(LiNi_CY_GW!$K$9)/($H17/6.2)</f>
+        <v>1.9293514275181127</v>
+      </c>
+      <c r="M17" s="11">
+        <f>SUM(LiNi_CY_GW!$K$11)/($H17/6.2)</f>
+        <v>18.377775122662317</v>
+      </c>
+      <c r="N17" s="11">
+        <f>SUM(LiNi_CY_GW!$K$7)/($H17/6.2)</f>
+        <v>104.33225170461162</v>
+      </c>
+      <c r="O17" s="11">
+        <f>SUM(LiNi_CY_GW!$L$7)/($H17/6.2)</f>
+        <v>46.251999999999946</v>
+      </c>
+      <c r="P17" s="11">
+        <f>I17-J17-K17-L17-M17-N17</f>
+        <v>80.724349953426639</v>
+      </c>
+      <c r="Q17" s="3">
+        <f>LiNi_CY_GW!$I$2</f>
+        <v>0.13833000242971949</v>
+      </c>
+      <c r="R17" s="3">
+        <f>LiNi_CY_GW!$I$3</f>
+        <v>0.40931166331757662</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18">
+        <v>45.3733</v>
+      </c>
+      <c r="E18">
+        <v>122.9395</v>
+      </c>
+      <c r="F18">
+        <f>SUM(JiLi_BC_GW!K$2:K$11)</f>
+        <v>74781168.013610318</v>
+      </c>
+      <c r="G18">
+        <f>SUM(JiLi_BC_GW!L$2:L$11)</f>
+        <v>6534959.7884493014</v>
+      </c>
+      <c r="H18" s="11">
+        <f>JiLi_BC_GW!$E$7</f>
+        <v>875999.97164199571</v>
+      </c>
+      <c r="I18" s="11">
+        <f>(F18+G18)/(H18/6.2)</f>
+        <v>575.52512407935342</v>
+      </c>
+      <c r="J18" s="11">
+        <f>SUM(JiLi_BC_GW!$K$2:$K$3)/($H18/6.2)</f>
+        <v>261.65400640193968</v>
+      </c>
+      <c r="K18" s="11">
+        <f>SUM(JiLi_BC_GW!$K$4)/($H18/6.2)</f>
+        <v>103.81487955665865</v>
+      </c>
+      <c r="L18" s="11">
+        <f>SUM(JiLi_BC_GW!$K$9)/($H18/6.2)</f>
+        <v>1.9193151055250872</v>
+      </c>
+      <c r="M18" s="11">
+        <f>SUM(JiLi_BC_GW!$K$11)/($H18/6.2)</f>
+        <v>15.952438407988847</v>
+      </c>
+      <c r="N18" s="11">
+        <f>SUM(JiLi_BC_GW!$K$7)/($H18/6.2)</f>
+        <v>104.26910036605193</v>
+      </c>
+      <c r="O18" s="11">
+        <f>SUM(JiLi_BC_GW!$L$7)/($H18/6.2)</f>
+        <v>46.252000000000088</v>
+      </c>
+      <c r="P18" s="11">
+        <f>I18-J18-K18-L18-M18-N18</f>
+        <v>87.91538424118923</v>
+      </c>
+      <c r="Q18" s="3">
+        <f>JiLi_BC_GW!$I$2</f>
+        <v>0.1449060176507215</v>
+      </c>
+      <c r="R18" s="3">
+        <f>JiLi_BC_GW!$I$3</f>
+        <v>0.38840421014675708</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="A23" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="A24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25">
+        <v>41.640099999999997</v>
+      </c>
+      <c r="E25">
+        <v>109.8633</v>
+      </c>
+      <c r="F25" s="15">
+        <f>AVERAGE(I6,I15)</f>
+        <v>538.16792646631541</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26">
+        <v>42.785200000000003</v>
+      </c>
+      <c r="E26">
+        <v>118.7646</v>
+      </c>
+      <c r="F26" s="15">
+        <f>AVERAGE(I7,I16)</f>
+        <v>563.21212426905822</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
+      <c r="A27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27">
+        <v>41.680700000000002</v>
+      </c>
+      <c r="E27">
+        <v>120.7899</v>
+      </c>
+      <c r="F27" s="15">
+        <f>AVERAGE(I8,I17)</f>
+        <v>583.83970266656161</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28">
+        <v>45.3733</v>
+      </c>
+      <c r="E28">
+        <v>122.9395</v>
+      </c>
+      <c r="F28" s="15">
+        <f>AVERAGE(I9,I18)</f>
+        <v>601.9462694995002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
+      <c r="A29" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="15">
+        <f>AVERAGE(F25:F28)</f>
+        <v>571.79150572535877</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="J3:P3"/>
+    <mergeCell ref="J4:P4"/>
+    <mergeCell ref="J12:P12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3027,40 +3683,40 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H1" s="6" t="s">
+      <c r="G1" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="16" t="s">
         <v>57</v>
       </c>
     </row>
@@ -3068,157 +3724,157 @@
       <c r="A2" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="16" t="s">
         <v>59</v>
       </c>
       <c r="C2">
-        <v>597.66889000000003</v>
+        <v>324.45375999999999</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>748690.46573000005</v>
+        <v>411854.04791500972</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>748690.46573000005</v>
+        <v>411854.04791500972</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.14300049982524601</v>
+        <v>0.1449060176507215</v>
       </c>
       <c r="J2">
-        <v>238667.92725000001</v>
+        <v>124148.6585024019</v>
       </c>
       <c r="K2">
-        <v>25371087.71807</v>
+        <v>15442957.771193299</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>25371087.837809999</v>
+        <v>15442957.57803699</v>
       </c>
       <c r="N2">
-        <v>33.88728508505335</v>
+        <v>37.496189866813687</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="25"/>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="16" t="s">
         <v>16</v>
       </c>
       <c r="C3">
-        <v>400.471</v>
+        <v>323.71514999999999</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1147076.54856</v>
+        <v>1101415.1858190109</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1147076.54856</v>
+        <v>1101415.1858190109</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.32697700957122983</v>
+        <v>0.38840421014675708</v>
       </c>
       <c r="J3">
-        <v>204167.47313</v>
+        <v>246062.72388649001</v>
       </c>
       <c r="K3">
-        <v>21968435.882169999</v>
+        <v>21526220.00108311</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>21968435.666839998</v>
+        <v>21526219.70066122</v>
       </c>
       <c r="N3">
-        <v>19.151673823498619</v>
+        <v>19.544146456137991</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="16" t="s">
         <v>61</v>
       </c>
       <c r="C4">
-        <v>326.71201000000002</v>
+        <v>243.73756</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1095000.0019</v>
+        <v>876000.00292664964</v>
       </c>
       <c r="F4">
-        <v>1855932.20661</v>
+        <v>1484745.7676722871</v>
       </c>
       <c r="G4">
-        <v>-760932.20470999996</v>
+        <v>-608745.76474563743</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.64847450817617625</v>
+        <v>0.69538533983021389</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>16053416.55662</v>
+        <v>14668037.346395191</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>16053416.98325</v>
+        <v>14668036.70734537</v>
       </c>
       <c r="N4">
-        <v>14.6606548</v>
+        <v>16.74433408486361</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="26"/>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="16" t="s">
         <v>62</v>
       </c>
       <c r="C5">
-        <v>133.11658</v>
+        <v>105.15427</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>411866.58081999997</v>
+        <v>298716.43888094253</v>
       </c>
       <c r="F5">
-        <v>411866.58081999997</v>
+        <v>298716.43888094253</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>-2.5999999999999998E-4</v>
+        <v>-4.2734919998110849E-4</v>
       </c>
       <c r="I5">
-        <v>0.35319965401755371</v>
+        <v>0.32428592866998468</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -3227,37 +3883,40 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>-2.5999999999999998E-4</v>
+        <v>-4.2734918793030369E-4</v>
       </c>
       <c r="M5">
-        <v>-2.5999999999999998E-4</v>
+        <v>-4.2737089097499847E-4</v>
+      </c>
+      <c r="N5">
+        <v>-1.430605059039623E-9</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="26"/>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="16" t="s">
         <v>63</v>
       </c>
       <c r="C6">
-        <v>36.104039999999998</v>
+        <v>36.907435</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>78958.506309999997</v>
+        <v>66580.831026434054</v>
       </c>
       <c r="F6">
-        <v>78958.506309999997</v>
+        <v>66580.831026434054</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>-4.2000000000000002E-4</v>
+        <v>2.3325946131080851E-5</v>
       </c>
       <c r="I6">
-        <v>0.2496543323129489</v>
+        <v>0.2059355110165699</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -3266,59 +3925,62 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>-4.2000000000000002E-4</v>
+        <v>2.3326130758505311E-5</v>
       </c>
       <c r="M6">
-        <v>-4.2000000000000002E-4</v>
+        <v>2.332963049411774E-5</v>
+      </c>
+      <c r="N6">
+        <v>3.5045164406055438E-10</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="25"/>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="16" t="s">
         <v>64</v>
       </c>
       <c r="C7">
-        <v>4.2597300000000002</v>
+        <v>105.15427</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>876000.0013</v>
+        <v>875999.97164199571</v>
       </c>
       <c r="F7">
-        <v>1130040.00168</v>
+        <v>904031.97073453967</v>
       </c>
       <c r="G7">
-        <v>-254040.00038000001</v>
+        <v>-28031.999092543982</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.93902665192394819</v>
+        <v>0.95098370007023825</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>12307974.39481</v>
+        <v>14732214.34899966</v>
       </c>
       <c r="L7">
-        <v>6534960.0097000003</v>
+        <v>6534959.7884493005</v>
       </c>
       <c r="M7">
-        <v>18842934.721519999</v>
+        <v>21267174.687260911</v>
       </c>
       <c r="N7">
-        <v>21.510199499999999</v>
+        <v>24.277597460873348</v>
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="16" t="s">
         <v>66</v>
       </c>
       <c r="C8">
@@ -3349,169 +4011,169 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>-99845052.147799999</v>
+        <v>-81316128.662902057</v>
       </c>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="16" t="s">
         <v>66</v>
       </c>
       <c r="C9">
-        <v>162.59814</v>
+        <v>13.182663</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>64922.530980000003</v>
+        <v>6654.6513447251155</v>
       </c>
       <c r="F9">
-        <v>69717.341369999995</v>
+        <v>7146.1262372680176</v>
       </c>
       <c r="G9">
-        <v>-4794.8103899999996</v>
+        <v>-491.47489254290048</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>9.4526604055864355E-2</v>
+        <v>0.1195078134684268</v>
       </c>
       <c r="J9">
-        <v>1429154.51679</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>2998890.37855</v>
+        <v>271180.64161484363</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>2998890.24272</v>
+        <v>271180.63705460518</v>
       </c>
       <c r="N9">
-        <v>46.191812447292968</v>
+        <v>40.750540187136963</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="16" t="s">
         <v>62</v>
       </c>
       <c r="C10">
-        <v>2842.5075000000002</v>
+        <v>3679.3406</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>205933.29053999999</v>
+        <v>149358.21965414591</v>
       </c>
       <c r="F10">
-        <v>205933.29027999999</v>
+        <v>149358.21922679711</v>
       </c>
       <c r="G10">
-        <v>2.5999999999999998E-4</v>
+        <v>4.2734919998110849E-4</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.36109558901779498</v>
+        <v>0.30776377387445181</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>14415460.949370001</v>
+        <v>5886632.8086759932</v>
       </c>
       <c r="L10">
-        <v>2.5999999999999998E-4</v>
+        <v>4.2734919998110849E-4</v>
       </c>
       <c r="M10">
-        <v>14415461.39127</v>
+        <v>5886632.7027052455</v>
       </c>
       <c r="N10">
-        <v>70.000626159959197</v>
+        <v>39.412847289800027</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="25"/>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="16" t="s">
         <v>63</v>
       </c>
       <c r="C11">
-        <v>20217.436000000002</v>
+        <v>19783.733</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>39479.253360000002</v>
+        <v>33290.415501554002</v>
       </c>
       <c r="F11">
-        <v>39479.252939999998</v>
+        <v>33290.415524880031</v>
       </c>
       <c r="G11">
-        <v>4.2000000000000002E-4</v>
+        <v>-2.3325946131080851E-5</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.43633853175051468</v>
+        <v>0.45269730514981688</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>194825.785</v>
+        <v>2253925.0956482119</v>
       </c>
       <c r="L11">
-        <v>4.2000000000000002E-4</v>
+        <v>-2.3325946131080851E-5</v>
       </c>
       <c r="M11">
-        <v>194825.81617999999</v>
+        <v>2253925.1515488192</v>
       </c>
       <c r="N11">
-        <v>4.9348955790856408</v>
+        <v>67.704927006502658</v>
       </c>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="16" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B15">
-        <v>93310091.664590001</v>
+        <v>875999.97164199571</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B16">
-        <v>6534960.0097000003</v>
+        <v>74781168.013610303</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B17">
-        <v>876000.0013</v>
+        <v>6534959.7884493005</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3519,7 +4181,7 @@
         <v>13</v>
       </c>
       <c r="B18">
-        <v>706.66588979672645</v>
+        <v>575.5251240793533</v>
       </c>
     </row>
   </sheetData>
@@ -3541,198 +4203,198 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="L1" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="M1" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="N1" s="16" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="16" t="s">
         <v>59</v>
       </c>
       <c r="C2">
-        <v>324.45375999999999</v>
+        <v>411.56783999999999</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>411854.04791500972</v>
+        <v>523383.35978327668</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>411854.04791500972</v>
+        <v>523383.35978327668</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.1449060176507215</v>
+        <v>0.14516916307010169</v>
       </c>
       <c r="J2">
-        <v>124148.6585024019</v>
+        <v>156533.17456585099</v>
       </c>
       <c r="K2">
-        <v>15442957.771193299</v>
+        <v>19589308.421333261</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>15442957.57803699</v>
+        <v>19589308.16137081</v>
       </c>
       <c r="N2">
-        <v>37.496189866813687</v>
+        <v>37.428221198095351</v>
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="29"/>
-      <c r="B3" s="17" t="s">
+      <c r="A3" s="25"/>
+      <c r="B3" s="16" t="s">
         <v>16</v>
       </c>
       <c r="C3">
-        <v>323.71514999999999</v>
+        <v>350.21564000000001</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1101415.1858190109</v>
+        <v>990633.54667690059</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1101415.1858190109</v>
+        <v>990633.54667690059</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.38840421014675708</v>
+        <v>0.32290397227876089</v>
       </c>
       <c r="J3">
-        <v>246062.72388649001</v>
+        <v>191042.00833474009</v>
       </c>
       <c r="K3">
-        <v>21526220.00108311</v>
+        <v>23288434.02744703</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>21526219.70066122</v>
+        <v>23288433.895957839</v>
       </c>
       <c r="N3">
-        <v>19.544146456137991</v>
+        <v>23.508626347330271</v>
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="16" t="s">
         <v>61</v>
       </c>
       <c r="C4">
-        <v>243.73756</v>
+        <v>263.81785000000002</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>876000.00292664964</v>
+        <v>875999.99830223608</v>
       </c>
       <c r="F4">
-        <v>1484745.7676722871</v>
+        <v>1484745.7598342979</v>
       </c>
       <c r="G4">
-        <v>-608745.76474563743</v>
+        <v>-608745.76153206185</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.69538533983021389</v>
+        <v>0.64245662336812792</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>14668037.346395191</v>
+        <v>15876461.865154</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>14668036.70734537</v>
+        <v>15876462.28913907</v>
       </c>
       <c r="N4">
-        <v>16.74433408486361</v>
+        <v>18.123815433686239</v>
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="30"/>
-      <c r="B5" s="17" t="s">
+      <c r="A5" s="26"/>
+      <c r="B5" s="16" t="s">
         <v>62</v>
       </c>
       <c r="C5">
-        <v>105.15427</v>
+        <v>106.57264000000001</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>298716.43888094253</v>
+        <v>339957.22446697811</v>
       </c>
       <c r="F5">
-        <v>298716.43888094253</v>
+        <v>339957.22446697811</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>-4.2734919998110849E-4</v>
+        <v>7.5243587161821779E-4</v>
       </c>
       <c r="I5">
-        <v>0.32428592866998468</v>
+        <v>0.36414507829038562</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -3741,40 +4403,40 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>-4.2734918793030369E-4</v>
+        <v>7.5243587502882292E-4</v>
       </c>
       <c r="M5">
-        <v>-4.2737089097499847E-4</v>
+        <v>7.5243599712848663E-4</v>
       </c>
       <c r="N5">
-        <v>-1.430605059039623E-9</v>
+        <v>2.2133015174474959E-9</v>
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="30"/>
-      <c r="B6" s="17" t="s">
+      <c r="A6" s="26"/>
+      <c r="B6" s="16" t="s">
         <v>63</v>
       </c>
       <c r="C6">
-        <v>36.907435</v>
+        <v>36.056412999999999</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>66580.831026434054</v>
+        <v>78453.182114255877</v>
       </c>
       <c r="F6">
-        <v>66580.831026434054</v>
+        <v>78453.182114255877</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>2.3325946131080851E-5</v>
+        <v>-1.274180649488699E-4</v>
       </c>
       <c r="I6">
-        <v>0.2059355110165699</v>
+        <v>0.2483841836154583</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -3783,62 +4445,62 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>2.3326130758505311E-5</v>
+        <v>-1.2741784485115201E-4</v>
       </c>
       <c r="M6">
-        <v>2.332963049411774E-5</v>
+        <v>-1.2741843238472941E-4</v>
       </c>
       <c r="N6">
-        <v>3.5045164406055438E-10</v>
+        <v>-1.6238233598018871E-9</v>
       </c>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="29"/>
-      <c r="B7" s="17" t="s">
+      <c r="A7" s="25"/>
+      <c r="B7" s="16" t="s">
         <v>64</v>
       </c>
       <c r="C7">
-        <v>105.15427</v>
+        <v>106.57264000000001</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>875999.97164199571</v>
+        <v>875999.97488799482</v>
       </c>
       <c r="F7">
-        <v>904031.97073453967</v>
+        <v>904031.97408441105</v>
       </c>
       <c r="G7">
-        <v>-28031.999092543982</v>
+        <v>-28031.9991964162</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.95098370007023825</v>
+        <v>0.93832710847111889</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>14732214.34899966</v>
+        <v>14930929.349980511</v>
       </c>
       <c r="L7">
-        <v>6534959.7884493005</v>
+        <v>6534959.8126644921</v>
       </c>
       <c r="M7">
-        <v>21267174.687260911</v>
+        <v>21465886.807046872</v>
       </c>
       <c r="N7">
-        <v>24.277597460873348</v>
+        <v>24.50443769680626</v>
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="16" t="s">
         <v>66</v>
       </c>
       <c r="C8">
@@ -3869,144 +4531,144 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>-81316128.662902057</v>
+        <v>-88782231.742202431</v>
       </c>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="16" t="s">
         <v>66</v>
       </c>
       <c r="C9">
-        <v>13.182663</v>
+        <v>35.747611999999997</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>6654.6513447251155</v>
+        <v>16778.173275475008</v>
       </c>
       <c r="F9">
-        <v>7146.1262372680176</v>
+        <v>18017.314038424989</v>
       </c>
       <c r="G9">
-        <v>-491.47489254290048</v>
+        <v>-1239.140762949999</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.1195078134684268</v>
+        <v>0.1111147674119031</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>271180.64161484363</v>
+        <v>735364.34621430282</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>271180.63705460518</v>
+        <v>735364.34140132158</v>
       </c>
       <c r="N9">
-        <v>40.750540187136963</v>
+        <v>43.828629572935597</v>
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="16" t="s">
         <v>62</v>
       </c>
       <c r="C10">
-        <v>3679.3406</v>
+        <v>3341.5846999999999</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>149358.21965414591</v>
+        <v>169978.61185727091</v>
       </c>
       <c r="F10">
-        <v>149358.21922679711</v>
+        <v>169978.61260970711</v>
       </c>
       <c r="G10">
-        <v>4.2734919998110849E-4</v>
+        <v>-7.5243587252771249E-4</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.30776377387445181</v>
+        <v>0.35790427459048529</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>5886632.8086759932</v>
+        <v>5346252.0235255547</v>
       </c>
       <c r="L10">
-        <v>4.2734919998110849E-4</v>
+        <v>-7.5243587252771249E-4</v>
       </c>
       <c r="M10">
-        <v>5886632.7027052455</v>
+        <v>5346252.1126395669</v>
       </c>
       <c r="N10">
-        <v>39.412847289800027</v>
+        <v>31.452498959861771</v>
       </c>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="29"/>
-      <c r="B11" s="17" t="s">
+      <c r="A11" s="25"/>
+      <c r="B11" s="16" t="s">
         <v>63</v>
       </c>
       <c r="C11">
-        <v>19783.733</v>
+        <v>21772.681</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>33290.415501554002</v>
+        <v>39226.591120836907</v>
       </c>
       <c r="F11">
-        <v>33290.415524880031</v>
+        <v>39226.590993418708</v>
       </c>
       <c r="G11">
-        <v>-2.3325946131080851E-5</v>
+        <v>1.274180649488699E-4</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.45269730514981688</v>
+        <v>0.41863813658606952</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2253925.0956482119</v>
+        <v>2480522.3617526079</v>
       </c>
       <c r="L11">
-        <v>-2.3325946131080851E-5</v>
+        <v>1.274180649488699E-4</v>
       </c>
       <c r="M11">
-        <v>2253925.1515488192</v>
+        <v>2480522.4371749549</v>
       </c>
       <c r="N11">
-        <v>67.704927006502658</v>
+        <v>63.235737959837692</v>
       </c>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="16" t="s">
         <v>70</v>
       </c>
     </row>
@@ -4015,7 +4677,7 @@
         <v>12</v>
       </c>
       <c r="B15">
-        <v>875999.97164199571</v>
+        <v>875999.97488799482</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -4023,7 +4685,7 @@
         <v>10</v>
       </c>
       <c r="B16">
-        <v>74781168.013610303</v>
+        <v>82247272.395407259</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -4031,7 +4693,7 @@
         <v>11</v>
       </c>
       <c r="B17">
-        <v>6534959.7884493005</v>
+        <v>6534959.8126644921</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -4039,7 +4701,7 @@
         <v>13</v>
       </c>
       <c r="B18">
-        <v>575.5251240793533</v>
+        <v>628.36741491964688</v>
       </c>
     </row>
   </sheetData>
@@ -4061,198 +4723,198 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="L1" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="M1" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="N1" s="16" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="16" t="s">
         <v>59</v>
       </c>
       <c r="C2">
-        <v>411.56783999999999</v>
+        <v>280.94648000000001</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>523383.35978327668</v>
+        <v>418524.43915177177</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>523383.35978327668</v>
+        <v>418524.43915177177</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.14516916307010169</v>
+        <v>0.17005645509510539</v>
       </c>
       <c r="J2">
-        <v>156533.17456585099</v>
+        <v>105451.984876888</v>
       </c>
       <c r="K2">
-        <v>19589308.421333261</v>
+        <v>13372150.862438461</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>19589308.16137081</v>
+        <v>13372150.77054082</v>
       </c>
       <c r="N2">
-        <v>37.428221198095351</v>
+        <v>31.950704713068379</v>
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="29"/>
-      <c r="B3" s="17" t="s">
+      <c r="A3" s="25"/>
+      <c r="B3" s="16" t="s">
         <v>16</v>
       </c>
       <c r="C3">
-        <v>350.21564000000001</v>
+        <v>328.55772000000002</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>990633.54667690059</v>
+        <v>1094884.606281142</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>990633.54667690059</v>
+        <v>1094884.606281142</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.32290397227876089</v>
+        <v>0.38041056287170327</v>
       </c>
       <c r="J3">
-        <v>191042.00833474009</v>
+        <v>185080.99086245999</v>
       </c>
       <c r="K3">
-        <v>23288434.02744703</v>
+        <v>21848238.378013089</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>23288433.895957839</v>
+        <v>21848238.221087661</v>
       </c>
       <c r="N3">
-        <v>23.508626347330271</v>
+        <v>19.954831856935922</v>
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="16" t="s">
         <v>61</v>
       </c>
       <c r="C4">
-        <v>263.81785000000002</v>
+        <v>245.01490000000001</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>875999.99830223608</v>
+        <v>876000.00370052853</v>
       </c>
       <c r="F4">
-        <v>1484745.7598342979</v>
+        <v>1484745.7689839411</v>
       </c>
       <c r="G4">
-        <v>-608745.76153206185</v>
+        <v>-608745.76528341207</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.64245662336812792</v>
+        <v>0.6917600772023218</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>15876461.865154</v>
+        <v>14744907.201103039</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>15876462.28913907</v>
+        <v>14744907.17190217</v>
       </c>
       <c r="N4">
-        <v>18.123815433686239</v>
+        <v>16.832085741569109</v>
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="30"/>
-      <c r="B5" s="17" t="s">
+      <c r="A5" s="26"/>
+      <c r="B5" s="16" t="s">
         <v>62</v>
       </c>
       <c r="C5">
-        <v>106.57264000000001</v>
+        <v>108.02865</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>339957.22446697811</v>
+        <v>310696.36606349418</v>
       </c>
       <c r="F5">
-        <v>339957.22446697811</v>
+        <v>310696.36606349418</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.5243587161821779E-4</v>
+        <v>6.3943794611986959E-4</v>
       </c>
       <c r="I5">
-        <v>0.36414507829038562</v>
+        <v>0.32831680944588221</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -4261,40 +4923,40 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>7.5243587502882292E-4</v>
+        <v>6.3943796749299509E-4</v>
       </c>
       <c r="M5">
-        <v>7.5243599712848663E-4</v>
+        <v>6.3942279666662216E-4</v>
       </c>
       <c r="N5">
-        <v>2.2133015174474959E-9</v>
+        <v>2.0580748888909259E-9</v>
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="30"/>
-      <c r="B6" s="17" t="s">
+      <c r="A6" s="26"/>
+      <c r="B6" s="16" t="s">
         <v>63</v>
       </c>
       <c r="C6">
-        <v>36.056412999999999</v>
+        <v>35.182806999999997</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>78453.182114255877</v>
+        <v>91787.992498194566</v>
       </c>
       <c r="F6">
-        <v>78453.182114255877</v>
+        <v>91787.992498194566</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>-1.274180649488699E-4</v>
+        <v>2.8759594715666031E-4</v>
       </c>
       <c r="I6">
-        <v>0.2483841836154583</v>
+        <v>0.29781823080262743</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -4303,62 +4965,62 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>-1.2741784485115201E-4</v>
+        <v>2.8759645738318801E-4</v>
       </c>
       <c r="M6">
-        <v>-1.2741843238472941E-4</v>
+        <v>2.8760917484760279E-4</v>
       </c>
       <c r="N6">
-        <v>-1.6238233598018871E-9</v>
+        <v>3.1335030473143602E-9</v>
       </c>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="29"/>
-      <c r="B7" s="17" t="s">
+      <c r="A7" s="25"/>
+      <c r="B7" s="16" t="s">
         <v>64</v>
       </c>
       <c r="C7">
-        <v>106.57264000000001</v>
+        <v>108.02865</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>875999.97488799482</v>
+        <v>875999.97700600058</v>
       </c>
       <c r="F7">
-        <v>904031.97408441105</v>
+        <v>904031.97627019265</v>
       </c>
       <c r="G7">
-        <v>-28031.9991964162</v>
+        <v>-28031.99926419212</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.93832710847111889</v>
+        <v>0.9256803391981161</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>14930929.349980511</v>
+        <v>15134917.75115801</v>
       </c>
       <c r="L7">
-        <v>6534959.8126644921</v>
+        <v>6534959.8284647726</v>
       </c>
       <c r="M7">
-        <v>21465886.807046872</v>
+        <v>21669876.569111489</v>
       </c>
       <c r="N7">
-        <v>24.50443769680626</v>
+        <v>24.73730266885957</v>
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="16" t="s">
         <v>66</v>
       </c>
       <c r="C8">
@@ -4389,144 +5051,144 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>-88782231.742202431</v>
+        <v>-80375625.247996926</v>
       </c>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="16" t="s">
         <v>66</v>
       </c>
       <c r="C9">
-        <v>35.747611999999997</v>
+        <v>18.004394999999999</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>16778.173275475008</v>
+        <v>8547.7210886479934</v>
       </c>
       <c r="F9">
-        <v>18017.314038424989</v>
+        <v>9179.0073588659798</v>
       </c>
       <c r="G9">
-        <v>-1239.140762949999</v>
+        <v>-631.28627021800048</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.1111147674119031</v>
+        <v>0.1123947312777832</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>735364.34621430282</v>
+        <v>370368.52022896142</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>735364.34140132158</v>
+        <v>370368.51887525897</v>
       </c>
       <c r="N9">
-        <v>43.828629572935597</v>
+        <v>43.329504441497953</v>
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="16" t="s">
         <v>62</v>
       </c>
       <c r="C10">
-        <v>3341.5846999999999</v>
+        <v>3886.4962999999998</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>169978.61185727091</v>
+        <v>155348.18271202801</v>
       </c>
       <c r="F10">
-        <v>169978.61260970711</v>
+        <v>155348.18335146681</v>
       </c>
       <c r="G10">
-        <v>-7.5243587252771249E-4</v>
+        <v>-6.3943794611986959E-4</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.35790427459048529</v>
+        <v>0.4269152158810246</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>5346252.0235255547</v>
+        <v>6218064.3538078144</v>
       </c>
       <c r="L10">
-        <v>-7.5243587252771249E-4</v>
+        <v>-6.3943794611986959E-4</v>
       </c>
       <c r="M10">
-        <v>5346252.1126395669</v>
+        <v>6218064.4158397513</v>
       </c>
       <c r="N10">
-        <v>31.452498959861771</v>
+        <v>40.026631192502123</v>
       </c>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="29"/>
-      <c r="B11" s="17" t="s">
+      <c r="A11" s="25"/>
+      <c r="B11" s="16" t="s">
         <v>63</v>
       </c>
       <c r="C11">
-        <v>21772.681</v>
+        <v>18889.25</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>39226.591120836907</v>
+        <v>45893.996105299033</v>
       </c>
       <c r="F11">
-        <v>39226.590993418708</v>
+        <v>45893.996392895016</v>
       </c>
       <c r="G11">
-        <v>1.274180649488699E-4</v>
+        <v>-2.8759594715666031E-4</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.41863813658606952</v>
+        <v>0.51117883626240601</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2480522.3617526079</v>
+        <v>2152018.2572709098</v>
       </c>
       <c r="L11">
-        <v>1.274180649488699E-4</v>
+        <v>-2.8759594715666031E-4</v>
       </c>
       <c r="M11">
-        <v>2480522.4371749549</v>
+        <v>2152018.196886159</v>
       </c>
       <c r="N11">
-        <v>63.235737959837692</v>
+        <v>46.891061566061673</v>
       </c>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="16" t="s">
         <v>70</v>
       </c>
     </row>
@@ -4535,7 +5197,7 @@
         <v>12</v>
       </c>
       <c r="B15">
-        <v>875999.97488799482</v>
+        <v>875999.97700600058</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -4543,7 +5205,7 @@
         <v>10</v>
       </c>
       <c r="B16">
-        <v>82247272.395407259</v>
+        <v>73840665.324020267</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -4551,7 +5213,7 @@
         <v>11</v>
       </c>
       <c r="B17">
-        <v>6534959.8126644921</v>
+        <v>6534959.8284647726</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -4559,7 +5221,7 @@
         <v>13</v>
       </c>
       <c r="B18">
-        <v>628.36741491964688</v>
+        <v>568.86859477850624</v>
       </c>
     </row>
   </sheetData>
@@ -4581,198 +5243,198 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="L1" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="M1" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="N1" s="16" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="16" t="s">
         <v>59</v>
       </c>
       <c r="C2">
-        <v>280.94648000000001</v>
+        <v>193.02328</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>418524.43915177177</v>
+        <v>273783.56961791997</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>418524.43915177177</v>
+        <v>273783.56961791997</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.17005645509510539</v>
+        <v>0.16191742337071671</v>
       </c>
       <c r="J2">
-        <v>105451.984876888</v>
+        <v>86212.569083859969</v>
       </c>
       <c r="K2">
-        <v>13372150.862438461</v>
+        <v>9187288.6968461089</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>13372150.77054082</v>
+        <v>9187288.5772999339</v>
       </c>
       <c r="N2">
-        <v>31.950704713068379</v>
+        <v>33.556756492441473</v>
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="29"/>
-      <c r="B3" s="17" t="s">
+      <c r="A3" s="25"/>
+      <c r="B3" s="16" t="s">
         <v>16</v>
       </c>
       <c r="C3">
-        <v>328.55772000000002</v>
+        <v>292.50110999999998</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1094884.606281142</v>
+        <v>1239295.858630318</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1094884.606281142</v>
+        <v>1239295.858630318</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.38041056287170327</v>
+        <v>0.48366356620195561</v>
       </c>
       <c r="J3">
-        <v>185080.99086245999</v>
+        <v>203032.96601549</v>
       </c>
       <c r="K3">
-        <v>21848238.378013089</v>
+        <v>19450567.094005361</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>21848238.221087661</v>
+        <v>19450566.913555909</v>
       </c>
       <c r="N3">
-        <v>19.954831856935922</v>
+        <v>15.694853475144191</v>
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="16" t="s">
         <v>61</v>
       </c>
       <c r="C4">
-        <v>245.01490000000001</v>
+        <v>224.03440000000001</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>876000.00370052853</v>
+        <v>876000.00660653692</v>
       </c>
       <c r="F4">
-        <v>1484745.7689839411</v>
+        <v>1484745.7739093909</v>
       </c>
       <c r="G4">
-        <v>-608745.76528341207</v>
+        <v>-608745.76730285375</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.6917600772023218</v>
+        <v>0.75654241804823175</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>14744907.201103039</v>
+        <v>13482308.373306271</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>14744907.17190217</v>
+        <v>13482308.392364601</v>
       </c>
       <c r="N4">
-        <v>16.832085741569109</v>
+        <v>15.3907628889097</v>
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="30"/>
-      <c r="B5" s="17" t="s">
+      <c r="A5" s="26"/>
+      <c r="B5" s="16" t="s">
         <v>62</v>
       </c>
       <c r="C5">
-        <v>108.02865</v>
+        <v>106.79644</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>310696.36606349418</v>
+        <v>251965.37841551629</v>
       </c>
       <c r="F5">
-        <v>310696.36606349418</v>
+        <v>251965.37841551629</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>6.3943794611986959E-4</v>
+        <v>4.4936799713468639E-4</v>
       </c>
       <c r="I5">
-        <v>0.32831680944588221</v>
+        <v>0.26932705857985029</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -4781,40 +5443,40 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.3943796749299509E-4</v>
+        <v>4.4936803442396922E-4</v>
       </c>
       <c r="M5">
-        <v>6.3942279666662216E-4</v>
+        <v>4.4939294457435608E-4</v>
       </c>
       <c r="N5">
-        <v>2.0580748888909259E-9</v>
+        <v>1.783524535145448E-9</v>
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="30"/>
-      <c r="B6" s="17" t="s">
+      <c r="A6" s="26"/>
+      <c r="B6" s="16" t="s">
         <v>63</v>
       </c>
       <c r="C6">
-        <v>35.182806999999997</v>
+        <v>35.922134</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>91787.992498194566</v>
+        <v>81861.279452870163</v>
       </c>
       <c r="F6">
-        <v>91787.992498194566</v>
+        <v>81861.279452870163</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>2.8759594715666031E-4</v>
+        <v>-6.7891608523495961E-5</v>
       </c>
       <c r="I6">
-        <v>0.29781823080262743</v>
+        <v>0.26014308934739733</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -4823,62 +5485,62 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>2.8759645738318801E-4</v>
+        <v>-6.7891758135374403E-5</v>
       </c>
       <c r="M6">
-        <v>2.8760917484760279E-4</v>
+        <v>-6.7883636802434921E-5</v>
       </c>
       <c r="N6">
-        <v>3.1335030473143602E-9</v>
+        <v>-8.2923588799075122E-10</v>
       </c>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="29"/>
-      <c r="B7" s="17" t="s">
+      <c r="A7" s="25"/>
+      <c r="B7" s="16" t="s">
         <v>64</v>
       </c>
       <c r="C7">
-        <v>108.02865</v>
+        <v>106.79644</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>875999.97700600058</v>
+        <v>875999.97758199403</v>
       </c>
       <c r="F7">
-        <v>904031.97627019265</v>
+        <v>904031.9768646179</v>
       </c>
       <c r="G7">
-        <v>-28031.99926419212</v>
+        <v>-28031.999282623841</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.9256803391981161</v>
+        <v>0.93636077607894019</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>15134917.75115801</v>
+        <v>14962283.94519862</v>
       </c>
       <c r="L7">
-        <v>6534959.8284647726</v>
+        <v>6534959.8327617012</v>
       </c>
       <c r="M7">
-        <v>21669876.569111489</v>
+        <v>21497243.440455891</v>
       </c>
       <c r="N7">
-        <v>24.73730266885957</v>
+        <v>24.54023286598045</v>
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="16" t="s">
         <v>66</v>
       </c>
       <c r="C8">
@@ -4909,144 +5571,144 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>-80375625.247996926</v>
+        <v>-71700211.359002858</v>
       </c>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="16" t="s">
         <v>66</v>
       </c>
       <c r="C9">
-        <v>18.004394999999999</v>
+        <v>8.2590924999999995</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>8547.7210886479934</v>
+        <v>4084.6481735551911</v>
       </c>
       <c r="F9">
-        <v>9179.0073588659798</v>
+        <v>4386.3171385869873</v>
       </c>
       <c r="G9">
-        <v>-631.28627021800048</v>
+        <v>-301.66896503179942</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.1123947312777832</v>
+        <v>0.1170837077583249</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>370368.52022896142</v>
+        <v>169897.84259116251</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>370368.51887525897</v>
+        <v>169897.84286981891</v>
       </c>
       <c r="N9">
-        <v>43.329504441497953</v>
+        <v>41.594241572571718</v>
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="16" t="s">
         <v>62</v>
       </c>
       <c r="C10">
-        <v>3886.4962999999998</v>
+        <v>3652.5333000000001</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>155348.18271202801</v>
+        <v>125982.688983074</v>
       </c>
       <c r="F10">
-        <v>155348.18335146681</v>
+        <v>125982.6894324423</v>
       </c>
       <c r="G10">
-        <v>-6.3943794611986959E-4</v>
+        <v>-4.4936799713468639E-4</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.4269152158810246</v>
+        <v>0.41873955572302213</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>6218064.3538078144</v>
+        <v>5843743.4029786736</v>
       </c>
       <c r="L10">
-        <v>-6.3943794611986959E-4</v>
+        <v>-4.4936799713468639E-4</v>
       </c>
       <c r="M10">
-        <v>6218064.4158397513</v>
+        <v>5843743.4438920887</v>
       </c>
       <c r="N10">
-        <v>40.026631192502123</v>
+        <v>46.385289050920463</v>
       </c>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="29"/>
-      <c r="B11" s="17" t="s">
+      <c r="A11" s="25"/>
+      <c r="B11" s="16" t="s">
         <v>63</v>
       </c>
       <c r="C11">
-        <v>18889.25</v>
+        <v>18161.978999999999</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>45893.996105299033</v>
+        <v>40930.639760381113</v>
       </c>
       <c r="F11">
-        <v>45893.996392895016</v>
+        <v>40930.639692489567</v>
       </c>
       <c r="G11">
-        <v>-2.8759594715666031E-4</v>
+        <v>6.7891608523495961E-5</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.51117883626240601</v>
+        <v>0.48074739571877839</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2152018.2572709098</v>
+        <v>2069161.5811199951</v>
       </c>
       <c r="L11">
-        <v>-2.8759594715666031E-4</v>
+        <v>6.7891608523495961E-5</v>
       </c>
       <c r="M11">
-        <v>2152018.196886159</v>
+        <v>2069161.7494261621</v>
       </c>
       <c r="N11">
-        <v>46.891061566061673</v>
+        <v>50.552880715756501</v>
       </c>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="16" t="s">
         <v>70</v>
       </c>
     </row>
@@ -5055,7 +5717,7 @@
         <v>12</v>
       </c>
       <c r="B15">
-        <v>875999.97700600058</v>
+        <v>875999.97758199403</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -5063,7 +5725,7 @@
         <v>10</v>
       </c>
       <c r="B16">
-        <v>73840665.324020267</v>
+        <v>65165250.936046191</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -5071,7 +5733,7 @@
         <v>11</v>
       </c>
       <c r="B17">
-        <v>6534959.8284647726</v>
+        <v>6534959.8327617012</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -5079,7 +5741,7 @@
         <v>13</v>
       </c>
       <c r="B18">
-        <v>568.86859477850624</v>
+        <v>507.46725815412441</v>
       </c>
     </row>
   </sheetData>
@@ -5101,198 +5763,198 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="L1" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="M1" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="N1" s="16" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="16" t="s">
         <v>59</v>
       </c>
       <c r="C2">
-        <v>193.02328</v>
+        <v>254.63283000000001</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>273783.56961791997</v>
+        <v>324205.15140939993</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>273783.56961791997</v>
+        <v>324205.15140939993</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.16191742337071671</v>
+        <v>0.14534543907996911</v>
       </c>
       <c r="J2">
-        <v>86212.569083859969</v>
+        <v>121569.85008513001</v>
       </c>
       <c r="K2">
-        <v>9187288.6968461089</v>
+        <v>12119705.565592591</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>9187288.5772999339</v>
+        <v>12119705.441790501</v>
       </c>
       <c r="N2">
-        <v>33.556756492441473</v>
+        <v>37.382828092345669</v>
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="29"/>
-      <c r="B3" s="17" t="s">
+      <c r="A3" s="25"/>
+      <c r="B3" s="16" t="s">
         <v>16</v>
       </c>
       <c r="C3">
-        <v>292.50110999999998</v>
+        <v>293.72534000000002</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1239295.858630318</v>
+        <v>1188928.469188601</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1239295.858630318</v>
+        <v>1188928.469188601</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.48366356620195561</v>
+        <v>0.46207258791347861</v>
       </c>
       <c r="J3">
-        <v>203032.96601549</v>
+        <v>242597.49915831001</v>
       </c>
       <c r="K3">
-        <v>19450567.094005361</v>
+        <v>19531975.221836042</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>19450566.913555909</v>
+        <v>19531975.612870172</v>
       </c>
       <c r="N3">
-        <v>15.694853475144191</v>
+        <v>16.42821760858331</v>
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="16" t="s">
         <v>61</v>
       </c>
       <c r="C4">
-        <v>224.03440000000001</v>
+        <v>236.21874</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>876000.00660653692</v>
+        <v>876000.00268242159</v>
       </c>
       <c r="F4">
-        <v>1484745.7739093909</v>
+        <v>1484745.7672583349</v>
       </c>
       <c r="G4">
-        <v>-608745.76730285375</v>
+        <v>-608745.76457591332</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.75654241804823175</v>
+        <v>0.71751938877810018</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>13482308.373306271</v>
+        <v>14215557.504712921</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>13482308.392364601</v>
+        <v>14215556.712205449</v>
       </c>
       <c r="N4">
-        <v>15.3907628889097</v>
+        <v>16.227804416296191</v>
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="30"/>
-      <c r="B5" s="17" t="s">
+      <c r="A5" s="26"/>
+      <c r="B5" s="16" t="s">
         <v>62</v>
       </c>
       <c r="C5">
-        <v>106.79644</v>
+        <v>106.19945</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>251965.37841551629</v>
+        <v>289302.22639092762</v>
       </c>
       <c r="F5">
-        <v>251965.37841551629</v>
+        <v>289302.22639092762</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.4936799713468639E-4</v>
+        <v>-1.1082713015184711E-3</v>
       </c>
       <c r="I5">
-        <v>0.26932705857985029</v>
+        <v>0.31097494675788317</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -5301,40 +5963,40 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>4.4936803442396922E-4</v>
+        <v>-1.1082713174346279E-3</v>
       </c>
       <c r="M5">
-        <v>4.4939294457435608E-4</v>
+        <v>-1.108274795114994E-3</v>
       </c>
       <c r="N5">
-        <v>1.783524535145448E-9</v>
+        <v>-3.8308233176965602E-9</v>
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="30"/>
-      <c r="B6" s="17" t="s">
+      <c r="A6" s="26"/>
+      <c r="B6" s="16" t="s">
         <v>63</v>
       </c>
       <c r="C6">
-        <v>35.922134</v>
+        <v>36.280332000000001</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>81861.279452870163</v>
+        <v>77760.903711309889</v>
       </c>
       <c r="F6">
-        <v>81861.279452870163</v>
+        <v>77760.903711309889</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>-6.7891608523495961E-5</v>
+        <v>1.388094059393552E-4</v>
       </c>
       <c r="I6">
-        <v>0.26014308934739733</v>
+        <v>0.2446729399322661</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -5343,62 +6005,62 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>-6.7891758135374403E-5</v>
+        <v>1.3880987927450411E-4</v>
       </c>
       <c r="M6">
-        <v>-6.7883636802434921E-5</v>
+        <v>1.3883411884307861E-4</v>
       </c>
       <c r="N6">
-        <v>-8.2923588799075122E-10</v>
+        <v>1.7851074362837079E-9</v>
       </c>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="29"/>
-      <c r="B7" s="17" t="s">
+      <c r="A7" s="25"/>
+      <c r="B7" s="16" t="s">
         <v>64</v>
       </c>
       <c r="C7">
-        <v>106.79644</v>
+        <v>106.19945</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>875999.97758199403</v>
+        <v>876000.01697400049</v>
       </c>
       <c r="F7">
-        <v>904031.9768646179</v>
+        <v>904032.01751716831</v>
       </c>
       <c r="G7">
-        <v>-28031.999282623841</v>
+        <v>-28032.000543167789</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.93636077607894019</v>
+        <v>0.94162448051917225</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>14962283.94519862</v>
+        <v>14878645.072100939</v>
       </c>
       <c r="L7">
-        <v>6534959.8327617012</v>
+        <v>6534960.1266260128</v>
       </c>
       <c r="M7">
-        <v>21497243.440455891</v>
+        <v>21413606.18804371</v>
       </c>
       <c r="N7">
-        <v>24.54023286598045</v>
+        <v>24.444755448765289</v>
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="16" t="s">
         <v>66</v>
       </c>
       <c r="C8">
@@ -5429,144 +6091,144 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>-71700211.359002858</v>
+        <v>-76334040.298001975</v>
       </c>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="16" t="s">
         <v>66</v>
       </c>
       <c r="C9">
-        <v>8.2590924999999995</v>
+        <v>12.016088999999999</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>4084.6481735551911</v>
+        <v>4818.3650580019967</v>
       </c>
       <c r="F9">
-        <v>4386.3171385869873</v>
+        <v>5174.2221727710039</v>
       </c>
       <c r="G9">
-        <v>-301.66896503179942</v>
+        <v>-355.85711476900019</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.1170837077583249</v>
+        <v>9.4931579225383783E-2</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>169897.84259116251</v>
+        <v>247183.040689204</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>169897.84286981891</v>
+        <v>247183.04101878591</v>
       </c>
       <c r="N9">
-        <v>41.594241572571718</v>
+        <v>51.300189596112403</v>
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="16" t="s">
         <v>62</v>
       </c>
       <c r="C10">
-        <v>3652.5333000000001</v>
+        <v>3342.3721</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>125982.688983074</v>
+        <v>144651.11374959929</v>
       </c>
       <c r="F10">
-        <v>125982.6894324423</v>
+        <v>144651.11264132831</v>
       </c>
       <c r="G10">
-        <v>-4.4936799713468639E-4</v>
+        <v>1.108271301973218E-3</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.41873955572302213</v>
+        <v>0.36099248855737159</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>5843743.4029786736</v>
+        <v>5347511.7967233798</v>
       </c>
       <c r="L10">
-        <v>-4.4936799713468639E-4</v>
+        <v>1.108271301973218E-3</v>
       </c>
       <c r="M10">
-        <v>5843743.4438920887</v>
+        <v>5347511.7433085898</v>
       </c>
       <c r="N10">
-        <v>46.385289050920463</v>
+        <v>36.968341305449563</v>
       </c>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="29"/>
-      <c r="B11" s="17" t="s">
+      <c r="A11" s="25"/>
+      <c r="B11" s="16" t="s">
         <v>63</v>
       </c>
       <c r="C11">
-        <v>18161.978999999999</v>
+        <v>30356.861000000001</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>40930.639760381113</v>
+        <v>38880.451786250087</v>
       </c>
       <c r="F11">
-        <v>40930.639692489567</v>
+        <v>38880.451925059519</v>
       </c>
       <c r="G11">
-        <v>6.7891608523495961E-5</v>
+        <v>-1.388094059393552E-4</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.48074739571877839</v>
+        <v>0.46331676434599928</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2069161.5811199951</v>
+        <v>3458502.5400921288</v>
       </c>
       <c r="L11">
-        <v>6.7891608523495961E-5</v>
+        <v>-1.388094059393552E-4</v>
       </c>
       <c r="M11">
-        <v>2069161.7494261621</v>
+        <v>3458502.568898946</v>
       </c>
       <c r="N11">
-        <v>50.552880715756501</v>
+        <v>88.952221746611301</v>
       </c>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="16" t="s">
         <v>70</v>
       </c>
     </row>
@@ -5575,7 +6237,7 @@
         <v>12</v>
       </c>
       <c r="B15">
-        <v>875999.97758199403</v>
+        <v>876000.01697400049</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -5583,7 +6245,7 @@
         <v>10</v>
       </c>
       <c r="B16">
-        <v>65165250.936046191</v>
+        <v>69799080.7417472</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -5591,7 +6253,7 @@
         <v>11</v>
       </c>
       <c r="B17">
-        <v>6534959.8327617012</v>
+        <v>6534960.1266260138</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -5599,7 +6261,7 @@
         <v>13</v>
       </c>
       <c r="B18">
-        <v>507.46725815412441</v>
+        <v>540.26374910214247</v>
       </c>
     </row>
   </sheetData>
@@ -5621,198 +6283,198 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="L1" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="M1" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="N1" s="16" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="16" t="s">
         <v>59</v>
       </c>
       <c r="C2">
-        <v>254.63283000000001</v>
+        <v>318.69371999999998</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>324205.15140939993</v>
+        <v>418545.11133016407</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>324205.15140939993</v>
+        <v>418545.11133016407</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.14534543907996911</v>
+        <v>0.14992175653151851</v>
       </c>
       <c r="J2">
-        <v>121569.85008513001</v>
+        <v>139378.60053387599</v>
       </c>
       <c r="K2">
-        <v>12119705.565592591</v>
+        <v>15168798.35174202</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>12119705.441790501</v>
+        <v>15168798.23579918</v>
       </c>
       <c r="N2">
-        <v>37.382828092345669</v>
+        <v>36.241728370907829</v>
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="29"/>
-      <c r="B3" s="17" t="s">
+      <c r="A3" s="25"/>
+      <c r="B3" s="16" t="s">
         <v>16</v>
       </c>
       <c r="C3">
-        <v>293.72534000000002</v>
+        <v>324.88409999999999</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1188928.469188601</v>
+        <v>1094791.6143239399</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1188928.469188601</v>
+        <v>1094791.6143239399</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.46207258791347861</v>
+        <v>0.3846793723694556</v>
       </c>
       <c r="J3">
-        <v>242597.49915831001</v>
+        <v>259462.09152265801</v>
       </c>
       <c r="K3">
-        <v>19531975.221836042</v>
+        <v>21603952.151927039</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>19531975.612870172</v>
+        <v>21603951.81317478</v>
       </c>
       <c r="N3">
-        <v>16.42821760858331</v>
+        <v>19.733391752836631</v>
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="16" t="s">
         <v>61</v>
       </c>
       <c r="C4">
-        <v>236.21874</v>
+        <v>249.03976</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>876000.00268242159</v>
+        <v>876000.00544603344</v>
       </c>
       <c r="F4">
-        <v>1484745.7672583349</v>
+        <v>1484745.771942426</v>
       </c>
       <c r="G4">
-        <v>-608745.76457591332</v>
+        <v>-608745.76649639255</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.71751938877810018</v>
+        <v>0.68058018718555646</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>14215557.504712921</v>
+        <v>14987121.806000261</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>14215556.712205449</v>
+        <v>14987122.19829556</v>
       </c>
       <c r="N4">
-        <v>16.227804416296191</v>
+        <v>17.10858687799287</v>
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="30"/>
-      <c r="B5" s="17" t="s">
+      <c r="A5" s="26"/>
+      <c r="B5" s="16" t="s">
         <v>62</v>
       </c>
       <c r="C5">
-        <v>106.19945</v>
+        <v>107.08745</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>289302.22639092762</v>
+        <v>323013.21545790602</v>
       </c>
       <c r="F5">
-        <v>289302.22639092762</v>
+        <v>323013.21545790602</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>-1.1082713015184711E-3</v>
+        <v>-1.6842800619087939E-4</v>
       </c>
       <c r="I5">
-        <v>0.31097494675788317</v>
+        <v>0.34433217648414999</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -5821,40 +6483,40 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>-1.1082713174346279E-3</v>
+        <v>-1.6842801824168421E-4</v>
       </c>
       <c r="M5">
-        <v>-1.108274795114994E-3</v>
+        <v>-1.684287562966347E-4</v>
       </c>
       <c r="N5">
-        <v>-3.8308233176965602E-9</v>
+        <v>-5.214431263393336E-10</v>
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="30"/>
-      <c r="B6" s="17" t="s">
+      <c r="A6" s="26"/>
+      <c r="B6" s="16" t="s">
         <v>63</v>
       </c>
       <c r="C6">
-        <v>36.280332000000001</v>
+        <v>35.747529</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>77760.903711309889</v>
+        <v>85091.412461791188</v>
       </c>
       <c r="F6">
-        <v>77760.903711309889</v>
+        <v>85091.412461791188</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1.388094059393552E-4</v>
+        <v>1.4957458768094509E-4</v>
       </c>
       <c r="I6">
-        <v>0.2446729399322661</v>
+        <v>0.27172875528166462</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -5863,62 +6525,62 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>1.3880987927450411E-4</v>
+        <v>1.4957488997424659E-4</v>
       </c>
       <c r="M6">
-        <v>1.3883411884307861E-4</v>
+        <v>1.495704054832458E-4</v>
       </c>
       <c r="N6">
-        <v>1.7851074362837079E-9</v>
+        <v>1.7580345506668889E-9</v>
       </c>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="29"/>
-      <c r="B7" s="17" t="s">
+      <c r="A7" s="25"/>
+      <c r="B7" s="16" t="s">
         <v>64</v>
       </c>
       <c r="C7">
-        <v>106.19945</v>
+        <v>107.08745</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>876000.01697400049</v>
+        <v>875999.99327099766</v>
       </c>
       <c r="F7">
-        <v>904032.01751716831</v>
+        <v>904031.99305566982</v>
       </c>
       <c r="G7">
-        <v>-28032.000543167789</v>
+        <v>-28031.999784672189</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.94162448051917225</v>
+        <v>0.9338162336655681</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>14878645.072100939</v>
+        <v>15003054.726049479</v>
       </c>
       <c r="L7">
-        <v>6534960.1266260128</v>
+        <v>6534959.9498016443</v>
       </c>
       <c r="M7">
-        <v>21413606.18804371</v>
+        <v>21538013.696676221</v>
       </c>
       <c r="N7">
-        <v>24.444755448765289</v>
+        <v>24.586773815205689</v>
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="16" t="s">
         <v>66</v>
       </c>
       <c r="C8">
@@ -5949,144 +6611,144 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>-76334040.298001975</v>
+        <v>-82818804.602502674</v>
       </c>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="16" t="s">
         <v>66</v>
       </c>
       <c r="C9">
-        <v>12.016088999999999</v>
+        <v>18.328185000000001</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>4818.3650580019967</v>
+        <v>7568.5012822229901</v>
       </c>
       <c r="F9">
-        <v>5174.2221727710039</v>
+        <v>8127.4679002040912</v>
       </c>
       <c r="G9">
-        <v>-355.85711476900019</v>
+        <v>-558.96661798110199</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>9.4931579225383783E-2</v>
+        <v>9.7760760486105713E-2</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>247183.040689204</v>
+        <v>377029.20630949538</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>247183.04101878591</v>
+        <v>377029.20870504598</v>
       </c>
       <c r="N9">
-        <v>51.300189596112403</v>
+        <v>49.815570434085437</v>
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="16" t="s">
         <v>62</v>
       </c>
       <c r="C10">
-        <v>3342.3721</v>
+        <v>3409.1316999999999</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>144651.11374959929</v>
+        <v>161506.60781316701</v>
       </c>
       <c r="F10">
-        <v>144651.11264132831</v>
+        <v>161506.6076447384</v>
       </c>
       <c r="G10">
-        <v>1.108271301973218E-3</v>
+        <v>1.6842800596350571E-4</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.36099248855737159</v>
+        <v>0.37745218813355341</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>5347511.7967233798</v>
+        <v>5454321.4929102687</v>
       </c>
       <c r="L10">
-        <v>1.108271301973218E-3</v>
+        <v>1.6842800596350571E-4</v>
       </c>
       <c r="M10">
-        <v>5347511.7433085898</v>
+        <v>5454321.6797991572</v>
       </c>
       <c r="N10">
-        <v>36.968341305449563</v>
+        <v>33.771507888449833</v>
       </c>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="29"/>
-      <c r="B11" s="17" t="s">
+      <c r="A11" s="25"/>
+      <c r="B11" s="16" t="s">
         <v>63</v>
       </c>
       <c r="C11">
-        <v>30356.861000000001</v>
+        <v>32385.026000000002</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>38880.451786250087</v>
+        <v>42545.706156108106</v>
       </c>
       <c r="F11">
-        <v>38880.451925059519</v>
+        <v>42545.706305682412</v>
       </c>
       <c r="G11">
-        <v>-1.388094059393552E-4</v>
+        <v>-1.4957458768094509E-4</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.46331676434599928</v>
+        <v>0.46279174399440981</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>3458502.5400921288</v>
+        <v>3689567.7284271801</v>
       </c>
       <c r="L11">
-        <v>-1.388094059393552E-4</v>
+        <v>-1.4957458768094509E-4</v>
       </c>
       <c r="M11">
-        <v>3458502.568898946</v>
+        <v>3689567.671609519</v>
       </c>
       <c r="N11">
-        <v>88.952221746611301</v>
+        <v>86.720094809847666</v>
       </c>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="16" t="s">
         <v>70</v>
       </c>
     </row>
@@ -6095,7 +6757,7 @@
         <v>12</v>
       </c>
       <c r="B15">
-        <v>876000.01697400049</v>
+        <v>875999.99327099766</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -6103,7 +6765,7 @@
         <v>10</v>
       </c>
       <c r="B16">
-        <v>69799080.7417472</v>
+        <v>76283845.463365749</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -6111,7 +6773,7 @@
         <v>11</v>
       </c>
       <c r="B17">
-        <v>6534960.1266260138</v>
+        <v>6534959.9498016452</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -6119,7 +6781,7 @@
         <v>13</v>
       </c>
       <c r="B18">
-        <v>540.26374910214247</v>
+        <v>586.16049943597397</v>
       </c>
     </row>
   </sheetData>
@@ -6186,40 +6848,40 @@
         <v>59</v>
       </c>
       <c r="C2">
-        <v>318.69371999999998</v>
+        <v>272.42090999999999</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>418545.11133016407</v>
+        <v>330111.70984572818</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>418545.11133016407</v>
+        <v>330111.70984572818</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.14992175653151851</v>
+        <v>0.13833000242971949</v>
       </c>
       <c r="J2">
-        <v>139378.60053387599</v>
+        <v>122381.577074562</v>
       </c>
       <c r="K2">
-        <v>15168798.35174202</v>
+        <v>12966361.089851599</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>15168798.23579918</v>
+        <v>12966361.21905138</v>
       </c>
       <c r="N2">
-        <v>36.241728370907829</v>
+        <v>39.27870727491306</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -6228,40 +6890,40 @@
         <v>16</v>
       </c>
       <c r="C3">
-        <v>324.88409999999999</v>
+        <v>329.94285000000002</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1094791.6143239399</v>
+        <v>1183033.2409832</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1094791.6143239399</v>
+        <v>1183033.2409832</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.3846793723694556</v>
+        <v>0.40931166331757662</v>
       </c>
       <c r="J3">
-        <v>259462.09152265801</v>
+        <v>314281.39913365041</v>
       </c>
       <c r="K3">
-        <v>21603952.151927039</v>
+        <v>21940345.939584121</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>21603951.81317478</v>
+        <v>21940345.91841834</v>
       </c>
       <c r="N3">
-        <v>19.733391752836631</v>
+        <v>18.545840605614881</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -6272,40 +6934,40 @@
         <v>61</v>
       </c>
       <c r="C4">
-        <v>249.03976</v>
+        <v>244.76352</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>876000.00544603344</v>
+        <v>876000.00610957434</v>
       </c>
       <c r="F4">
-        <v>1484745.771942426</v>
+        <v>1484745.773067066</v>
       </c>
       <c r="G4">
-        <v>-608745.76649639255</v>
+        <v>-608745.76695749164</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.68058018718555646</v>
+        <v>0.69247053893419053</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>14987121.806000261</v>
+        <v>14729779.244508499</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>14987122.19829556</v>
+        <v>14729779.668025721</v>
       </c>
       <c r="N4">
-        <v>17.10858687799287</v>
+        <v>16.814816855358782</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -6314,25 +6976,25 @@
         <v>62</v>
       </c>
       <c r="C5">
-        <v>107.08745</v>
+        <v>105.21796000000001</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>323013.21545790602</v>
+        <v>289779.40923496208</v>
       </c>
       <c r="F5">
-        <v>323013.21545790602</v>
+        <v>289779.40923496208</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>-1.6842800619087939E-4</v>
+        <v>-5.2542991821269425E-4</v>
       </c>
       <c r="I5">
-        <v>0.34433217648414999</v>
+        <v>0.31439348602527439</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -6341,13 +7003,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>-1.6842801824168421E-4</v>
+        <v>-5.2542990687243218E-4</v>
       </c>
       <c r="M5">
-        <v>-1.684287562966347E-4</v>
+        <v>-5.2543263882398605E-4</v>
       </c>
       <c r="N5">
-        <v>-5.214431263393336E-10</v>
+        <v>-1.813179731533481E-9</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -6356,25 +7018,25 @@
         <v>63</v>
       </c>
       <c r="C6">
-        <v>35.747529</v>
+        <v>36.869222999999998</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>85091.412461791188</v>
+        <v>68176.774893723952</v>
       </c>
       <c r="F6">
-        <v>85091.412461791188</v>
+        <v>68176.774893723952</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1.4957458768094509E-4</v>
+        <v>3.5993797223454749E-4</v>
       </c>
       <c r="I6">
-        <v>0.27172875528166462</v>
+        <v>0.21109034112311409</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -6383,13 +7045,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>1.4957488997424659E-4</v>
+        <v>3.5993795336253243E-4</v>
       </c>
       <c r="M6">
-        <v>1.495704054832458E-4</v>
+        <v>3.5991566255688667E-4</v>
       </c>
       <c r="N6">
-        <v>1.7580345506668889E-9</v>
+        <v>5.2792983020934366E-9</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -6398,40 +7060,40 @@
         <v>64</v>
       </c>
       <c r="C7">
-        <v>107.08745</v>
+        <v>105.21796000000001</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>875999.99327099766</v>
+        <v>875999.99288900651</v>
       </c>
       <c r="F7">
-        <v>904031.99305566982</v>
+        <v>904031.99266145437</v>
       </c>
       <c r="G7">
-        <v>-28031.999784672189</v>
+        <v>-28031.999772447871</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.9338162336655681</v>
+        <v>0.95040807850904596</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>15003054.726049479</v>
+        <v>14741137.37924739</v>
       </c>
       <c r="L7">
-        <v>6534959.9498016443</v>
+        <v>6534959.9469519807</v>
       </c>
       <c r="M7">
-        <v>21538013.696676221</v>
+        <v>21276097.591619149</v>
       </c>
       <c r="N7">
-        <v>24.586773815205689</v>
+        <v>24.287782835992431</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -6469,7 +7131,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>-82818804.602502674</v>
+        <v>-78652394.74720268</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -6480,40 +7142,40 @@
         <v>66</v>
       </c>
       <c r="C9">
-        <v>18.328185000000001</v>
+        <v>13.251597</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>7568.5012822229901</v>
+        <v>4971.8134689228054</v>
       </c>
       <c r="F9">
-        <v>8127.4679002040912</v>
+        <v>5339.0034470279916</v>
       </c>
       <c r="G9">
-        <v>-558.96661798110199</v>
+        <v>-367.18997810519028</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>9.7760760486105713E-2</v>
+        <v>8.8822041186049708E-2</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>377029.20630949538</v>
+        <v>272598.68335262279</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>377029.20870504598</v>
+        <v>272598.68145654048</v>
       </c>
       <c r="N9">
-        <v>49.815570434085437</v>
+        <v>54.828823156875472</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -6524,40 +7186,40 @@
         <v>62</v>
       </c>
       <c r="C10">
-        <v>3409.1316999999999</v>
+        <v>3044.2923000000001</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>161506.60781316701</v>
+        <v>144889.7048801959</v>
       </c>
       <c r="F10">
-        <v>161506.6076447384</v>
+        <v>144889.70435476609</v>
       </c>
       <c r="G10">
-        <v>1.6842800596350571E-4</v>
+        <v>5.2542991821269425E-4</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.37745218813355341</v>
+        <v>0.30544920210047399</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>5454321.4929102687</v>
+        <v>4870609.4054950234</v>
       </c>
       <c r="L10">
-        <v>1.6842800596350571E-4</v>
+        <v>5.2542991821269425E-4</v>
       </c>
       <c r="M10">
-        <v>5454321.6797991572</v>
+        <v>4870609.6562430104</v>
       </c>
       <c r="N10">
-        <v>33.771507888449833</v>
+        <v>33.615981620435463</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -6566,40 +7228,40 @@
         <v>63</v>
       </c>
       <c r="C11">
-        <v>32385.026000000002</v>
+        <v>22791.562999999998</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>42545.706156108106</v>
+        <v>34088.387266892947</v>
       </c>
       <c r="F11">
-        <v>42545.706305682412</v>
+        <v>34088.387626830947</v>
       </c>
       <c r="G11">
-        <v>-1.4957458768094509E-4</v>
+        <v>-3.5993797587252629E-4</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.46279174399440981</v>
+        <v>0.4321237109170874</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>3689567.7284271801</v>
+        <v>2596601.7543174112</v>
       </c>
       <c r="L11">
-        <v>-1.4957458768094509E-4</v>
+        <v>-3.5993797587252629E-4</v>
       </c>
       <c r="M11">
-        <v>3689567.671609519</v>
+        <v>2596601.824631751</v>
       </c>
       <c r="N11">
-        <v>86.720094809847666</v>
+        <v>76.172621611630319</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -6615,7 +7277,7 @@
         <v>12</v>
       </c>
       <c r="B15">
-        <v>875999.99327099766</v>
+        <v>875999.99288900651</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -6623,7 +7285,7 @@
         <v>10</v>
       </c>
       <c r="B16">
-        <v>76283845.463365749</v>
+        <v>72117433.496356666</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -6631,7 +7293,7 @@
         <v>11</v>
       </c>
       <c r="B17">
-        <v>6534959.9498016452</v>
+        <v>6534959.9469519807</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -6639,7 +7301,7 @@
         <v>13</v>
       </c>
       <c r="B18">
-        <v>586.16049943597397</v>
+        <v>556.67219555594295</v>
       </c>
     </row>
   </sheetData>
